--- a/data/Sample Rally.xlsx
+++ b/data/Sample Rally.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffe46770ff0996ef/Desktop/rti/carrally/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\round-table-car-rally\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="655" documentId="13_ncr:1_{5A67FAE8-E354-4F8B-8553-8E6EE452D78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB42EDC2-0302-4EF8-86F6-D9ADA84AE6BD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB94DA3E-BCC2-4209-8E29-2F11E84CB4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{83D86452-F20F-44D9-8BE9-A750E33F13C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{83D86452-F20F-44D9-8BE9-A750E33F13C5}"/>
   </bookViews>
   <sheets>
     <sheet name="CarRally23" sheetId="1" r:id="rId1"/>
+    <sheet name="Participants" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CarRally23!$A$20:$K$382</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>SECTION</t>
   </si>
@@ -144,12 +148,15 @@
   <si>
     <t>12x12</t>
   </si>
+  <si>
+    <t>Car Number</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +168,18 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -268,14 +287,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -286,11 +304,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -302,6 +317,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -319,14 +341,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -364,7 +382,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -470,7 +488,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -612,7 +630,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -622,42 +640,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A2BD83-87CC-4D86-B37D-1F1B84049F58}">
   <dimension ref="A1:O381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="94" workbookViewId="0">
-      <selection activeCell="L129" sqref="L129"/>
+    <sheetView topLeftCell="A13" zoomScale="94" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="16384" width="9.140625" style="26"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,10 +706,10 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="10"/>
+      <c r="N2" s="9"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -714,14 +735,14 @@
       <c r="L3" s="5">
         <v>27</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <f>K3*60/L3</f>
         <v>15.555555555555555</v>
       </c>
-      <c r="N3" s="11"/>
+      <c r="N3" s="10"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -755,11 +776,11 @@
       <c r="L4" s="3">
         <v>30</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <f t="shared" ref="M4:M16" si="1">K4*60/L4</f>
         <v>2</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="9">
         <f>SUM(M3:M4)</f>
         <v>17.555555555555557</v>
       </c>
@@ -767,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -800,14 +821,14 @@
       <c r="L5" s="5">
         <v>30</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -842,11 +863,11 @@
       <c r="L6" s="3">
         <v>25</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <f t="shared" si="1"/>
         <v>0.72000000000000175</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="9">
         <f>SUM(M5:M6)</f>
         <v>18.720000000000002</v>
       </c>
@@ -854,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -889,11 +910,11 @@
       <c r="L7" s="3">
         <v>25</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <f t="shared" si="1"/>
         <v>21.12</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="9">
         <f>M7</f>
         <v>21.12</v>
       </c>
@@ -901,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -934,14 +955,14 @@
       <c r="L8" s="5">
         <v>25</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <f t="shared" si="1"/>
         <v>4.5599999999999969</v>
       </c>
-      <c r="N8" s="11"/>
+      <c r="N8" s="10"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -974,14 +995,14 @@
       <c r="L9" s="5">
         <v>31</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <f t="shared" si="1"/>
         <v>19.35483870967742</v>
       </c>
-      <c r="N9" s="11"/>
+      <c r="N9" s="10"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1016,11 +1037,11 @@
       <c r="L10" s="3">
         <v>23</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <f t="shared" si="1"/>
         <v>1.0434782608695614</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="9">
         <f>SUM(M8:M10)</f>
         <v>24.958316970546981</v>
       </c>
@@ -1028,7 +1049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1061,14 +1082,14 @@
       <c r="L11" s="5">
         <v>23</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <f t="shared" si="1"/>
         <v>8.0869565217391344</v>
       </c>
-      <c r="N11" s="11"/>
+      <c r="N11" s="10"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,11 +1114,11 @@
       <c r="L12" s="3">
         <v>20</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <f t="shared" si="1"/>
         <v>3.8999999999999915</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="9">
         <f>SUM(M11:M12)</f>
         <v>11.986956521739126</v>
       </c>
@@ -1105,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I13" s="5"/>
       <c r="J13" s="5">
         <v>47</v>
@@ -1117,14 +1138,14 @@
       <c r="L13" s="5">
         <v>20</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <f t="shared" si="1"/>
         <v>12.600000000000009</v>
       </c>
-      <c r="N13" s="11"/>
+      <c r="N13" s="10"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1138,11 +1159,11 @@
       <c r="L14" s="3">
         <v>26</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="8">
         <f t="shared" si="1"/>
         <v>0.9230769230769198</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="9">
         <f>SUM(M13:M14)</f>
         <v>13.523076923076928</v>
       </c>
@@ -1150,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I15" s="5"/>
       <c r="J15" s="5">
         <v>53.5</v>
@@ -1162,14 +1183,14 @@
       <c r="L15" s="5">
         <v>26</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <f t="shared" si="1"/>
         <v>14.076923076923082</v>
       </c>
-      <c r="N15" s="11"/>
+      <c r="N15" s="10"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I16" s="3" t="s">
         <v>23</v>
       </c>
@@ -1183,11 +1204,11 @@
       <c r="L16" s="3">
         <v>18</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="8">
         <f t="shared" si="1"/>
         <v>16.333333333333329</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="9">
         <f>SUM(M15:M16)</f>
         <v>30.410256410256409</v>
       </c>
@@ -1195,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1207,106 +1228,108 @@
       <c r="M17" s="4">
         <v>138.27000000000001</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="11">
         <v>138.27000000000001</v>
       </c>
       <c r="O17" s="4"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13">
-        <v>0</v>
-      </c>
-      <c r="D20" s="13">
+    <row r="18" spans="1:15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
         <v>18</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>19</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>21</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="12">
         <v>25</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="12">
         <v>27</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="12">
         <v>14</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="12">
         <v>30</v>
       </c>
-      <c r="K20" s="13"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="13"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K21" s="12"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <v>0.33402777777777781</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14">
         <v>0.36388888888888887</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="14">
         <v>0.38055555555555554</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <v>0.41388888888888892</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="14">
         <v>0.4368055555555555</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="14">
         <v>0.45763888888888887</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="14">
         <v>0.47638888888888892</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="23">
         <f>INT((J23-C23)*1440)</f>
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D24" s="1">
         <f>INT((D23-C23)*1440)</f>
         <v>-481</v>
@@ -1336,7 +1359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D25" s="1">
         <f>D24-D$20</f>
         <v>-499</v>
@@ -1366,7 +1389,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D26" s="1">
         <f>IF(D25&lt;0, D25*-3, D25)</f>
         <v>1497</v>
@@ -1395,44 +1418,44 @@
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="23">
         <f>SUM(D26:J26)</f>
         <v>2058</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="15">
+      <c r="C28" s="14">
         <v>0.3347222222222222</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14">
         <v>0.38055555555555554</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="14">
         <v>0.43611111111111112</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="14">
         <v>0.46249999999999997</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="14">
         <v>0.48055555555555557</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="14">
         <v>0.49236111111111108</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28" s="14">
         <v>0.51666666666666672</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="23">
         <f>INT((J28-C28)*1440)</f>
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D29" s="1">
         <f>INT((D28-C28)*1440)</f>
         <v>-482</v>
@@ -1462,7 +1485,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D30" s="1">
         <f>D29-D$20</f>
         <v>-500</v>
@@ -1492,7 +1515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D31" s="1">
         <f>IF(D30&lt;0, D30*-3, D30)</f>
         <v>1500</v>
@@ -1521,40 +1544,40 @@
         <f t="shared" ref="J31" si="25">IF(J30&lt;0, J30*-3, J30)</f>
         <v>5</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="23">
         <f>SUM(D31:J31)</f>
         <v>2110</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>3</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="15">
+      <c r="C33" s="14">
         <v>0.36319444444444443</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="14">
         <v>0.43124999999999997</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="14">
         <v>0.45763888888888887</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="14">
         <v>0.48749999999999999</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="14">
         <v>0.52013888888888882</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="6">
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="23">
         <f t="shared" ref="K33" si="26">INT((J33-C33)*1440)</f>
         <v>-523</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D34" s="1">
         <f t="shared" ref="D34" si="27">INT((D33-C33)*1440)</f>
         <v>98</v>
@@ -1584,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D35" s="1">
         <f t="shared" ref="D35:J35" si="34">D34-D$20</f>
         <v>80</v>
@@ -1614,7 +1637,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D36" s="1">
         <f t="shared" ref="D36:J36" si="35">IF(D35&lt;0, D35*-3, D35)</f>
         <v>80</v>
@@ -1643,156 +1666,167 @@
         <f t="shared" si="35"/>
         <v>90</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="23">
         <f t="shared" ref="K36" si="36">SUM(D36:J36)</f>
         <v>2602</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="19">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
         <v>4</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20">
-        <v>0</v>
-      </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="21">
+      <c r="B38" s="16"/>
+      <c r="C38" s="17">
+        <v>0</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="24">
         <f t="shared" ref="K38" si="37">INT((J38-C38)*1440)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="19">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="16">
         <f t="shared" ref="D39" si="38">INT((D38-C38)*1440)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="16">
         <f t="shared" ref="E39" si="39">INT((E38-D38)*1440)</f>
         <v>0</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="16">
         <f t="shared" ref="F39" si="40">INT((F38-E38)*1440)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="16">
         <f t="shared" ref="G39" si="41">INT((G38-F38)*1440)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="16">
         <f t="shared" ref="H39" si="42">INT((H38-G38)*1440)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I39" s="16">
         <f t="shared" ref="I39" si="43">INT((I38-H38)*1440)</f>
         <v>0</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J39" s="16">
         <f t="shared" ref="J39" si="44">INT((J38-I38)*1440)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="19">
+      <c r="K39" s="18"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="16">
         <f t="shared" ref="D40:J100" si="45">D39-D$20</f>
         <v>-18</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="16">
         <f t="shared" si="45"/>
         <v>-19</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="16">
         <f t="shared" si="45"/>
         <v>-21</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="16">
         <f t="shared" si="45"/>
         <v>-25</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="16">
         <f t="shared" si="45"/>
         <v>-27</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="16">
         <f t="shared" si="45"/>
         <v>-14</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J40" s="16">
         <f t="shared" si="45"/>
         <v>-30</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="19">
+      <c r="K40" s="18"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="16">
         <f t="shared" ref="D41:J101" si="46">IF(D40&lt;0, D40*-3, D40)</f>
         <v>54</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="16">
         <f t="shared" si="46"/>
         <v>57</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="16">
         <f t="shared" si="46"/>
         <v>63</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="16">
         <f t="shared" si="46"/>
         <v>75</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="16">
         <f t="shared" si="46"/>
         <v>81</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I41" s="16">
         <f t="shared" si="46"/>
         <v>42</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J41" s="16">
         <f t="shared" si="46"/>
         <v>90</v>
       </c>
-      <c r="K41" s="21">
+      <c r="K41" s="24">
         <f t="shared" ref="K41" si="47">SUM(D41:J41)</f>
         <v>462</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>5</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="15">
+      <c r="C43" s="14">
         <v>0.33749999999999997</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="14">
         <v>0.37083333333333335</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="14">
         <v>0.38819444444444445</v>
       </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15">
+      <c r="F43" s="14"/>
+      <c r="G43" s="14">
         <v>0.44236111111111115</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15">
+      <c r="H43" s="14"/>
+      <c r="I43" s="14">
         <v>0.47361111111111115</v>
       </c>
-      <c r="J43" s="15">
+      <c r="J43" s="14">
         <v>0.50277777777777777</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="23">
         <f t="shared" ref="K43" si="48">INT((J43-C43)*1440)</f>
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D44" s="1">
         <f t="shared" ref="D44" si="49">INT((D43-C43)*1440)</f>
         <v>48</v>
@@ -1822,7 +1856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D45" s="1">
         <f t="shared" ref="D45:J45" si="56">D44-D$20</f>
         <v>30</v>
@@ -1852,7 +1886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D46" s="1">
         <f t="shared" ref="D46:J46" si="57">IF(D45&lt;0, D45*-3, D45)</f>
         <v>30</v>
@@ -1881,46 +1915,46 @@
         <f t="shared" si="57"/>
         <v>11</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="23">
         <f t="shared" ref="K46" si="58">SUM(D46:J46)</f>
         <v>5059</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>6</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="15">
+      <c r="C48" s="14">
         <v>0.33819444444444446</v>
       </c>
-      <c r="D48" s="15">
-        <v>0</v>
-      </c>
-      <c r="E48" s="15">
+      <c r="D48" s="14">
+        <v>0</v>
+      </c>
+      <c r="E48" s="14">
         <v>0.3833333333333333</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F48" s="14">
         <v>0.41875000000000001</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="14">
         <v>0.44791666666666669</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H48" s="14">
         <v>0.48055555555555557</v>
       </c>
-      <c r="I48" s="15">
+      <c r="I48" s="14">
         <v>0.49583333333333335</v>
       </c>
-      <c r="J48" s="15">
+      <c r="J48" s="14">
         <v>0.51041666666666663</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="23">
         <f t="shared" ref="K48" si="59">INT((J48-C48)*1440)</f>
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D49" s="1">
         <f t="shared" ref="D49" si="60">INT((D48-C48)*1440)</f>
         <v>-487</v>
@@ -1950,7 +1984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D50" s="1">
         <f t="shared" ref="D50" si="67">D49-D$20</f>
         <v>-505</v>
@@ -1980,7 +2014,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D51" s="1">
         <f t="shared" ref="D51" si="68">IF(D50&lt;0, D50*-3, D50)</f>
         <v>1515</v>
@@ -2009,158 +2043,169 @@
         <f t="shared" si="46"/>
         <v>30</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="23">
         <f t="shared" ref="K51" si="69">SUM(D51:J51)</f>
         <v>2153</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="19">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
         <v>7</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="20">
-        <v>0</v>
-      </c>
-      <c r="D53" s="20">
-        <v>0</v>
-      </c>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="21">
+      <c r="B53" s="16"/>
+      <c r="C53" s="17">
+        <v>0</v>
+      </c>
+      <c r="D53" s="17">
+        <v>0</v>
+      </c>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="24">
         <f t="shared" ref="K53" si="70">INT((J53-C53)*1440)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="19">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="16">
         <f t="shared" ref="D54" si="71">INT((D53-C53)*1440)</f>
         <v>0</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="16">
         <f t="shared" ref="E54" si="72">INT((E53-D53)*1440)</f>
         <v>0</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="16">
         <f t="shared" ref="F54" si="73">INT((F53-E53)*1440)</f>
         <v>0</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G54" s="16">
         <f t="shared" ref="G54" si="74">INT((G53-F53)*1440)</f>
         <v>0</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H54" s="16">
         <f t="shared" ref="H54" si="75">INT((H53-G53)*1440)</f>
         <v>0</v>
       </c>
-      <c r="I54" s="19">
+      <c r="I54" s="16">
         <f t="shared" ref="I54" si="76">INT((I53-H53)*1440)</f>
         <v>0</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J54" s="16">
         <f t="shared" ref="J54" si="77">INT((J53-I53)*1440)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="19">
+      <c r="K54" s="18"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="16">
         <f t="shared" ref="D55:J55" si="78">D54-D$20</f>
         <v>-18</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E55" s="16">
         <f t="shared" si="78"/>
         <v>-19</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="16">
         <f t="shared" si="78"/>
         <v>-21</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G55" s="16">
         <f t="shared" si="78"/>
         <v>-25</v>
       </c>
-      <c r="H55" s="19">
+      <c r="H55" s="16">
         <f t="shared" si="78"/>
         <v>-27</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I55" s="16">
         <f t="shared" si="78"/>
         <v>-14</v>
       </c>
-      <c r="J55" s="19">
+      <c r="J55" s="16">
         <f t="shared" si="78"/>
         <v>-30</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="19">
+      <c r="K55" s="18"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="16">
         <f t="shared" ref="D56:J56" si="79">IF(D55&lt;0, D55*-3, D55)</f>
         <v>54</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E56" s="16">
         <f t="shared" si="79"/>
         <v>57</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56" s="16">
         <f t="shared" si="79"/>
         <v>63</v>
       </c>
-      <c r="G56" s="19">
+      <c r="G56" s="16">
         <f t="shared" si="79"/>
         <v>75</v>
       </c>
-      <c r="H56" s="19">
+      <c r="H56" s="16">
         <f t="shared" si="79"/>
         <v>81</v>
       </c>
-      <c r="I56" s="19">
+      <c r="I56" s="16">
         <f t="shared" si="79"/>
         <v>42</v>
       </c>
-      <c r="J56" s="19">
+      <c r="J56" s="16">
         <f t="shared" si="79"/>
         <v>90</v>
       </c>
-      <c r="K56" s="21">
+      <c r="K56" s="24">
         <f t="shared" ref="K56" si="80">SUM(D56:J56)</f>
         <v>462</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>8</v>
       </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="15">
+      <c r="C58" s="14">
         <v>0.33888888888888885</v>
       </c>
-      <c r="D58" s="15">
-        <v>0</v>
-      </c>
-      <c r="E58" s="15">
+      <c r="D58" s="14">
+        <v>0</v>
+      </c>
+      <c r="E58" s="14">
         <v>0.3923611111111111</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F58" s="14">
         <v>0.42499999999999999</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="14">
         <v>0.45763888888888887</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15">
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14">
         <v>0.4909722222222222</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K58" s="23">
         <f t="shared" ref="K58" si="81">INT((J58-C58)*1440)</f>
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D59" s="1">
         <f t="shared" ref="D59" si="82">INT((D58-C58)*1440)</f>
         <v>-488</v>
@@ -2190,7 +2235,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D60" s="1">
         <f t="shared" ref="D60" si="89">D59-D$20</f>
         <v>-506</v>
@@ -2220,7 +2265,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D61" s="1">
         <f t="shared" ref="D61" si="90">IF(D60&lt;0, D60*-3, D60)</f>
         <v>1518</v>
@@ -2249,42 +2294,42 @@
         <f t="shared" si="46"/>
         <v>677</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K61" s="23">
         <f t="shared" ref="K61" si="91">SUM(D61:J61)</f>
         <v>4889</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>9</v>
       </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="15">
+      <c r="C63" s="14">
         <v>0.33958333333333335</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="14">
         <v>0.36944444444444446</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="14">
         <v>0.38472222222222219</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F63" s="14">
         <v>0.41875000000000001</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G63" s="14">
         <v>0.44305555555555554</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15">
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14">
         <v>0.49027777777777781</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K63" s="23">
         <f t="shared" ref="K63" si="92">INT((J63-C63)*1440)</f>
         <v>217</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D64" s="1">
         <f t="shared" ref="D64" si="93">INT((D63-C63)*1440)</f>
         <v>43</v>
@@ -2314,7 +2359,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D65" s="1">
         <f t="shared" ref="D65:J65" si="100">D64-D$20</f>
         <v>25</v>
@@ -2344,7 +2389,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D66" s="1">
         <f t="shared" ref="D66:J66" si="101">IF(D65&lt;0, D65*-3, D65)</f>
         <v>25</v>
@@ -2373,42 +2418,42 @@
         <f t="shared" si="101"/>
         <v>676</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K66" s="23">
         <f t="shared" ref="K66" si="102">SUM(D66:J66)</f>
         <v>2778</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>10</v>
       </c>
       <c r="B68" s="1"/>
-      <c r="C68" s="15">
+      <c r="C68" s="14">
         <v>0.34027777777777773</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="14">
         <v>0.36944444444444446</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="14">
         <v>0.3833333333333333</v>
       </c>
-      <c r="F68" s="15">
+      <c r="F68" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G68" s="14">
         <v>0.42708333333333331</v>
       </c>
-      <c r="H68" s="15">
+      <c r="H68" s="14">
         <v>0.44375000000000003</v>
       </c>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="6">
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="23">
         <f t="shared" ref="K68" si="103">INT((J68-C68)*1440)</f>
         <v>-490</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D69" s="1">
         <f t="shared" ref="D69" si="104">INT((D68-C68)*1440)</f>
         <v>42</v>
@@ -2438,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D70" s="1">
         <f t="shared" ref="D70" si="111">D69-D$20</f>
         <v>24</v>
@@ -2468,7 +2513,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D71" s="1">
         <f t="shared" ref="D71" si="112">IF(D70&lt;0, D70*-3, D70)</f>
         <v>24</v>
@@ -2497,46 +2542,46 @@
         <f t="shared" si="46"/>
         <v>90</v>
       </c>
-      <c r="K71" s="6">
+      <c r="K71" s="23">
         <f t="shared" ref="K71" si="113">SUM(D71:J71)</f>
         <v>2111</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>11</v>
       </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="15">
+      <c r="C73" s="14">
         <v>0.35555555555555557</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="14">
         <v>0.37291666666666662</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E73" s="14">
         <v>0.38680555555555557</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F73" s="14">
         <v>0.40277777777777773</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G73" s="14">
         <v>0.42291666666666666</v>
       </c>
-      <c r="H73" s="15">
+      <c r="H73" s="14">
         <v>0.43888888888888888</v>
       </c>
-      <c r="I73" s="15">
+      <c r="I73" s="14">
         <v>0.45624999999999999</v>
       </c>
-      <c r="J73" s="15">
+      <c r="J73" s="14">
         <v>0.4777777777777778</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K73" s="23">
         <f t="shared" ref="K73" si="114">INT((J73-C73)*1440)</f>
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D74" s="1">
         <f t="shared" ref="D74" si="115">INT((D73-C73)*1440)</f>
         <v>24</v>
@@ -2566,7 +2611,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D75" s="1">
         <f t="shared" ref="D75:J75" si="122">D74-D$20</f>
         <v>6</v>
@@ -2596,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D76" s="1">
         <f t="shared" ref="D76:J76" si="123">IF(D75&lt;0, D75*-3, D75)</f>
         <v>6</v>
@@ -2625,36 +2670,36 @@
         <f t="shared" si="123"/>
         <v>1</v>
       </c>
-      <c r="K76" s="6">
+      <c r="K76" s="23">
         <f t="shared" ref="K76" si="124">SUM(D76:J76)</f>
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>12</v>
       </c>
       <c r="B78" s="1"/>
-      <c r="C78" s="15">
+      <c r="C78" s="14">
         <v>0.34166666666666662</v>
       </c>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15">
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14">
         <v>0.43263888888888885</v>
       </c>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15">
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14">
         <v>0.50416666666666665</v>
       </c>
-      <c r="K78" s="6">
+      <c r="K78" s="23">
         <f t="shared" ref="K78" si="125">INT((J78-C78)*1440)</f>
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D79" s="1">
         <f t="shared" ref="D79" si="126">INT((D78-C78)*1440)</f>
         <v>-492</v>
@@ -2684,7 +2729,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D80" s="1">
         <f t="shared" ref="D80" si="133">D79-D$20</f>
         <v>-510</v>
@@ -2714,7 +2759,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D81" s="1">
         <f t="shared" ref="D81" si="134">IF(D80&lt;0, D80*-3, D80)</f>
         <v>1530</v>
@@ -2743,46 +2788,46 @@
         <f t="shared" si="46"/>
         <v>696</v>
       </c>
-      <c r="K81" s="6">
+      <c r="K81" s="23">
         <f t="shared" ref="K81" si="135">SUM(D81:J81)</f>
         <v>4952</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>13</v>
       </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="15">
+      <c r="C83" s="14">
         <v>0.34236111111111112</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D83" s="14">
         <v>0.36944444444444446</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E83" s="14">
         <v>0.38472222222222219</v>
       </c>
-      <c r="F83" s="15">
+      <c r="F83" s="14">
         <v>0.41805555555555557</v>
       </c>
-      <c r="G83" s="15">
+      <c r="G83" s="14">
         <v>0.44166666666666665</v>
       </c>
-      <c r="H83" s="15">
+      <c r="H83" s="14">
         <v>0.46597222222222223</v>
       </c>
-      <c r="I83" s="15">
+      <c r="I83" s="14">
         <v>0.48541666666666666</v>
       </c>
-      <c r="J83" s="15">
+      <c r="J83" s="14">
         <v>0.50486111111111109</v>
       </c>
-      <c r="K83" s="6">
+      <c r="K83" s="23">
         <f t="shared" ref="K83" si="136">INT((J83-C83)*1440)</f>
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D84" s="1">
         <f t="shared" ref="D84" si="137">INT((D83-C83)*1440)</f>
         <v>39</v>
@@ -2812,7 +2857,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D85" s="1">
         <f t="shared" ref="D85:J85" si="144">D84-D$20</f>
         <v>21</v>
@@ -2842,7 +2887,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D86" s="1">
         <f t="shared" ref="D86:J86" si="145">IF(D85&lt;0, D85*-3, D85)</f>
         <v>21</v>
@@ -2871,46 +2916,46 @@
         <f t="shared" si="145"/>
         <v>6</v>
       </c>
-      <c r="K86" s="6">
+      <c r="K86" s="23">
         <f t="shared" ref="K86" si="146">SUM(D86:J86)</f>
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>14</v>
       </c>
       <c r="B88" s="1"/>
-      <c r="C88" s="15">
+      <c r="C88" s="14">
         <v>0.375</v>
       </c>
-      <c r="D88" s="15">
+      <c r="D88" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E88" s="14">
         <v>0.40625</v>
       </c>
-      <c r="F88" s="15">
+      <c r="F88" s="14">
         <v>0.42083333333333334</v>
       </c>
-      <c r="G88" s="15">
+      <c r="G88" s="14">
         <v>0.44027777777777777</v>
       </c>
-      <c r="H88" s="15">
+      <c r="H88" s="14">
         <v>0.45763888888888887</v>
       </c>
-      <c r="I88" s="15">
+      <c r="I88" s="14">
         <v>0.46736111111111112</v>
       </c>
-      <c r="J88" s="15">
+      <c r="J88" s="14">
         <v>0.48888888888888887</v>
       </c>
-      <c r="K88" s="6">
+      <c r="K88" s="23">
         <f t="shared" ref="K88" si="147">INT((J88-C88)*1440)</f>
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D89" s="1">
         <f t="shared" ref="D89" si="148">INT((D88-C88)*1440)</f>
         <v>30</v>
@@ -2940,7 +2985,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D90" s="1">
         <f t="shared" ref="D90" si="155">D89-D$20</f>
         <v>12</v>
@@ -2970,7 +3015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D91" s="1">
         <f t="shared" ref="D91" si="156">IF(D90&lt;0, D90*-3, D90)</f>
         <v>12</v>
@@ -2999,42 +3044,42 @@
         <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="K91" s="6">
+      <c r="K91" s="23">
         <f t="shared" ref="K91" si="157">SUM(D91:J91)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>15</v>
       </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="15">
+      <c r="C93" s="14">
         <v>0.34375</v>
       </c>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15">
+      <c r="D93" s="14"/>
+      <c r="E93" s="14">
         <v>0.38680555555555557</v>
       </c>
-      <c r="F93" s="15">
+      <c r="F93" s="14">
         <v>0.4201388888888889</v>
       </c>
-      <c r="G93" s="15">
+      <c r="G93" s="14">
         <v>0.4548611111111111</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15">
+      <c r="H93" s="14"/>
+      <c r="I93" s="14">
         <v>0.49652777777777773</v>
       </c>
-      <c r="J93" s="15">
+      <c r="J93" s="14">
         <v>0.52361111111111114</v>
       </c>
-      <c r="K93" s="6">
+      <c r="K93" s="23">
         <f t="shared" ref="K93" si="158">INT((J93-C93)*1440)</f>
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D94" s="1">
         <f t="shared" ref="D94" si="159">INT((D93-C93)*1440)</f>
         <v>-495</v>
@@ -3064,7 +3109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D95" s="1">
         <f t="shared" ref="D95:J95" si="166">D94-D$20</f>
         <v>-513</v>
@@ -3094,7 +3139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D96" s="1">
         <f t="shared" ref="D96:J96" si="167">IF(D95&lt;0, D95*-3, D95)</f>
         <v>1539</v>
@@ -3123,44 +3168,44 @@
         <f t="shared" si="167"/>
         <v>9</v>
       </c>
-      <c r="K96" s="6">
+      <c r="K96" s="23">
         <f t="shared" ref="K96" si="168">SUM(D96:J96)</f>
         <v>4885</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>16</v>
       </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="15">
+      <c r="C98" s="14">
         <v>0.3444444444444445</v>
       </c>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15">
+      <c r="D98" s="14"/>
+      <c r="E98" s="14">
         <v>0.40763888888888888</v>
       </c>
-      <c r="F98" s="15">
+      <c r="F98" s="14">
         <v>0.42638888888888887</v>
       </c>
-      <c r="G98" s="16">
+      <c r="G98" s="15">
         <v>0.46249999999999997</v>
       </c>
-      <c r="H98" s="15">
+      <c r="H98" s="14">
         <v>0.48541666666666666</v>
       </c>
-      <c r="I98" s="15">
+      <c r="I98" s="14">
         <v>0.49236111111111108</v>
       </c>
-      <c r="J98" s="15">
+      <c r="J98" s="14">
         <v>0.51111111111111118</v>
       </c>
-      <c r="K98" s="6">
+      <c r="K98" s="23">
         <f t="shared" ref="K98" si="169">INT((J98-C98)*1440)</f>
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D99" s="1">
         <f t="shared" ref="D99" si="170">INT((D98-C98)*1440)</f>
         <v>-496</v>
@@ -3190,7 +3235,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D100" s="1">
         <f t="shared" ref="D100" si="177">D99-D$20</f>
         <v>-514</v>
@@ -3220,7 +3265,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D101" s="1">
         <f t="shared" ref="D101" si="178">IF(D100&lt;0, D100*-3, D100)</f>
         <v>1542</v>
@@ -3249,46 +3294,46 @@
         <f t="shared" si="46"/>
         <v>9</v>
       </c>
-      <c r="K101" s="6">
+      <c r="K101" s="23">
         <f t="shared" ref="K101" si="179">SUM(D101:J101)</f>
         <v>2173</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>17</v>
       </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="15">
+      <c r="C103" s="14">
         <v>0.36458333333333331</v>
       </c>
-      <c r="D103" s="15">
+      <c r="D103" s="14">
         <v>0.38194444444444442</v>
       </c>
-      <c r="E103" s="15">
+      <c r="E103" s="14">
         <v>0.4145833333333333</v>
       </c>
-      <c r="F103" s="15">
+      <c r="F103" s="14">
         <v>0.45069444444444445</v>
       </c>
-      <c r="G103" s="15">
+      <c r="G103" s="14">
         <v>0.48402777777777778</v>
       </c>
-      <c r="H103" s="15">
+      <c r="H103" s="14">
         <v>0.47638888888888892</v>
       </c>
-      <c r="I103" s="15">
+      <c r="I103" s="14">
         <v>0.5083333333333333</v>
       </c>
-      <c r="J103" s="15">
+      <c r="J103" s="14">
         <v>0.52777777777777779</v>
       </c>
-      <c r="K103" s="6">
+      <c r="K103" s="23">
         <f t="shared" ref="K103" si="180">INT((J103-C103)*1440)</f>
         <v>235</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D104" s="1">
         <f t="shared" ref="D104" si="181">INT((D103-C103)*1440)</f>
         <v>25</v>
@@ -3318,7 +3363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D105" s="1">
         <f t="shared" ref="D105:J105" si="188">D104-D$20</f>
         <v>7</v>
@@ -3348,7 +3393,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D106" s="1">
         <f t="shared" ref="D106:J106" si="189">IF(D105&lt;0, D105*-3, D105)</f>
         <v>7</v>
@@ -3377,46 +3422,46 @@
         <f t="shared" si="189"/>
         <v>6</v>
       </c>
-      <c r="K106" s="6">
+      <c r="K106" s="23">
         <f t="shared" ref="K106" si="190">SUM(D106:J106)</f>
         <v>240</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>18</v>
       </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="15">
+      <c r="C108" s="14">
         <v>0.34583333333333338</v>
       </c>
-      <c r="D108" s="15">
+      <c r="D108" s="14">
         <v>0.37013888888888885</v>
       </c>
-      <c r="E108" s="15">
+      <c r="E108" s="14">
         <v>0.3888888888888889</v>
       </c>
-      <c r="F108" s="15">
+      <c r="F108" s="14">
         <v>0.41041666666666665</v>
       </c>
-      <c r="G108" s="15">
+      <c r="G108" s="14">
         <v>0.44236111111111115</v>
       </c>
-      <c r="H108" s="15">
+      <c r="H108" s="14">
         <v>0.46458333333333335</v>
       </c>
-      <c r="I108" s="15">
+      <c r="I108" s="14">
         <v>0.47569444444444442</v>
       </c>
-      <c r="J108" s="15">
+      <c r="J108" s="14">
         <v>0.5131944444444444</v>
       </c>
-      <c r="K108" s="6">
+      <c r="K108" s="23">
         <f t="shared" ref="K108" si="191">INT((J108-C108)*1440)</f>
         <v>241</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D109" s="1">
         <f t="shared" ref="D109" si="192">INT((D108-C108)*1440)</f>
         <v>34</v>
@@ -3446,7 +3491,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D110" s="1">
         <f t="shared" ref="D110:J170" si="199">D109-D$20</f>
         <v>16</v>
@@ -3476,7 +3521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D111" s="1">
         <f t="shared" ref="D111:J171" si="200">IF(D110&lt;0, D110*-3, D110)</f>
         <v>16</v>
@@ -3505,40 +3550,40 @@
         <f t="shared" si="200"/>
         <v>24</v>
       </c>
-      <c r="K111" s="6">
+      <c r="K111" s="23">
         <f t="shared" ref="K111" si="201">SUM(D111:J111)</f>
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>19</v>
       </c>
       <c r="B113" s="1"/>
-      <c r="C113" s="15">
+      <c r="C113" s="14">
         <v>0.34722222222222227</v>
       </c>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15">
+      <c r="D113" s="14"/>
+      <c r="E113" s="14">
         <v>0.38194444444444442</v>
       </c>
-      <c r="F113" s="15">
+      <c r="F113" s="14">
         <v>0.39652777777777781</v>
       </c>
-      <c r="G113" s="15">
+      <c r="G113" s="14">
         <v>0.42986111111111108</v>
       </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="15">
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+      <c r="J113" s="14">
         <v>0.4909722222222222</v>
       </c>
-      <c r="K113" s="6">
+      <c r="K113" s="23">
         <f t="shared" ref="K113" si="202">INT((J113-C113)*1440)</f>
         <v>207</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D114" s="1">
         <f t="shared" ref="D114" si="203">INT((D113-C113)*1440)</f>
         <v>-500</v>
@@ -3568,7 +3613,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D115" s="1">
         <f t="shared" ref="D115:J115" si="210">D114-D$20</f>
         <v>-518</v>
@@ -3598,7 +3643,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D116" s="1">
         <f t="shared" ref="D116:J116" si="211">IF(D115&lt;0, D115*-3, D115)</f>
         <v>1554</v>
@@ -3627,42 +3672,42 @@
         <f t="shared" si="211"/>
         <v>677</v>
       </c>
-      <c r="K116" s="6">
+      <c r="K116" s="23">
         <f t="shared" ref="K116" si="212">SUM(D116:J116)</f>
         <v>4764</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>20</v>
       </c>
       <c r="B118" s="1"/>
-      <c r="C118" s="15">
+      <c r="C118" s="14">
         <v>0.34791666666666665</v>
       </c>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15">
+      <c r="D118" s="14"/>
+      <c r="E118" s="14">
         <v>0.39097222222222222</v>
       </c>
-      <c r="F118" s="15">
+      <c r="F118" s="14">
         <v>0.41041666666666665</v>
       </c>
-      <c r="G118" s="15">
+      <c r="G118" s="14">
         <v>0.44097222222222227</v>
       </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15">
+      <c r="H118" s="14"/>
+      <c r="I118" s="14">
         <v>0.49583333333333335</v>
       </c>
-      <c r="J118" s="15">
+      <c r="J118" s="14">
         <v>0.51041666666666663</v>
       </c>
-      <c r="K118" s="6">
+      <c r="K118" s="23">
         <f t="shared" ref="K118" si="213">INT((J118-C118)*1440)</f>
         <v>234</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D119" s="1">
         <f t="shared" ref="D119" si="214">INT((D118-C118)*1440)</f>
         <v>-501</v>
@@ -3692,7 +3737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D120" s="1">
         <f t="shared" ref="D120" si="221">D119-D$20</f>
         <v>-519</v>
@@ -3722,7 +3767,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D121" s="1">
         <f t="shared" ref="D121" si="222">IF(D120&lt;0, D120*-3, D120)</f>
         <v>1557</v>
@@ -3751,44 +3796,44 @@
         <f t="shared" si="200"/>
         <v>30</v>
       </c>
-      <c r="K121" s="6">
+      <c r="K121" s="23">
         <f t="shared" ref="K121" si="223">SUM(D121:J121)</f>
         <v>4843</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>21</v>
       </c>
       <c r="B123" s="1"/>
-      <c r="C123" s="15">
+      <c r="C123" s="14">
         <v>0.37013888888888885</v>
       </c>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15">
+      <c r="D123" s="14"/>
+      <c r="E123" s="14">
         <v>0.43333333333333335</v>
       </c>
-      <c r="F123" s="15">
+      <c r="F123" s="14">
         <v>0.46319444444444446</v>
       </c>
-      <c r="G123" s="15">
+      <c r="G123" s="14">
         <v>0.50277777777777777</v>
       </c>
-      <c r="H123" s="15">
+      <c r="H123" s="14">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I123" s="15">
+      <c r="I123" s="14">
         <v>0.53541666666666665</v>
       </c>
-      <c r="J123" s="15">
+      <c r="J123" s="14">
         <v>0.55694444444444446</v>
       </c>
-      <c r="K123" s="6">
+      <c r="K123" s="23">
         <f t="shared" ref="K123" si="224">INT((J123-C123)*1440)</f>
         <v>269</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D124" s="1">
         <f t="shared" ref="D124" si="225">INT((D123-C123)*1440)</f>
         <v>-533</v>
@@ -3818,7 +3863,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D125" s="1">
         <f t="shared" ref="D125:J125" si="232">D124-D$20</f>
         <v>-551</v>
@@ -3848,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D126" s="1">
         <f t="shared" ref="D126:J126" si="233">IF(D125&lt;0, D125*-3, D125)</f>
         <v>1653</v>
@@ -3877,42 +3922,42 @@
         <f t="shared" si="233"/>
         <v>1</v>
       </c>
-      <c r="K126" s="6">
+      <c r="K126" s="23">
         <f t="shared" ref="K126" si="234">SUM(D126:J126)</f>
         <v>2318</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>22</v>
       </c>
       <c r="B128" s="1"/>
-      <c r="C128" s="15">
+      <c r="C128" s="14">
         <v>0.34861111111111115</v>
       </c>
-      <c r="D128" s="15">
+      <c r="D128" s="14">
         <v>0.36388888888888887</v>
       </c>
-      <c r="E128" s="15">
+      <c r="E128" s="14">
         <v>0.37777777777777777</v>
       </c>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15">
+      <c r="F128" s="14"/>
+      <c r="G128" s="14">
         <v>0.41944444444444445</v>
       </c>
-      <c r="H128" s="15">
+      <c r="H128" s="14">
         <v>0.4368055555555555</v>
       </c>
-      <c r="I128" s="16">
+      <c r="I128" s="15">
         <v>0.47222222222222227</v>
       </c>
-      <c r="J128" s="15"/>
-      <c r="K128" s="6">
+      <c r="J128" s="14"/>
+      <c r="K128" s="23">
         <f t="shared" ref="K128" si="235">INT((J128-C128)*1440)</f>
         <v>-502</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D129" s="1">
         <f t="shared" ref="D129" si="236">INT((D128-C128)*1440)</f>
         <v>21</v>
@@ -3942,7 +3987,7 @@
         <v>-680</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D130" s="1">
         <f t="shared" ref="D130" si="243">D129-D$20</f>
         <v>3</v>
@@ -3972,7 +4017,7 @@
         <v>-710</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D131" s="1">
         <f t="shared" ref="D131" si="244">IF(D130&lt;0, D130*-3, D130)</f>
         <v>3</v>
@@ -4001,42 +4046,42 @@
         <f t="shared" si="200"/>
         <v>2130</v>
       </c>
-      <c r="K131" s="6">
+      <c r="K131" s="23">
         <f t="shared" ref="K131" si="245">SUM(D131:J131)</f>
         <v>4454</v>
       </c>
     </row>
-    <row r="133" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>23</v>
       </c>
       <c r="B133" s="3"/>
-      <c r="C133" s="16">
+      <c r="C133" s="15">
         <v>0.34930555555555554</v>
       </c>
-      <c r="D133" s="16">
+      <c r="D133" s="15">
         <v>0.36805555555555558</v>
       </c>
-      <c r="E133" s="16">
+      <c r="E133" s="15">
         <v>0.45</v>
       </c>
-      <c r="F133" s="16">
+      <c r="F133" s="15">
         <v>0.41388888888888892</v>
       </c>
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
-      <c r="I133" s="16">
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15">
         <v>0.46458333333333335</v>
       </c>
-      <c r="J133" s="16">
+      <c r="J133" s="15">
         <v>0.48333333333333334</v>
       </c>
-      <c r="K133" s="17">
+      <c r="K133" s="25">
         <f t="shared" ref="K133" si="246">INT((J133-C133)*1440)</f>
         <v>193</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D134" s="1">
         <f t="shared" ref="D134" si="247">INT((D133-C133)*1440)</f>
         <v>27</v>
@@ -4066,7 +4111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D135" s="1">
         <f t="shared" ref="D135:J135" si="254">D134-D$20</f>
         <v>9</v>
@@ -4096,7 +4141,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D136" s="1">
         <f t="shared" ref="D136:J136" si="255">IF(D135&lt;0, D135*-3, D135)</f>
         <v>9</v>
@@ -4125,158 +4170,169 @@
         <f t="shared" si="255"/>
         <v>9</v>
       </c>
-      <c r="K136" s="6">
+      <c r="K136" s="23">
         <f t="shared" ref="K136" si="256">SUM(D136:J136)</f>
         <v>2935</v>
       </c>
     </row>
-    <row r="138" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="19">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="16">
         <v>24</v>
       </c>
-      <c r="B138" s="19"/>
-      <c r="C138" s="20">
-        <v>0</v>
-      </c>
-      <c r="D138" s="20"/>
-      <c r="E138" s="20"/>
-      <c r="F138" s="20"/>
-      <c r="G138" s="20"/>
-      <c r="H138" s="20"/>
-      <c r="I138" s="20"/>
-      <c r="J138" s="20"/>
-      <c r="K138" s="21">
+      <c r="B138" s="16"/>
+      <c r="C138" s="17">
+        <v>0</v>
+      </c>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="17"/>
+      <c r="H138" s="17"/>
+      <c r="I138" s="17"/>
+      <c r="J138" s="17"/>
+      <c r="K138" s="24">
         <f t="shared" ref="K138" si="257">INT((J138-C138)*1440)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D139" s="19">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="18"/>
+      <c r="B139" s="18"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="16">
         <f t="shared" ref="D139" si="258">INT((D138-C138)*1440)</f>
         <v>0</v>
       </c>
-      <c r="E139" s="19">
+      <c r="E139" s="16">
         <f t="shared" ref="E139" si="259">INT((E138-D138)*1440)</f>
         <v>0</v>
       </c>
-      <c r="F139" s="19">
+      <c r="F139" s="16">
         <f t="shared" ref="F139" si="260">INT((F138-E138)*1440)</f>
         <v>0</v>
       </c>
-      <c r="G139" s="19">
+      <c r="G139" s="16">
         <f t="shared" ref="G139" si="261">INT((G138-F138)*1440)</f>
         <v>0</v>
       </c>
-      <c r="H139" s="19">
+      <c r="H139" s="16">
         <f t="shared" ref="H139" si="262">INT((H138-G138)*1440)</f>
         <v>0</v>
       </c>
-      <c r="I139" s="19">
+      <c r="I139" s="16">
         <f t="shared" ref="I139" si="263">INT((I138-H138)*1440)</f>
         <v>0</v>
       </c>
-      <c r="J139" s="19">
+      <c r="J139" s="16">
         <f t="shared" ref="J139" si="264">INT((J138-I138)*1440)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D140" s="19">
+      <c r="K139" s="18"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="18"/>
+      <c r="B140" s="18"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="16">
         <f t="shared" ref="D140" si="265">D139-D$20</f>
         <v>-18</v>
       </c>
-      <c r="E140" s="19">
+      <c r="E140" s="16">
         <f t="shared" si="199"/>
         <v>-19</v>
       </c>
-      <c r="F140" s="19">
+      <c r="F140" s="16">
         <f t="shared" si="199"/>
         <v>-21</v>
       </c>
-      <c r="G140" s="19">
+      <c r="G140" s="16">
         <f t="shared" si="199"/>
         <v>-25</v>
       </c>
-      <c r="H140" s="19">
+      <c r="H140" s="16">
         <f t="shared" si="199"/>
         <v>-27</v>
       </c>
-      <c r="I140" s="19">
+      <c r="I140" s="16">
         <f t="shared" si="199"/>
         <v>-14</v>
       </c>
-      <c r="J140" s="19">
+      <c r="J140" s="16">
         <f t="shared" si="199"/>
         <v>-30</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D141" s="19">
+      <c r="K140" s="18"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="18"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="16">
         <f t="shared" ref="D141" si="266">IF(D140&lt;0, D140*-3, D140)</f>
         <v>54</v>
       </c>
-      <c r="E141" s="19">
+      <c r="E141" s="16">
         <f t="shared" si="200"/>
         <v>57</v>
       </c>
-      <c r="F141" s="19">
+      <c r="F141" s="16">
         <f t="shared" si="200"/>
         <v>63</v>
       </c>
-      <c r="G141" s="19">
+      <c r="G141" s="16">
         <f t="shared" si="200"/>
         <v>75</v>
       </c>
-      <c r="H141" s="19">
+      <c r="H141" s="16">
         <f t="shared" si="200"/>
         <v>81</v>
       </c>
-      <c r="I141" s="19">
+      <c r="I141" s="16">
         <f t="shared" si="200"/>
         <v>42</v>
       </c>
-      <c r="J141" s="19">
+      <c r="J141" s="16">
         <f t="shared" si="200"/>
         <v>90</v>
       </c>
-      <c r="K141" s="21">
+      <c r="K141" s="24">
         <f t="shared" ref="K141" si="267">SUM(D141:J141)</f>
         <v>462</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>25</v>
       </c>
       <c r="B143" s="1"/>
-      <c r="C143" s="15">
+      <c r="C143" s="14">
         <v>0.3611111111111111</v>
       </c>
-      <c r="D143" s="15"/>
-      <c r="E143" s="15">
+      <c r="D143" s="14"/>
+      <c r="E143" s="14">
         <v>0.40486111111111112</v>
       </c>
-      <c r="F143" s="15">
+      <c r="F143" s="14">
         <v>0.42152777777777778</v>
       </c>
-      <c r="G143" s="15">
+      <c r="G143" s="14">
         <v>0.44861111111111113</v>
       </c>
-      <c r="H143" s="15">
+      <c r="H143" s="14">
         <v>0.4770833333333333</v>
       </c>
-      <c r="I143" s="15">
+      <c r="I143" s="14">
         <v>0.48402777777777778</v>
       </c>
-      <c r="J143" s="15">
+      <c r="J143" s="14">
         <v>0.50416666666666665</v>
       </c>
-      <c r="K143" s="6">
+      <c r="K143" s="23">
         <f t="shared" ref="K143" si="268">INT((J143-C143)*1440)</f>
         <v>206</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D144" s="1">
         <f t="shared" ref="D144" si="269">INT((D143-C143)*1440)</f>
         <v>-520</v>
@@ -4306,7 +4362,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D145" s="1">
         <f t="shared" ref="D145:J145" si="276">D144-D$20</f>
         <v>-538</v>
@@ -4336,7 +4392,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D146" s="1">
         <f t="shared" ref="D146:J146" si="277">IF(D145&lt;0, D145*-3, D145)</f>
         <v>1614</v>
@@ -4365,42 +4421,42 @@
         <f t="shared" si="277"/>
         <v>3</v>
       </c>
-      <c r="K146" s="6">
+      <c r="K146" s="23">
         <f t="shared" ref="K146" si="278">SUM(D146:J146)</f>
         <v>2223</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>26</v>
       </c>
       <c r="B148" s="1"/>
-      <c r="C148" s="15">
+      <c r="C148" s="14">
         <v>0.35138888888888892</v>
       </c>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15">
+      <c r="D148" s="14"/>
+      <c r="E148" s="14">
         <v>0.39097222222222222</v>
       </c>
-      <c r="F148" s="15">
+      <c r="F148" s="14">
         <v>0.42569444444444443</v>
       </c>
-      <c r="G148" s="15">
+      <c r="G148" s="14">
         <v>0.45347222222222222</v>
       </c>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15">
+      <c r="H148" s="14"/>
+      <c r="I148" s="14">
         <v>0.48749999999999999</v>
       </c>
-      <c r="J148" s="15">
+      <c r="J148" s="14">
         <v>0.51041666666666663</v>
       </c>
-      <c r="K148" s="6">
+      <c r="K148" s="23">
         <f t="shared" ref="K148" si="279">INT((J148-C148)*1440)</f>
         <v>229</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D149" s="1">
         <f t="shared" ref="D149" si="280">INT((D148-C148)*1440)</f>
         <v>-506</v>
@@ -4430,7 +4486,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D150" s="1">
         <f t="shared" ref="D150" si="287">D149-D$20</f>
         <v>-524</v>
@@ -4460,7 +4516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D151" s="1">
         <f t="shared" ref="D151" si="288">IF(D150&lt;0, D150*-3, D150)</f>
         <v>1572</v>
@@ -4489,46 +4545,46 @@
         <f t="shared" si="200"/>
         <v>3</v>
       </c>
-      <c r="K151" s="6">
+      <c r="K151" s="23">
         <f t="shared" ref="K151" si="289">SUM(D151:J151)</f>
         <v>4891</v>
       </c>
     </row>
-    <row r="153" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>27</v>
       </c>
       <c r="B153" s="3"/>
-      <c r="C153" s="16">
+      <c r="C153" s="15">
         <v>0.3520833333333333</v>
       </c>
-      <c r="D153" s="16">
+      <c r="D153" s="15">
         <v>0.37291666666666662</v>
       </c>
-      <c r="E153" s="16">
+      <c r="E153" s="15">
         <v>0.38750000000000001</v>
       </c>
-      <c r="F153" s="16">
+      <c r="F153" s="15">
         <v>0.4069444444444445</v>
       </c>
-      <c r="G153" s="16">
+      <c r="G153" s="15">
         <v>0.43333333333333335</v>
       </c>
-      <c r="H153" s="16">
+      <c r="H153" s="15">
         <v>0.45347222222222222</v>
       </c>
-      <c r="I153" s="16">
+      <c r="I153" s="15">
         <v>0.46111111111111108</v>
       </c>
-      <c r="J153" s="16">
+      <c r="J153" s="15">
         <v>0.47986111111111113</v>
       </c>
-      <c r="K153" s="17">
+      <c r="K153" s="25">
         <f t="shared" ref="K153" si="290">INT((J153-C153)*1440)</f>
         <v>184</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D154" s="1">
         <f t="shared" ref="D154" si="291">INT((D153-C153)*1440)</f>
         <v>30</v>
@@ -4558,7 +4614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D155" s="1">
         <f t="shared" ref="D155:J155" si="298">D154-D$20</f>
         <v>12</v>
@@ -4588,7 +4644,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D156" s="1">
         <f t="shared" ref="D156:J156" si="299">IF(D155&lt;0, D155*-3, D155)</f>
         <v>12</v>
@@ -4617,46 +4673,46 @@
         <f t="shared" si="299"/>
         <v>9</v>
       </c>
-      <c r="K156" s="6">
+      <c r="K156" s="23">
         <f t="shared" ref="K156" si="300">SUM(D156:J156)</f>
         <v>53</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>28</v>
       </c>
       <c r="B158" s="1"/>
-      <c r="C158" s="15">
+      <c r="C158" s="14">
         <v>0.3527777777777778</v>
       </c>
-      <c r="D158" s="15">
+      <c r="D158" s="14">
         <v>0.36736111111111108</v>
       </c>
-      <c r="E158" s="15">
+      <c r="E158" s="14">
         <v>0.3840277777777778</v>
       </c>
-      <c r="F158" s="15">
+      <c r="F158" s="14">
         <v>0.42499999999999999</v>
       </c>
-      <c r="G158" s="15">
+      <c r="G158" s="14">
         <v>0.45208333333333334</v>
       </c>
-      <c r="H158" s="15">
+      <c r="H158" s="14">
         <v>0.47291666666666665</v>
       </c>
-      <c r="I158" s="15">
-        <v>0</v>
-      </c>
-      <c r="J158" s="15">
+      <c r="I158" s="14">
+        <v>0</v>
+      </c>
+      <c r="J158" s="14">
         <v>0.49583333333333335</v>
       </c>
-      <c r="K158" s="6">
+      <c r="K158" s="23">
         <f t="shared" ref="K158" si="301">INT((J158-C158)*1440)</f>
         <v>206</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D159" s="1">
         <f t="shared" ref="D159" si="302">INT((D158-C158)*1440)</f>
         <v>20</v>
@@ -4686,7 +4742,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D160" s="1">
         <f t="shared" ref="D160" si="308">D159-D$20</f>
         <v>2</v>
@@ -4716,7 +4772,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D161" s="1">
         <f t="shared" ref="D161" si="309">IF(D160&lt;0, D160*-3, D160)</f>
         <v>2</v>
@@ -4745,162 +4801,173 @@
         <f t="shared" si="200"/>
         <v>684</v>
       </c>
-      <c r="K161" s="6">
+      <c r="K161" s="23">
         <f t="shared" ref="K161" si="310">SUM(D161:J161)</f>
         <v>2831</v>
       </c>
     </row>
-    <row r="163" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="19">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="16">
         <v>29</v>
       </c>
-      <c r="B163" s="19"/>
-      <c r="C163" s="20">
-        <v>0</v>
-      </c>
-      <c r="D163" s="20">
-        <v>0</v>
-      </c>
-      <c r="E163" s="20"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
-      <c r="H163" s="20"/>
-      <c r="I163" s="20"/>
-      <c r="J163" s="20"/>
-      <c r="K163" s="21">
+      <c r="B163" s="16"/>
+      <c r="C163" s="17">
+        <v>0</v>
+      </c>
+      <c r="D163" s="17">
+        <v>0</v>
+      </c>
+      <c r="E163" s="17"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="17"/>
+      <c r="H163" s="17"/>
+      <c r="I163" s="17"/>
+      <c r="J163" s="17"/>
+      <c r="K163" s="24">
         <f t="shared" ref="K163" si="311">INT((J163-C163)*1440)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D164" s="19">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="18"/>
+      <c r="B164" s="18"/>
+      <c r="C164" s="18"/>
+      <c r="D164" s="16">
         <f t="shared" ref="D164" si="312">INT((D163-C163)*1440)</f>
         <v>0</v>
       </c>
-      <c r="E164" s="19">
+      <c r="E164" s="16">
         <f t="shared" ref="E164" si="313">INT((E163-D163)*1440)</f>
         <v>0</v>
       </c>
-      <c r="F164" s="19">
+      <c r="F164" s="16">
         <f t="shared" ref="F164" si="314">INT((F163-E163)*1440)</f>
         <v>0</v>
       </c>
-      <c r="G164" s="19">
+      <c r="G164" s="16">
         <f t="shared" ref="G164" si="315">INT((G163-F163)*1440)</f>
         <v>0</v>
       </c>
-      <c r="H164" s="19">
+      <c r="H164" s="16">
         <f t="shared" ref="H164" si="316">INT((H163-G163)*1440)</f>
         <v>0</v>
       </c>
-      <c r="I164" s="19">
+      <c r="I164" s="16">
         <f t="shared" ref="I164" si="317">INT((I163-H163)*1440)</f>
         <v>0</v>
       </c>
-      <c r="J164" s="19">
+      <c r="J164" s="16">
         <f t="shared" ref="J164" si="318">INT((J163-I163)*1440)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D165" s="19">
+      <c r="K164" s="18"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="18"/>
+      <c r="B165" s="18"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="16">
         <f t="shared" ref="D165:J165" si="319">D164-D$20</f>
         <v>-18</v>
       </c>
-      <c r="E165" s="19">
+      <c r="E165" s="16">
         <f t="shared" si="319"/>
         <v>-19</v>
       </c>
-      <c r="F165" s="19">
+      <c r="F165" s="16">
         <f t="shared" si="319"/>
         <v>-21</v>
       </c>
-      <c r="G165" s="19">
+      <c r="G165" s="16">
         <f t="shared" si="319"/>
         <v>-25</v>
       </c>
-      <c r="H165" s="19">
+      <c r="H165" s="16">
         <f t="shared" si="319"/>
         <v>-27</v>
       </c>
-      <c r="I165" s="19">
+      <c r="I165" s="16">
         <f t="shared" si="319"/>
         <v>-14</v>
       </c>
-      <c r="J165" s="19">
+      <c r="J165" s="16">
         <f t="shared" si="319"/>
         <v>-30</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D166" s="19">
+      <c r="K165" s="18"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="18"/>
+      <c r="B166" s="18"/>
+      <c r="C166" s="18"/>
+      <c r="D166" s="16">
         <f t="shared" ref="D166:J166" si="320">IF(D165&lt;0, D165*-3, D165)</f>
         <v>54</v>
       </c>
-      <c r="E166" s="19">
+      <c r="E166" s="16">
         <f t="shared" si="320"/>
         <v>57</v>
       </c>
-      <c r="F166" s="19">
+      <c r="F166" s="16">
         <f t="shared" si="320"/>
         <v>63</v>
       </c>
-      <c r="G166" s="19">
+      <c r="G166" s="16">
         <f t="shared" si="320"/>
         <v>75</v>
       </c>
-      <c r="H166" s="19">
+      <c r="H166" s="16">
         <f t="shared" si="320"/>
         <v>81</v>
       </c>
-      <c r="I166" s="19">
+      <c r="I166" s="16">
         <f t="shared" si="320"/>
         <v>42</v>
       </c>
-      <c r="J166" s="19">
+      <c r="J166" s="16">
         <f t="shared" si="320"/>
         <v>90</v>
       </c>
-      <c r="K166" s="21">
+      <c r="K166" s="24">
         <f t="shared" ref="K166" si="321">SUM(D166:J166)</f>
         <v>462</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>30</v>
       </c>
       <c r="B168" s="1"/>
-      <c r="C168" s="15">
+      <c r="C168" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D168" s="15">
+      <c r="D168" s="14">
         <v>0.36736111111111108</v>
       </c>
-      <c r="E168" s="15">
+      <c r="E168" s="14">
         <v>0.38055555555555554</v>
       </c>
-      <c r="F168" s="15">
+      <c r="F168" s="14">
         <v>0.3979166666666667</v>
       </c>
-      <c r="G168" s="15">
+      <c r="G168" s="14">
         <v>0.4201388888888889</v>
       </c>
-      <c r="H168" s="15">
+      <c r="H168" s="14">
         <v>0.4368055555555555</v>
       </c>
-      <c r="I168" s="15">
+      <c r="I168" s="14">
         <v>0.44930555555555557</v>
       </c>
-      <c r="J168" s="15">
+      <c r="J168" s="14">
         <v>0.47013888888888888</v>
       </c>
-      <c r="K168" s="6">
+      <c r="K168" s="23">
         <f t="shared" ref="K168" si="322">INT((J168-C168)*1440)</f>
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D169" s="1">
         <f t="shared" ref="D169" si="323">INT((D168-C168)*1440)</f>
         <v>18</v>
@@ -4930,7 +4997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D170" s="1">
         <f t="shared" ref="D170" si="330">D169-D$20</f>
         <v>0</v>
@@ -4960,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D171" s="1">
         <f t="shared" ref="D171" si="331">IF(D170&lt;0, D170*-3, D170)</f>
         <v>0</v>
@@ -4989,46 +5056,46 @@
         <f t="shared" si="200"/>
         <v>0</v>
       </c>
-      <c r="K171" s="6">
+      <c r="K171" s="23">
         <f t="shared" ref="K171" si="332">SUM(D171:J171)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>31</v>
       </c>
       <c r="B173" s="1"/>
-      <c r="C173" s="15">
+      <c r="C173" s="14">
         <v>0.35486111111111113</v>
       </c>
-      <c r="D173" s="15">
+      <c r="D173" s="14">
         <v>0.37291666666666662</v>
       </c>
-      <c r="E173" s="15">
+      <c r="E173" s="14">
         <v>0.3972222222222222</v>
       </c>
-      <c r="F173" s="15">
+      <c r="F173" s="14">
         <v>0.41944444444444445</v>
       </c>
-      <c r="G173" s="15">
+      <c r="G173" s="14">
         <v>0.45</v>
       </c>
-      <c r="H173" s="15">
+      <c r="H173" s="14">
         <v>0.47291666666666665</v>
       </c>
-      <c r="I173" s="15">
+      <c r="I173" s="14">
         <v>0.4826388888888889</v>
       </c>
-      <c r="J173" s="15">
+      <c r="J173" s="14">
         <v>0.50486111111111109</v>
       </c>
-      <c r="K173" s="6">
+      <c r="K173" s="23">
         <f t="shared" ref="K173" si="333">INT((J173-C173)*1440)</f>
         <v>216</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D174" s="1">
         <f t="shared" ref="D174" si="334">INT((D173-C173)*1440)</f>
         <v>25</v>
@@ -5058,7 +5125,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D175" s="1">
         <f t="shared" ref="D175:J175" si="341">D174-D$20</f>
         <v>7</v>
@@ -5088,7 +5155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D176" s="1">
         <f t="shared" ref="D176:J176" si="342">IF(D175&lt;0, D175*-3, D175)</f>
         <v>7</v>
@@ -5117,162 +5184,173 @@
         <f t="shared" si="342"/>
         <v>2</v>
       </c>
-      <c r="K176" s="6">
+      <c r="K176" s="23">
         <f t="shared" ref="K176" si="343">SUM(D176:J176)</f>
         <v>61</v>
       </c>
     </row>
-    <row r="178" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="19">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="16">
         <v>32</v>
       </c>
-      <c r="B178" s="19"/>
-      <c r="C178" s="20">
-        <v>0</v>
-      </c>
-      <c r="D178" s="20">
-        <v>0</v>
-      </c>
-      <c r="E178" s="20"/>
-      <c r="F178" s="20"/>
-      <c r="G178" s="20">
+      <c r="B178" s="16"/>
+      <c r="C178" s="17">
+        <v>0</v>
+      </c>
+      <c r="D178" s="17">
+        <v>0</v>
+      </c>
+      <c r="E178" s="17"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="17">
         <v>0.49444444444444446</v>
       </c>
-      <c r="H178" s="20">
+      <c r="H178" s="17">
         <v>0.51944444444444449</v>
       </c>
-      <c r="I178" s="20">
+      <c r="I178" s="17">
         <v>0.53194444444444444</v>
       </c>
-      <c r="J178" s="20">
+      <c r="J178" s="17">
         <v>0.55486111111111114</v>
       </c>
-      <c r="K178" s="21">
+      <c r="K178" s="24">
         <f t="shared" ref="K178" si="344">INT((J178-C178)*1440)</f>
         <v>799</v>
       </c>
     </row>
-    <row r="179" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D179" s="19">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="18"/>
+      <c r="B179" s="18"/>
+      <c r="C179" s="18"/>
+      <c r="D179" s="16">
         <f t="shared" ref="D179" si="345">INT((D178-C178)*1440)</f>
         <v>0</v>
       </c>
-      <c r="E179" s="19">
+      <c r="E179" s="16">
         <f t="shared" ref="E179" si="346">INT((E178-D178)*1440)</f>
         <v>0</v>
       </c>
-      <c r="F179" s="19">
+      <c r="F179" s="16">
         <f t="shared" ref="F179" si="347">INT((F178-E178)*1440)</f>
         <v>0</v>
       </c>
-      <c r="G179" s="19">
+      <c r="G179" s="16">
         <f t="shared" ref="G179" si="348">INT((G178-F178)*1440)</f>
         <v>712</v>
       </c>
-      <c r="H179" s="19">
+      <c r="H179" s="16">
         <f t="shared" ref="H179" si="349">INT((H178-G178)*1440)</f>
         <v>36</v>
       </c>
-      <c r="I179" s="19">
+      <c r="I179" s="16">
         <f t="shared" ref="I179" si="350">INT((I178-H178)*1440)</f>
         <v>17</v>
       </c>
-      <c r="J179" s="19">
+      <c r="J179" s="16">
         <f t="shared" ref="J179" si="351">INT((J178-I178)*1440)</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D180" s="19">
+      <c r="K179" s="18"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="18"/>
+      <c r="B180" s="18"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="16">
         <f t="shared" ref="D180:J210" si="352">D179-D$20</f>
         <v>-18</v>
       </c>
-      <c r="E180" s="19">
+      <c r="E180" s="16">
         <f t="shared" si="352"/>
         <v>-19</v>
       </c>
-      <c r="F180" s="19">
+      <c r="F180" s="16">
         <f t="shared" si="352"/>
         <v>-21</v>
       </c>
-      <c r="G180" s="19">
+      <c r="G180" s="16">
         <f t="shared" si="352"/>
         <v>687</v>
       </c>
-      <c r="H180" s="19">
+      <c r="H180" s="16">
         <f t="shared" si="352"/>
         <v>9</v>
       </c>
-      <c r="I180" s="19">
+      <c r="I180" s="16">
         <f t="shared" si="352"/>
         <v>3</v>
       </c>
-      <c r="J180" s="19">
+      <c r="J180" s="16">
         <f t="shared" si="352"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D181" s="19">
+      <c r="K180" s="18"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="18"/>
+      <c r="B181" s="18"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="16">
         <f t="shared" ref="D181:J211" si="353">IF(D180&lt;0, D180*-3, D180)</f>
         <v>54</v>
       </c>
-      <c r="E181" s="19">
+      <c r="E181" s="16">
         <f t="shared" si="353"/>
         <v>57</v>
       </c>
-      <c r="F181" s="19">
+      <c r="F181" s="16">
         <f t="shared" si="353"/>
         <v>63</v>
       </c>
-      <c r="G181" s="19">
+      <c r="G181" s="16">
         <f t="shared" si="353"/>
         <v>687</v>
       </c>
-      <c r="H181" s="19">
+      <c r="H181" s="16">
         <f t="shared" si="353"/>
         <v>9</v>
       </c>
-      <c r="I181" s="19">
+      <c r="I181" s="16">
         <f t="shared" si="353"/>
         <v>3</v>
       </c>
-      <c r="J181" s="19">
+      <c r="J181" s="16">
         <f t="shared" si="353"/>
         <v>3</v>
       </c>
-      <c r="K181" s="21">
+      <c r="K181" s="24">
         <f t="shared" ref="K181" si="354">SUM(D181:J181)</f>
         <v>876</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>33</v>
       </c>
       <c r="B183" s="1"/>
-      <c r="C183" s="15">
+      <c r="C183" s="14">
         <v>0.35625000000000001</v>
       </c>
-      <c r="D183" s="15"/>
-      <c r="E183" s="15">
+      <c r="D183" s="14"/>
+      <c r="E183" s="14">
         <v>0.40625</v>
       </c>
-      <c r="F183" s="15">
+      <c r="F183" s="14">
         <v>0.45902777777777781</v>
       </c>
-      <c r="G183" s="15">
+      <c r="G183" s="14">
         <v>0.50624999999999998</v>
       </c>
-      <c r="H183" s="15"/>
-      <c r="I183" s="15"/>
-      <c r="J183" s="15"/>
-      <c r="K183" s="6">
+      <c r="H183" s="14"/>
+      <c r="I183" s="14"/>
+      <c r="J183" s="14"/>
+      <c r="K183" s="23">
         <f t="shared" ref="K183" si="355">INT((J183-C183)*1440)</f>
         <v>-513</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D184" s="1">
         <f t="shared" ref="D184" si="356">INT((D183-C183)*1440)</f>
         <v>-513</v>
@@ -5302,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D185" s="1">
         <f t="shared" ref="D185:J185" si="363">D184-D$20</f>
         <v>-531</v>
@@ -5332,7 +5410,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D186" s="1">
         <f t="shared" ref="D186:J186" si="364">IF(D185&lt;0, D185*-3, D185)</f>
         <v>1593</v>
@@ -5361,44 +5439,44 @@
         <f t="shared" si="364"/>
         <v>90</v>
       </c>
-      <c r="K186" s="6">
+      <c r="K186" s="23">
         <f t="shared" ref="K186" si="365">SUM(D186:J186)</f>
         <v>4656</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>34</v>
       </c>
       <c r="B188" s="1"/>
-      <c r="C188" s="15">
+      <c r="C188" s="14">
         <v>0.35694444444444445</v>
       </c>
-      <c r="D188" s="15">
+      <c r="D188" s="14">
         <v>0.37083333333333335</v>
       </c>
-      <c r="E188" s="15">
+      <c r="E188" s="14">
         <v>0.38750000000000001</v>
       </c>
-      <c r="F188" s="15">
+      <c r="F188" s="14">
         <v>0.40416666666666662</v>
       </c>
-      <c r="G188" s="15">
+      <c r="G188" s="14">
         <v>0.43402777777777773</v>
       </c>
-      <c r="H188" s="15"/>
-      <c r="I188" s="15">
+      <c r="H188" s="14"/>
+      <c r="I188" s="14">
         <v>0.46111111111111108</v>
       </c>
-      <c r="J188" s="15">
+      <c r="J188" s="14">
         <v>0.48680555555555555</v>
       </c>
-      <c r="K188" s="6">
+      <c r="K188" s="23">
         <f t="shared" ref="K188" si="366">INT((J188-C188)*1440)</f>
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D189" s="1">
         <f t="shared" ref="D189" si="367">INT((D188-C188)*1440)</f>
         <v>20</v>
@@ -5428,7 +5506,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D190" s="1">
         <f t="shared" ref="D190" si="374">D189-D$20</f>
         <v>2</v>
@@ -5458,7 +5536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D191" s="1">
         <f t="shared" ref="D191" si="375">IF(D190&lt;0, D190*-3, D190)</f>
         <v>2</v>
@@ -5487,40 +5565,40 @@
         <f t="shared" si="353"/>
         <v>7</v>
       </c>
-      <c r="K191" s="6">
+      <c r="K191" s="23">
         <f t="shared" ref="K191" si="376">SUM(D191:J191)</f>
         <v>2640</v>
       </c>
     </row>
-    <row r="193" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>35</v>
       </c>
       <c r="B193" s="3"/>
-      <c r="C193" s="16">
+      <c r="C193" s="15">
         <v>0.3576388888888889</v>
       </c>
-      <c r="D193" s="16">
+      <c r="D193" s="15">
         <v>0.40416666666666662</v>
       </c>
-      <c r="E193" s="16">
+      <c r="E193" s="15">
         <v>0.44236111111111115</v>
       </c>
-      <c r="F193" s="16">
+      <c r="F193" s="15">
         <v>0.4055555555555555</v>
       </c>
-      <c r="G193" s="16">
+      <c r="G193" s="15">
         <v>0.52083333333333337</v>
       </c>
-      <c r="H193" s="16"/>
-      <c r="I193" s="16"/>
-      <c r="J193" s="16"/>
-      <c r="K193" s="17">
+      <c r="H193" s="15"/>
+      <c r="I193" s="15"/>
+      <c r="J193" s="15"/>
+      <c r="K193" s="25">
         <f t="shared" ref="K193" si="377">INT((J193-C193)*1440)</f>
         <v>-515</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D194" s="1">
         <f t="shared" ref="D194" si="378">INT((D193-C193)*1440)</f>
         <v>66</v>
@@ -5550,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D195" s="1">
         <f t="shared" ref="D195:J195" si="385">D194-D$20</f>
         <v>48</v>
@@ -5580,7 +5658,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D196" s="1">
         <f t="shared" ref="D196:J196" si="386">IF(D195&lt;0, D195*-3, D195)</f>
         <v>48</v>
@@ -5609,46 +5687,46 @@
         <f t="shared" si="386"/>
         <v>90</v>
       </c>
-      <c r="K196" s="6">
+      <c r="K196" s="23">
         <f t="shared" ref="K196" si="387">SUM(D196:J196)</f>
         <v>2913</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>36</v>
       </c>
       <c r="B198" s="1"/>
-      <c r="C198" s="15">
+      <c r="C198" s="14">
         <v>0.35833333333333334</v>
       </c>
-      <c r="D198" s="15">
+      <c r="D198" s="14">
         <v>0.37291666666666662</v>
       </c>
-      <c r="E198" s="15">
+      <c r="E198" s="14">
         <v>0.38819444444444445</v>
       </c>
-      <c r="F198" s="15">
+      <c r="F198" s="14">
         <v>0.4055555555555555</v>
       </c>
-      <c r="G198" s="15">
+      <c r="G198" s="14">
         <v>0.43541666666666662</v>
       </c>
-      <c r="H198" s="15">
+      <c r="H198" s="14">
         <v>0.48125000000000001</v>
       </c>
-      <c r="I198" s="15">
+      <c r="I198" s="14">
         <v>0.49583333333333335</v>
       </c>
-      <c r="J198" s="15">
+      <c r="J198" s="14">
         <v>0.51250000000000007</v>
       </c>
-      <c r="K198" s="6">
+      <c r="K198" s="23">
         <f t="shared" ref="K198" si="388">INT((J198-C198)*1440)</f>
         <v>222</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D199" s="1">
         <f t="shared" ref="D199" si="389">INT((D198-C198)*1440)</f>
         <v>20</v>
@@ -5678,7 +5756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D200" s="1">
         <f t="shared" ref="D200" si="396">D199-D$20</f>
         <v>2</v>
@@ -5708,7 +5786,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D201" s="1">
         <f t="shared" ref="D201" si="397">IF(D200&lt;0, D200*-3, D200)</f>
         <v>2</v>
@@ -5737,46 +5815,46 @@
         <f t="shared" si="353"/>
         <v>18</v>
       </c>
-      <c r="K201" s="6">
+      <c r="K201" s="23">
         <f t="shared" ref="K201" si="398">SUM(D201:J201)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>37</v>
       </c>
       <c r="B203" s="1"/>
-      <c r="C203" s="15">
+      <c r="C203" s="14">
         <v>0.35902777777777778</v>
       </c>
-      <c r="D203" s="15">
+      <c r="D203" s="14">
         <v>0.37361111111111112</v>
       </c>
-      <c r="E203" s="15">
+      <c r="E203" s="14">
         <v>0.39027777777777778</v>
       </c>
-      <c r="F203" s="15">
+      <c r="F203" s="14">
         <v>0.40902777777777777</v>
       </c>
-      <c r="G203" s="15">
+      <c r="G203" s="14">
         <v>0.44166666666666665</v>
       </c>
-      <c r="H203" s="15">
+      <c r="H203" s="14">
         <v>0.46180555555555558</v>
       </c>
-      <c r="I203" s="15">
+      <c r="I203" s="14">
         <v>0.47083333333333338</v>
       </c>
-      <c r="J203" s="15">
+      <c r="J203" s="14">
         <v>0.49513888888888885</v>
       </c>
-      <c r="K203" s="6">
+      <c r="K203" s="23">
         <f t="shared" ref="K203" si="399">INT((J203-C203)*1440)</f>
         <v>196</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D204" s="1">
         <f t="shared" ref="D204" si="400">INT((D203-C203)*1440)</f>
         <v>21</v>
@@ -5806,7 +5884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D205" s="1">
         <f t="shared" ref="D205:J205" si="407">D204-D$20</f>
         <v>3</v>
@@ -5836,7 +5914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D206" s="1">
         <f t="shared" ref="D206:J206" si="408">IF(D205&lt;0, D205*-3, D205)</f>
         <v>3</v>
@@ -5865,42 +5943,42 @@
         <f t="shared" si="408"/>
         <v>4</v>
       </c>
-      <c r="K206" s="6">
+      <c r="K206" s="23">
         <f t="shared" ref="K206" si="409">SUM(D206:J206)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>38</v>
       </c>
       <c r="B208" s="1"/>
-      <c r="C208" s="15">
+      <c r="C208" s="14">
         <v>0.35972222222222222</v>
       </c>
-      <c r="D208" s="15"/>
-      <c r="E208" s="15">
+      <c r="D208" s="14"/>
+      <c r="E208" s="14">
         <v>0.39097222222222222</v>
       </c>
-      <c r="F208" s="15">
+      <c r="F208" s="14">
         <v>0.40972222222222227</v>
       </c>
-      <c r="G208" s="15">
+      <c r="G208" s="14">
         <v>0.4465277777777778</v>
       </c>
-      <c r="H208" s="15"/>
-      <c r="I208" s="15">
+      <c r="H208" s="14"/>
+      <c r="I208" s="14">
         <v>0.47152777777777777</v>
       </c>
-      <c r="J208" s="15">
+      <c r="J208" s="14">
         <v>0.49513888888888885</v>
       </c>
-      <c r="K208" s="6">
+      <c r="K208" s="23">
         <f t="shared" ref="K208" si="410">INT((J208-C208)*1440)</f>
         <v>195</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D209" s="1">
         <f t="shared" ref="D209" si="411">INT((D208-C208)*1440)</f>
         <v>-518</v>
@@ -5930,7 +6008,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D210" s="1">
         <f t="shared" ref="D210" si="418">D209-D$20</f>
         <v>-536</v>
@@ -5960,7 +6038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D211" s="1">
         <f t="shared" ref="D211" si="419">IF(D210&lt;0, D210*-3, D210)</f>
         <v>1608</v>
@@ -5989,166 +6067,177 @@
         <f t="shared" si="353"/>
         <v>4</v>
       </c>
-      <c r="K211" s="6">
+      <c r="K211" s="23">
         <f t="shared" ref="K211" si="420">SUM(D211:J211)</f>
         <v>4865</v>
       </c>
     </row>
-    <row r="213" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="19">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" s="16">
         <v>39</v>
       </c>
-      <c r="B213" s="19"/>
-      <c r="C213" s="20">
-        <v>0</v>
-      </c>
-      <c r="D213" s="20"/>
-      <c r="E213" s="20"/>
-      <c r="F213" s="20"/>
-      <c r="G213" s="20">
+      <c r="B213" s="16"/>
+      <c r="C213" s="17">
+        <v>0</v>
+      </c>
+      <c r="D213" s="17"/>
+      <c r="E213" s="17"/>
+      <c r="F213" s="17"/>
+      <c r="G213" s="17">
         <v>0.50416666666666665</v>
       </c>
-      <c r="H213" s="20">
+      <c r="H213" s="17">
         <v>0.51944444444444449</v>
       </c>
-      <c r="I213" s="20">
+      <c r="I213" s="17">
         <v>0.52500000000000002</v>
       </c>
-      <c r="J213" s="20">
+      <c r="J213" s="17">
         <v>0.54791666666666672</v>
       </c>
-      <c r="K213" s="21">
+      <c r="K213" s="24">
         <f t="shared" ref="K213" si="421">INT((J213-C213)*1440)</f>
         <v>789</v>
       </c>
     </row>
-    <row r="214" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D214" s="19">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" s="18"/>
+      <c r="B214" s="18"/>
+      <c r="C214" s="18"/>
+      <c r="D214" s="16">
         <f t="shared" ref="D214" si="422">INT((D213-C213)*1440)</f>
         <v>0</v>
       </c>
-      <c r="E214" s="19">
+      <c r="E214" s="16">
         <f t="shared" ref="E214" si="423">INT((E213-D213)*1440)</f>
         <v>0</v>
       </c>
-      <c r="F214" s="19">
+      <c r="F214" s="16">
         <f t="shared" ref="F214" si="424">INT((F213-E213)*1440)</f>
         <v>0</v>
       </c>
-      <c r="G214" s="19">
+      <c r="G214" s="16">
         <f t="shared" ref="G214" si="425">INT((G213-F213)*1440)</f>
         <v>726</v>
       </c>
-      <c r="H214" s="19">
+      <c r="H214" s="16">
         <f t="shared" ref="H214" si="426">INT((H213-G213)*1440)</f>
         <v>22</v>
       </c>
-      <c r="I214" s="19">
+      <c r="I214" s="16">
         <f t="shared" ref="I214" si="427">INT((I213-H213)*1440)</f>
         <v>7</v>
       </c>
-      <c r="J214" s="19">
+      <c r="J214" s="16">
         <f t="shared" ref="J214" si="428">INT((J213-I213)*1440)</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D215" s="19">
+      <c r="K214" s="18"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" s="18"/>
+      <c r="B215" s="18"/>
+      <c r="C215" s="18"/>
+      <c r="D215" s="16">
         <f t="shared" ref="D215:J215" si="429">D214-D$20</f>
         <v>-18</v>
       </c>
-      <c r="E215" s="19">
+      <c r="E215" s="16">
         <f t="shared" si="429"/>
         <v>-19</v>
       </c>
-      <c r="F215" s="19">
+      <c r="F215" s="16">
         <f t="shared" si="429"/>
         <v>-21</v>
       </c>
-      <c r="G215" s="19">
+      <c r="G215" s="16">
         <f t="shared" si="429"/>
         <v>701</v>
       </c>
-      <c r="H215" s="19">
+      <c r="H215" s="16">
         <f t="shared" si="429"/>
         <v>-5</v>
       </c>
-      <c r="I215" s="19">
+      <c r="I215" s="16">
         <f t="shared" si="429"/>
         <v>-7</v>
       </c>
-      <c r="J215" s="19">
+      <c r="J215" s="16">
         <f t="shared" si="429"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D216" s="19">
+      <c r="K215" s="18"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" s="18"/>
+      <c r="B216" s="18"/>
+      <c r="C216" s="18"/>
+      <c r="D216" s="16">
         <f t="shared" ref="D216:J216" si="430">IF(D215&lt;0, D215*-3, D215)</f>
         <v>54</v>
       </c>
-      <c r="E216" s="19">
+      <c r="E216" s="16">
         <f t="shared" si="430"/>
         <v>57</v>
       </c>
-      <c r="F216" s="19">
+      <c r="F216" s="16">
         <f t="shared" si="430"/>
         <v>63</v>
       </c>
-      <c r="G216" s="19">
+      <c r="G216" s="16">
         <f t="shared" si="430"/>
         <v>701</v>
       </c>
-      <c r="H216" s="19">
+      <c r="H216" s="16">
         <f t="shared" si="430"/>
         <v>15</v>
       </c>
-      <c r="I216" s="19">
+      <c r="I216" s="16">
         <f t="shared" si="430"/>
         <v>21</v>
       </c>
-      <c r="J216" s="19">
+      <c r="J216" s="16">
         <f t="shared" si="430"/>
         <v>3</v>
       </c>
-      <c r="K216" s="21">
+      <c r="K216" s="24">
         <f t="shared" ref="K216" si="431">SUM(D216:J216)</f>
         <v>914</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>40</v>
       </c>
       <c r="B218" s="1"/>
-      <c r="C218" s="15">
+      <c r="C218" s="14">
         <v>0.3611111111111111</v>
       </c>
-      <c r="D218" s="15">
+      <c r="D218" s="14">
         <v>0.38750000000000001</v>
       </c>
-      <c r="E218" s="15">
+      <c r="E218" s="14">
         <v>0.4152777777777778</v>
       </c>
-      <c r="F218" s="15">
+      <c r="F218" s="14">
         <v>0.43541666666666662</v>
       </c>
-      <c r="G218" s="15">
+      <c r="G218" s="14">
         <v>0.45763888888888887</v>
       </c>
-      <c r="H218" s="15"/>
-      <c r="I218" s="15">
+      <c r="H218" s="14"/>
+      <c r="I218" s="14">
         <v>0.50069444444444444</v>
       </c>
-      <c r="J218" s="15">
+      <c r="J218" s="14">
         <v>0.51736111111111105</v>
       </c>
-      <c r="K218" s="6">
+      <c r="K218" s="23">
         <f t="shared" ref="K218" si="432">INT((J218-C218)*1440)</f>
         <v>225</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D219" s="1">
         <f t="shared" ref="D219" si="433">INT((D218-C218)*1440)</f>
         <v>38</v>
@@ -6178,7 +6267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D220" s="1">
         <f t="shared" ref="D220:J250" si="440">D219-D$20</f>
         <v>20</v>
@@ -6208,7 +6297,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D221" s="1">
         <f t="shared" ref="D221:J251" si="441">IF(D220&lt;0, D220*-3, D220)</f>
         <v>20</v>
@@ -6237,46 +6326,46 @@
         <f t="shared" si="441"/>
         <v>21</v>
       </c>
-      <c r="K221" s="6">
+      <c r="K221" s="23">
         <f t="shared" ref="K221" si="442">SUM(D221:J221)</f>
         <v>2841</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>41</v>
       </c>
       <c r="B223" s="1"/>
-      <c r="C223" s="15">
+      <c r="C223" s="14">
         <v>0.36180555555555555</v>
       </c>
-      <c r="D223" s="15">
+      <c r="D223" s="14">
         <v>0.3833333333333333</v>
       </c>
-      <c r="E223" s="15">
+      <c r="E223" s="14">
         <v>0.40763888888888888</v>
       </c>
-      <c r="F223" s="15">
+      <c r="F223" s="14">
         <v>0.42708333333333331</v>
       </c>
-      <c r="G223" s="15">
+      <c r="G223" s="14">
         <v>0.46249999999999997</v>
       </c>
-      <c r="H223" s="15">
+      <c r="H223" s="14">
         <v>0.48333333333333334</v>
       </c>
-      <c r="I223" s="15">
+      <c r="I223" s="14">
         <v>0.50138888888888888</v>
       </c>
-      <c r="J223" s="15">
+      <c r="J223" s="14">
         <v>0.51736111111111105</v>
       </c>
-      <c r="K223" s="6">
+      <c r="K223" s="23">
         <f t="shared" ref="K223" si="443">INT((J223-C223)*1440)</f>
         <v>224</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D224" s="1">
         <f t="shared" ref="D224" si="444">INT((D223-C223)*1440)</f>
         <v>31</v>
@@ -6306,7 +6395,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D225" s="1">
         <f t="shared" ref="D225:J225" si="451">D224-D$20</f>
         <v>13</v>
@@ -6336,7 +6425,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D226" s="1">
         <f t="shared" ref="D226:J226" si="452">IF(D225&lt;0, D225*-3, D225)</f>
         <v>13</v>
@@ -6365,166 +6454,177 @@
         <f t="shared" si="452"/>
         <v>24</v>
       </c>
-      <c r="K226" s="6">
+      <c r="K226" s="23">
         <f t="shared" ref="K226" si="453">SUM(D226:J226)</f>
         <v>101</v>
       </c>
     </row>
-    <row r="228" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="19">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" s="16">
         <v>42</v>
       </c>
-      <c r="B228" s="19"/>
-      <c r="C228" s="20">
-        <v>0</v>
-      </c>
-      <c r="D228" s="20"/>
-      <c r="E228" s="20"/>
-      <c r="F228" s="20"/>
-      <c r="G228" s="20">
+      <c r="B228" s="16"/>
+      <c r="C228" s="17">
+        <v>0</v>
+      </c>
+      <c r="D228" s="17"/>
+      <c r="E228" s="17"/>
+      <c r="F228" s="17"/>
+      <c r="G228" s="17">
         <v>0.49444444444444446</v>
       </c>
-      <c r="H228" s="20">
+      <c r="H228" s="17">
         <v>0.51944444444444449</v>
       </c>
-      <c r="I228" s="20">
+      <c r="I228" s="17">
         <v>0.53194444444444444</v>
       </c>
-      <c r="J228" s="20">
+      <c r="J228" s="17">
         <v>0.55486111111111114</v>
       </c>
-      <c r="K228" s="21">
+      <c r="K228" s="24">
         <f t="shared" ref="K228" si="454">INT((J228-C228)*1440)</f>
         <v>799</v>
       </c>
     </row>
-    <row r="229" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D229" s="19">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" s="18"/>
+      <c r="B229" s="18"/>
+      <c r="C229" s="18"/>
+      <c r="D229" s="16">
         <f t="shared" ref="D229" si="455">INT((D228-C228)*1440)</f>
         <v>0</v>
       </c>
-      <c r="E229" s="19">
+      <c r="E229" s="16">
         <f t="shared" ref="E229" si="456">INT((E228-D228)*1440)</f>
         <v>0</v>
       </c>
-      <c r="F229" s="19">
+      <c r="F229" s="16">
         <f t="shared" ref="F229" si="457">INT((F228-E228)*1440)</f>
         <v>0</v>
       </c>
-      <c r="G229" s="19">
+      <c r="G229" s="16">
         <f t="shared" ref="G229" si="458">INT((G228-F228)*1440)</f>
         <v>712</v>
       </c>
-      <c r="H229" s="19">
+      <c r="H229" s="16">
         <f t="shared" ref="H229" si="459">INT((H228-G228)*1440)</f>
         <v>36</v>
       </c>
-      <c r="I229" s="19">
+      <c r="I229" s="16">
         <f t="shared" ref="I229" si="460">INT((I228-H228)*1440)</f>
         <v>17</v>
       </c>
-      <c r="J229" s="19">
+      <c r="J229" s="16">
         <f t="shared" ref="J229" si="461">INT((J228-I228)*1440)</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D230" s="19">
+      <c r="K229" s="18"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" s="18"/>
+      <c r="B230" s="18"/>
+      <c r="C230" s="18"/>
+      <c r="D230" s="16">
         <f t="shared" ref="D230" si="462">D229-D$20</f>
         <v>-18</v>
       </c>
-      <c r="E230" s="19">
+      <c r="E230" s="16">
         <f t="shared" si="440"/>
         <v>-19</v>
       </c>
-      <c r="F230" s="19">
+      <c r="F230" s="16">
         <f t="shared" si="440"/>
         <v>-21</v>
       </c>
-      <c r="G230" s="19">
+      <c r="G230" s="16">
         <f t="shared" si="440"/>
         <v>687</v>
       </c>
-      <c r="H230" s="19">
+      <c r="H230" s="16">
         <f t="shared" si="440"/>
         <v>9</v>
       </c>
-      <c r="I230" s="19">
+      <c r="I230" s="16">
         <f t="shared" si="440"/>
         <v>3</v>
       </c>
-      <c r="J230" s="19">
+      <c r="J230" s="16">
         <f t="shared" si="440"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D231" s="19">
+      <c r="K230" s="18"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" s="18"/>
+      <c r="B231" s="18"/>
+      <c r="C231" s="18"/>
+      <c r="D231" s="16">
         <f t="shared" ref="D231" si="463">IF(D230&lt;0, D230*-3, D230)</f>
         <v>54</v>
       </c>
-      <c r="E231" s="19">
+      <c r="E231" s="16">
         <f t="shared" si="441"/>
         <v>57</v>
       </c>
-      <c r="F231" s="19">
+      <c r="F231" s="16">
         <f t="shared" si="441"/>
         <v>63</v>
       </c>
-      <c r="G231" s="19">
+      <c r="G231" s="16">
         <f t="shared" si="441"/>
         <v>687</v>
       </c>
-      <c r="H231" s="19">
+      <c r="H231" s="16">
         <f t="shared" si="441"/>
         <v>9</v>
       </c>
-      <c r="I231" s="19">
+      <c r="I231" s="16">
         <f t="shared" si="441"/>
         <v>3</v>
       </c>
-      <c r="J231" s="19">
+      <c r="J231" s="16">
         <f t="shared" si="441"/>
         <v>3</v>
       </c>
-      <c r="K231" s="21">
+      <c r="K231" s="24">
         <f t="shared" ref="K231" si="464">SUM(D231:J231)</f>
         <v>876</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>43</v>
       </c>
       <c r="B233" s="1"/>
-      <c r="C233" s="15">
+      <c r="C233" s="14">
         <v>0.36388888888888887</v>
       </c>
-      <c r="D233" s="15">
+      <c r="D233" s="14">
         <v>0.39513888888888887</v>
       </c>
-      <c r="E233" s="15">
+      <c r="E233" s="14">
         <v>0.41111111111111115</v>
       </c>
-      <c r="F233" s="15">
+      <c r="F233" s="14">
         <v>0.42777777777777781</v>
       </c>
-      <c r="G233" s="15">
+      <c r="G233" s="14">
         <v>0.4465277777777778</v>
       </c>
-      <c r="H233" s="15"/>
-      <c r="I233" s="15">
+      <c r="H233" s="14"/>
+      <c r="I233" s="14">
         <v>0.48749999999999999</v>
       </c>
-      <c r="J233" s="15">
+      <c r="J233" s="14">
         <v>0.50902777777777775</v>
       </c>
-      <c r="K233" s="6">
+      <c r="K233" s="23">
         <f t="shared" ref="K233" si="465">INT((J233-C233)*1440)</f>
         <v>209</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D234" s="1">
         <f t="shared" ref="D234" si="466">INT((D233-C233)*1440)</f>
         <v>45</v>
@@ -6554,7 +6654,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D235" s="1">
         <f t="shared" ref="D235:J235" si="473">D234-D$20</f>
         <v>27</v>
@@ -6584,7 +6684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D236" s="1">
         <f t="shared" ref="D236:J236" si="474">IF(D235&lt;0, D235*-3, D235)</f>
         <v>27</v>
@@ -6613,170 +6713,181 @@
         <f t="shared" si="474"/>
         <v>1</v>
       </c>
-      <c r="K236" s="6">
+      <c r="K236" s="23">
         <f t="shared" ref="K236" si="475">SUM(D236:J236)</f>
         <v>2735</v>
       </c>
     </row>
-    <row r="238" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="19">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" s="16">
         <v>44</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="20">
-        <v>0</v>
-      </c>
-      <c r="D238" s="20">
+      <c r="B238" s="16"/>
+      <c r="C238" s="17">
+        <v>0</v>
+      </c>
+      <c r="D238" s="17">
         <v>0.37916666666666665</v>
       </c>
-      <c r="E238" s="20"/>
-      <c r="F238" s="20"/>
-      <c r="G238" s="20">
+      <c r="E238" s="17"/>
+      <c r="F238" s="17"/>
+      <c r="G238" s="17">
         <v>0.49444444444444446</v>
       </c>
-      <c r="H238" s="20">
+      <c r="H238" s="17">
         <v>0.51944444444444449</v>
       </c>
-      <c r="I238" s="20">
+      <c r="I238" s="17">
         <v>0.53194444444444444</v>
       </c>
-      <c r="J238" s="20">
+      <c r="J238" s="17">
         <v>0.55486111111111114</v>
       </c>
-      <c r="K238" s="21">
+      <c r="K238" s="24">
         <f t="shared" ref="K238" si="476">INT((J238-C238)*1440)</f>
         <v>799</v>
       </c>
     </row>
-    <row r="239" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D239" s="19">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" s="18"/>
+      <c r="B239" s="18"/>
+      <c r="C239" s="18"/>
+      <c r="D239" s="16">
         <f t="shared" ref="D239" si="477">INT((D238-C238)*1440)</f>
         <v>546</v>
       </c>
-      <c r="E239" s="19">
+      <c r="E239" s="16">
         <f t="shared" ref="E239" si="478">INT((E238-D238)*1440)</f>
         <v>-546</v>
       </c>
-      <c r="F239" s="19">
+      <c r="F239" s="16">
         <f t="shared" ref="F239" si="479">INT((F238-E238)*1440)</f>
         <v>0</v>
       </c>
-      <c r="G239" s="19">
+      <c r="G239" s="16">
         <f t="shared" ref="G239" si="480">INT((G238-F238)*1440)</f>
         <v>712</v>
       </c>
-      <c r="H239" s="19">
+      <c r="H239" s="16">
         <f t="shared" ref="H239" si="481">INT((H238-G238)*1440)</f>
         <v>36</v>
       </c>
-      <c r="I239" s="19">
+      <c r="I239" s="16">
         <f t="shared" ref="I239" si="482">INT((I238-H238)*1440)</f>
         <v>17</v>
       </c>
-      <c r="J239" s="19">
+      <c r="J239" s="16">
         <f t="shared" ref="J239" si="483">INT((J238-I238)*1440)</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D240" s="19">
+      <c r="K239" s="18"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" s="18"/>
+      <c r="B240" s="18"/>
+      <c r="C240" s="18"/>
+      <c r="D240" s="16">
         <f t="shared" ref="D240" si="484">D239-D$20</f>
         <v>528</v>
       </c>
-      <c r="E240" s="19">
+      <c r="E240" s="16">
         <f t="shared" si="440"/>
         <v>-565</v>
       </c>
-      <c r="F240" s="19">
+      <c r="F240" s="16">
         <f t="shared" si="440"/>
         <v>-21</v>
       </c>
-      <c r="G240" s="19">
+      <c r="G240" s="16">
         <f t="shared" si="440"/>
         <v>687</v>
       </c>
-      <c r="H240" s="19">
+      <c r="H240" s="16">
         <f t="shared" si="440"/>
         <v>9</v>
       </c>
-      <c r="I240" s="19">
+      <c r="I240" s="16">
         <f t="shared" si="440"/>
         <v>3</v>
       </c>
-      <c r="J240" s="19">
+      <c r="J240" s="16">
         <f t="shared" si="440"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D241" s="19">
+      <c r="K240" s="18"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" s="18"/>
+      <c r="B241" s="18"/>
+      <c r="C241" s="18"/>
+      <c r="D241" s="16">
         <f t="shared" ref="D241" si="485">IF(D240&lt;0, D240*-3, D240)</f>
         <v>528</v>
       </c>
-      <c r="E241" s="19">
+      <c r="E241" s="16">
         <f t="shared" si="441"/>
         <v>1695</v>
       </c>
-      <c r="F241" s="19">
+      <c r="F241" s="16">
         <f t="shared" si="441"/>
         <v>63</v>
       </c>
-      <c r="G241" s="19">
+      <c r="G241" s="16">
         <f t="shared" si="441"/>
         <v>687</v>
       </c>
-      <c r="H241" s="19">
+      <c r="H241" s="16">
         <f t="shared" si="441"/>
         <v>9</v>
       </c>
-      <c r="I241" s="19">
+      <c r="I241" s="16">
         <f t="shared" si="441"/>
         <v>3</v>
       </c>
-      <c r="J241" s="19">
+      <c r="J241" s="16">
         <f t="shared" si="441"/>
         <v>3</v>
       </c>
-      <c r="K241" s="21">
+      <c r="K241" s="24">
         <f t="shared" ref="K241" si="486">SUM(D241:J241)</f>
         <v>2988</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>45</v>
       </c>
       <c r="B243" s="1"/>
-      <c r="C243" s="15">
+      <c r="C243" s="14">
         <v>0.36527777777777781</v>
       </c>
-      <c r="D243" s="15">
+      <c r="D243" s="14">
         <v>0.37916666666666665</v>
       </c>
-      <c r="E243" s="15">
+      <c r="E243" s="14">
         <v>0.3972222222222222</v>
       </c>
-      <c r="F243" s="15">
+      <c r="F243" s="14">
         <v>0.4152777777777778</v>
       </c>
-      <c r="G243" s="15">
+      <c r="G243" s="14">
         <v>0.43958333333333338</v>
       </c>
-      <c r="H243" s="15">
+      <c r="H243" s="14">
         <v>0.46249999999999997</v>
       </c>
-      <c r="I243" s="15">
+      <c r="I243" s="14">
         <v>0.4694444444444445</v>
       </c>
-      <c r="J243" s="15">
+      <c r="J243" s="14">
         <v>0.47986111111111113</v>
       </c>
-      <c r="K243" s="6">
+      <c r="K243" s="23">
         <f t="shared" ref="K243" si="487">INT((J243-C243)*1440)</f>
         <v>165</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D244" s="1">
         <f t="shared" ref="D244" si="488">INT((D243-C243)*1440)</f>
         <v>19</v>
@@ -6806,7 +6917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D245" s="1">
         <f t="shared" ref="D245:J245" si="495">D244-D$20</f>
         <v>1</v>
@@ -6836,7 +6947,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D246" s="1">
         <f t="shared" ref="D246:J246" si="496">IF(D245&lt;0, D245*-3, D245)</f>
         <v>1</v>
@@ -6865,46 +6976,46 @@
         <f t="shared" si="496"/>
         <v>48</v>
       </c>
-      <c r="K246" s="6">
+      <c r="K246" s="23">
         <f t="shared" ref="K246" si="497">SUM(D246:J246)</f>
         <v>88</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>46</v>
       </c>
       <c r="B248" s="1"/>
-      <c r="C248" s="15">
+      <c r="C248" s="14">
         <v>0.3659722222222222</v>
       </c>
-      <c r="D248" s="15">
+      <c r="D248" s="14">
         <v>0.38194444444444442</v>
       </c>
-      <c r="E248" s="15">
+      <c r="E248" s="14">
         <v>0.39652777777777781</v>
       </c>
-      <c r="F248" s="15">
+      <c r="F248" s="14">
         <v>0.4152777777777778</v>
       </c>
-      <c r="G248" s="15">
+      <c r="G248" s="14">
         <v>0.43541666666666662</v>
       </c>
-      <c r="H248" s="15">
+      <c r="H248" s="14">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I248" s="15">
+      <c r="I248" s="14">
         <v>0.4604166666666667</v>
       </c>
-      <c r="J248" s="15">
+      <c r="J248" s="14">
         <v>0.4826388888888889</v>
       </c>
-      <c r="K248" s="6">
+      <c r="K248" s="23">
         <f t="shared" ref="K248" si="498">INT((J248-C248)*1440)</f>
         <v>168</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D249" s="1">
         <f t="shared" ref="D249" si="499">INT((D248-C248)*1440)</f>
         <v>23</v>
@@ -6934,7 +7045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D250" s="1">
         <f t="shared" ref="D250" si="506">D249-D$20</f>
         <v>5</v>
@@ -6964,7 +7075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D251" s="1">
         <f t="shared" ref="D251" si="507">IF(D250&lt;0, D250*-3, D250)</f>
         <v>5</v>
@@ -6993,46 +7104,46 @@
         <f t="shared" si="441"/>
         <v>2</v>
       </c>
-      <c r="K251" s="6">
+      <c r="K251" s="23">
         <f t="shared" ref="K251" si="508">SUM(D251:J251)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>47</v>
       </c>
       <c r="B253" s="1"/>
-      <c r="C253" s="15">
+      <c r="C253" s="14">
         <v>0.3666666666666667</v>
       </c>
-      <c r="D253" s="15">
+      <c r="D253" s="14">
         <v>0.37916666666666665</v>
       </c>
-      <c r="E253" s="15">
+      <c r="E253" s="14">
         <v>0.4069444444444445</v>
       </c>
-      <c r="F253" s="15">
+      <c r="F253" s="14">
         <v>0.44097222222222227</v>
       </c>
-      <c r="G253" s="15">
+      <c r="G253" s="14">
         <v>0.4680555555555555</v>
       </c>
-      <c r="H253" s="15">
+      <c r="H253" s="14">
         <v>0.4909722222222222</v>
       </c>
-      <c r="I253" s="15">
+      <c r="I253" s="14">
         <v>0.50694444444444442</v>
       </c>
-      <c r="J253" s="15">
+      <c r="J253" s="14">
         <v>0.52361111111111114</v>
       </c>
-      <c r="K253" s="6">
+      <c r="K253" s="23">
         <f t="shared" ref="K253" si="509">INT((J253-C253)*1440)</f>
         <v>226</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D254" s="1">
         <f t="shared" ref="D254" si="510">INT((D253-C253)*1440)</f>
         <v>17</v>
@@ -7062,7 +7173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D255" s="1">
         <f t="shared" ref="D255:J255" si="517">D254-D$20</f>
         <v>-1</v>
@@ -7092,7 +7203,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D256" s="1">
         <f t="shared" ref="D256:J256" si="518">IF(D255&lt;0, D255*-3, D255)</f>
         <v>3</v>
@@ -7121,46 +7232,46 @@
         <f t="shared" si="518"/>
         <v>18</v>
       </c>
-      <c r="K256" s="6">
+      <c r="K256" s="23">
         <f t="shared" ref="K256" si="519">SUM(D256:J256)</f>
         <v>98</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>48</v>
       </c>
       <c r="B258" s="1"/>
-      <c r="C258" s="15">
+      <c r="C258" s="14">
         <v>0.36736111111111108</v>
       </c>
-      <c r="D258" s="15">
+      <c r="D258" s="14">
         <v>0.38472222222222219</v>
       </c>
-      <c r="E258" s="15">
+      <c r="E258" s="14">
         <v>0.4055555555555555</v>
       </c>
-      <c r="F258" s="15">
+      <c r="F258" s="14">
         <v>0.42222222222222222</v>
       </c>
-      <c r="G258" s="15">
+      <c r="G258" s="14">
         <v>0.45416666666666666</v>
       </c>
-      <c r="H258" s="15">
+      <c r="H258" s="14">
         <v>0.47152777777777777</v>
       </c>
-      <c r="I258" s="15">
+      <c r="I258" s="14">
         <v>0.48333333333333334</v>
       </c>
-      <c r="J258" s="15">
+      <c r="J258" s="14">
         <v>0.51041666666666663</v>
       </c>
-      <c r="K258" s="6">
+      <c r="K258" s="23">
         <f t="shared" ref="K258" si="520">INT((J258-C258)*1440)</f>
         <v>206</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D259" s="1">
         <f t="shared" ref="D259" si="521">INT((D258-C258)*1440)</f>
         <v>25</v>
@@ -7190,7 +7301,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D260" s="1">
         <f t="shared" ref="D260:J290" si="528">D259-D$20</f>
         <v>7</v>
@@ -7220,7 +7331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D261" s="1">
         <f t="shared" ref="D261:J291" si="529">IF(D260&lt;0, D260*-3, D260)</f>
         <v>7</v>
@@ -7249,42 +7360,42 @@
         <f t="shared" si="529"/>
         <v>8</v>
       </c>
-      <c r="K261" s="6">
+      <c r="K261" s="23">
         <f t="shared" ref="K261" si="530">SUM(D261:J261)</f>
         <v>59</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>49</v>
       </c>
       <c r="B263" s="1"/>
-      <c r="C263" s="15">
+      <c r="C263" s="14">
         <v>0.36805555555555558</v>
       </c>
-      <c r="D263" s="15"/>
-      <c r="E263" s="15">
+      <c r="D263" s="14"/>
+      <c r="E263" s="14">
         <v>0.42083333333333334</v>
       </c>
-      <c r="F263" s="15">
+      <c r="F263" s="14">
         <v>0.4777777777777778</v>
       </c>
-      <c r="G263" s="15">
+      <c r="G263" s="14">
         <v>0.50416666666666665</v>
       </c>
-      <c r="H263" s="15">
+      <c r="H263" s="14">
         <v>0.52708333333333335</v>
       </c>
-      <c r="I263" s="15">
+      <c r="I263" s="14">
         <v>0.53472222222222221</v>
       </c>
-      <c r="J263" s="15"/>
-      <c r="K263" s="6">
+      <c r="J263" s="14"/>
+      <c r="K263" s="23">
         <f t="shared" ref="K263" si="531">INT((J263-C263)*1440)</f>
         <v>-530</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D264" s="1">
         <f t="shared" ref="D264" si="532">INT((D263-C263)*1440)</f>
         <v>-530</v>
@@ -7314,7 +7425,7 @@
         <v>-770</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D265" s="1">
         <f t="shared" ref="D265:J265" si="539">D264-D$20</f>
         <v>-548</v>
@@ -7344,7 +7455,7 @@
         <v>-800</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D266" s="1">
         <f t="shared" ref="D266:J266" si="540">IF(D265&lt;0, D265*-3, D265)</f>
         <v>1644</v>
@@ -7373,40 +7484,40 @@
         <f t="shared" si="540"/>
         <v>2400</v>
       </c>
-      <c r="K266" s="6">
+      <c r="K266" s="23">
         <f t="shared" ref="K266" si="541">SUM(D266:J266)</f>
         <v>4719</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>50</v>
       </c>
       <c r="B268" s="1"/>
-      <c r="C268" s="15">
+      <c r="C268" s="14">
         <v>0.36874999999999997</v>
       </c>
-      <c r="D268" s="15">
+      <c r="D268" s="14">
         <v>0.3972222222222222</v>
       </c>
-      <c r="E268" s="15">
+      <c r="E268" s="14">
         <v>0.42291666666666666</v>
       </c>
-      <c r="F268" s="15">
+      <c r="F268" s="14">
         <v>0.46388888888888885</v>
       </c>
-      <c r="G268" s="15">
+      <c r="G268" s="14">
         <v>0.51180555555555551</v>
       </c>
-      <c r="H268" s="15"/>
-      <c r="I268" s="15"/>
-      <c r="J268" s="15"/>
-      <c r="K268" s="6">
+      <c r="H268" s="14"/>
+      <c r="I268" s="14"/>
+      <c r="J268" s="14"/>
+      <c r="K268" s="23">
         <f t="shared" ref="K268" si="542">INT((J268-C268)*1440)</f>
         <v>-531</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D269" s="1">
         <f t="shared" ref="D269" si="543">INT((D268-C268)*1440)</f>
         <v>41</v>
@@ -7436,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D270" s="1">
         <f t="shared" ref="D270" si="550">D269-D$20</f>
         <v>23</v>
@@ -7466,7 +7577,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D271" s="1">
         <f t="shared" ref="D271" si="551">IF(D270&lt;0, D270*-3, D270)</f>
         <v>23</v>
@@ -7495,44 +7606,44 @@
         <f t="shared" si="529"/>
         <v>90</v>
       </c>
-      <c r="K271" s="6">
+      <c r="K271" s="23">
         <f t="shared" ref="K271" si="552">SUM(D271:J271)</f>
         <v>2547</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>51</v>
       </c>
       <c r="B273" s="1"/>
-      <c r="C273" s="15">
+      <c r="C273" s="14">
         <v>0.36944444444444446</v>
       </c>
-      <c r="D273" s="15">
+      <c r="D273" s="14">
         <v>0.38750000000000001</v>
       </c>
-      <c r="E273" s="15">
+      <c r="E273" s="14">
         <v>0.40486111111111112</v>
       </c>
-      <c r="F273" s="15">
+      <c r="F273" s="14">
         <v>0.42291666666666666</v>
       </c>
-      <c r="G273" s="15">
+      <c r="G273" s="14">
         <v>0.4465277777777778</v>
       </c>
-      <c r="H273" s="15"/>
-      <c r="I273" s="15">
+      <c r="H273" s="14"/>
+      <c r="I273" s="14">
         <v>0.47222222222222227</v>
       </c>
-      <c r="J273" s="15">
+      <c r="J273" s="14">
         <v>0.49374999999999997</v>
       </c>
-      <c r="K273" s="6">
+      <c r="K273" s="23">
         <f t="shared" ref="K273" si="553">INT((J273-C273)*1440)</f>
         <v>179</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D274" s="1">
         <f t="shared" ref="D274" si="554">INT((D273-C273)*1440)</f>
         <v>26</v>
@@ -7562,7 +7673,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D275" s="1">
         <f t="shared" ref="D275:J275" si="561">D274-D$20</f>
         <v>8</v>
@@ -7592,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D276" s="1">
         <f t="shared" ref="D276:J276" si="562">IF(D275&lt;0, D275*-3, D275)</f>
         <v>8</v>
@@ -7621,46 +7732,46 @@
         <f t="shared" si="562"/>
         <v>0</v>
       </c>
-      <c r="K276" s="6">
+      <c r="K276" s="23">
         <f t="shared" ref="K276" si="563">SUM(D276:J276)</f>
         <v>2704</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>52</v>
       </c>
       <c r="B278" s="1"/>
-      <c r="C278" s="15">
+      <c r="C278" s="14">
         <v>0.37986111111111115</v>
       </c>
-      <c r="D278" s="15">
+      <c r="D278" s="14">
         <v>0.39374999999999999</v>
       </c>
-      <c r="E278" s="15">
+      <c r="E278" s="14">
         <v>0.4069444444444445</v>
       </c>
-      <c r="F278" s="15">
+      <c r="F278" s="14">
         <v>0.4236111111111111</v>
       </c>
-      <c r="G278" s="15">
+      <c r="G278" s="14">
         <v>0.44305555555555554</v>
       </c>
-      <c r="H278" s="15">
+      <c r="H278" s="14">
         <v>0.46180555555555558</v>
       </c>
-      <c r="I278" s="15">
+      <c r="I278" s="14">
         <v>0.47152777777777777</v>
       </c>
-      <c r="J278" s="15">
+      <c r="J278" s="14">
         <v>0.49236111111111108</v>
       </c>
-      <c r="K278" s="6">
+      <c r="K278" s="23">
         <f t="shared" ref="K278" si="564">INT((J278-C278)*1440)</f>
         <v>162</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D279" s="1">
         <f t="shared" ref="D279" si="565">INT((D278-C278)*1440)</f>
         <v>19</v>
@@ -7690,7 +7801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D280" s="1">
         <f t="shared" ref="D280" si="572">D279-D$20</f>
         <v>1</v>
@@ -7720,7 +7831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D281" s="1">
         <f t="shared" ref="D281" si="573">IF(D280&lt;0, D280*-3, D280)</f>
         <v>1</v>
@@ -7749,38 +7860,38 @@
         <f t="shared" si="529"/>
         <v>0</v>
       </c>
-      <c r="K281" s="6">
+      <c r="K281" s="23">
         <f t="shared" ref="K281" si="574">SUM(D281:J281)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>53</v>
       </c>
       <c r="B283" s="1"/>
-      <c r="C283" s="15">
+      <c r="C283" s="14">
         <v>0.37083333333333335</v>
       </c>
-      <c r="D283" s="15"/>
-      <c r="E283" s="15">
+      <c r="D283" s="14"/>
+      <c r="E283" s="14">
         <v>0.42083333333333334</v>
       </c>
-      <c r="F283" s="15">
+      <c r="F283" s="14">
         <v>0.4597222222222222</v>
       </c>
-      <c r="G283" s="15">
+      <c r="G283" s="14">
         <v>0.50624999999999998</v>
       </c>
-      <c r="H283" s="15"/>
-      <c r="I283" s="15"/>
-      <c r="J283" s="15"/>
-      <c r="K283" s="6">
+      <c r="H283" s="14"/>
+      <c r="I283" s="14"/>
+      <c r="J283" s="14"/>
+      <c r="K283" s="23">
         <f t="shared" ref="K283" si="575">INT((J283-C283)*1440)</f>
         <v>-534</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D284" s="1">
         <f t="shared" ref="D284" si="576">INT((D283-C283)*1440)</f>
         <v>-534</v>
@@ -7810,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D285" s="1">
         <f t="shared" ref="D285:J285" si="583">D284-D$20</f>
         <v>-552</v>
@@ -7840,7 +7951,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D286" s="1">
         <f t="shared" ref="D286:J286" si="584">IF(D285&lt;0, D285*-3, D285)</f>
         <v>1656</v>
@@ -7869,46 +7980,46 @@
         <f t="shared" si="584"/>
         <v>90</v>
       </c>
-      <c r="K286" s="6">
+      <c r="K286" s="23">
         <f t="shared" ref="K286" si="585">SUM(D286:J286)</f>
         <v>4720</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>54</v>
       </c>
       <c r="B288" s="1"/>
-      <c r="C288" s="15">
+      <c r="C288" s="14">
         <v>0.37152777777777773</v>
       </c>
-      <c r="D288" s="15">
+      <c r="D288" s="14">
         <v>0.3923611111111111</v>
       </c>
-      <c r="E288" s="15">
+      <c r="E288" s="14">
         <v>0.40763888888888888</v>
       </c>
-      <c r="F288" s="15">
+      <c r="F288" s="14">
         <v>0.42569444444444443</v>
       </c>
-      <c r="G288" s="15">
+      <c r="G288" s="14">
         <v>0.45347222222222222</v>
       </c>
-      <c r="H288" s="15">
+      <c r="H288" s="14">
         <v>0.47222222222222227</v>
       </c>
-      <c r="I288" s="15">
+      <c r="I288" s="14">
         <v>0.4826388888888889</v>
       </c>
-      <c r="J288" s="15">
+      <c r="J288" s="14">
         <v>0.5083333333333333</v>
       </c>
-      <c r="K288" s="6">
+      <c r="K288" s="23">
         <f t="shared" ref="K288" si="586">INT((J288-C288)*1440)</f>
         <v>197</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D289" s="1">
         <f t="shared" ref="D289" si="587">INT((D288-C288)*1440)</f>
         <v>30</v>
@@ -7938,7 +8049,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D290" s="1">
         <f t="shared" ref="D290" si="594">D289-D$20</f>
         <v>12</v>
@@ -7968,7 +8079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D291" s="1">
         <f t="shared" ref="D291" si="595">IF(D290&lt;0, D290*-3, D290)</f>
         <v>12</v>
@@ -7997,46 +8108,46 @@
         <f t="shared" si="529"/>
         <v>7</v>
       </c>
-      <c r="K291" s="6">
+      <c r="K291" s="23">
         <f t="shared" ref="K291" si="596">SUM(D291:J291)</f>
         <v>42</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>55</v>
       </c>
       <c r="B293" s="1"/>
-      <c r="C293" s="15">
+      <c r="C293" s="14">
         <v>0.37222222222222223</v>
       </c>
-      <c r="D293" s="15">
+      <c r="D293" s="14">
         <v>0.39374999999999999</v>
       </c>
-      <c r="E293" s="15">
+      <c r="E293" s="14">
         <v>0.40902777777777777</v>
       </c>
-      <c r="F293" s="15">
+      <c r="F293" s="14">
         <v>0.42777777777777781</v>
       </c>
-      <c r="G293" s="15">
+      <c r="G293" s="14">
         <v>0.44930555555555557</v>
       </c>
-      <c r="H293" s="15">
+      <c r="H293" s="14">
         <v>0.48541666666666666</v>
       </c>
-      <c r="I293" s="15">
+      <c r="I293" s="14">
         <v>0.49305555555555558</v>
       </c>
-      <c r="J293" s="15">
+      <c r="J293" s="14">
         <v>0.51527777777777783</v>
       </c>
-      <c r="K293" s="6">
+      <c r="K293" s="23">
         <f t="shared" ref="K293" si="597">INT((J293-C293)*1440)</f>
         <v>206</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D294" s="1">
         <f t="shared" ref="D294" si="598">INT((D293-C293)*1440)</f>
         <v>31</v>
@@ -8066,7 +8177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D295" s="1">
         <f t="shared" ref="D295:J295" si="605">D294-D$20</f>
         <v>13</v>
@@ -8096,7 +8207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D296" s="1">
         <f t="shared" ref="D296:J296" si="606">IF(D295&lt;0, D295*-3, D295)</f>
         <v>13</v>
@@ -8125,40 +8236,40 @@
         <f t="shared" si="606"/>
         <v>2</v>
       </c>
-      <c r="K296" s="6">
+      <c r="K296" s="23">
         <f t="shared" ref="K296" si="607">SUM(D296:J296)</f>
         <v>64</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>56</v>
       </c>
       <c r="B298" s="1"/>
-      <c r="C298" s="15">
+      <c r="C298" s="14">
         <v>0.37291666666666662</v>
       </c>
-      <c r="D298" s="15"/>
-      <c r="E298" s="15">
+      <c r="D298" s="14"/>
+      <c r="E298" s="14">
         <v>0.40902777777777777</v>
       </c>
-      <c r="F298" s="15"/>
-      <c r="G298" s="16">
+      <c r="F298" s="14"/>
+      <c r="G298" s="15">
         <v>0.49444444444444446</v>
       </c>
-      <c r="H298" s="15"/>
-      <c r="I298" s="16">
+      <c r="H298" s="14"/>
+      <c r="I298" s="15">
         <v>0.53194444444444444</v>
       </c>
-      <c r="J298" s="15">
+      <c r="J298" s="14">
         <v>0.55486111111111114</v>
       </c>
-      <c r="K298" s="6">
+      <c r="K298" s="23">
         <f t="shared" ref="K298" si="608">INT((J298-C298)*1440)</f>
         <v>262</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D299" s="1">
         <f t="shared" ref="D299" si="609">INT((D298-C298)*1440)</f>
         <v>-537</v>
@@ -8188,7 +8299,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D300" s="1">
         <f t="shared" ref="D300:J310" si="616">D299-D$20</f>
         <v>-555</v>
@@ -8218,7 +8329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D301" s="1">
         <f t="shared" ref="D301:J311" si="617">IF(D300&lt;0, D300*-3, D300)</f>
         <v>1665</v>
@@ -8247,40 +8358,40 @@
         <f t="shared" si="617"/>
         <v>3</v>
       </c>
-      <c r="K301" s="6">
+      <c r="K301" s="23">
         <f t="shared" ref="K301" si="618">SUM(D301:J301)</f>
         <v>7724</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>57</v>
       </c>
       <c r="B303" s="1"/>
-      <c r="C303" s="15">
+      <c r="C303" s="14">
         <v>0.37361111111111112</v>
       </c>
-      <c r="D303" s="15"/>
-      <c r="E303" s="15">
+      <c r="D303" s="14"/>
+      <c r="E303" s="14">
         <v>0.46458333333333335</v>
       </c>
-      <c r="F303" s="15"/>
-      <c r="G303" s="16">
+      <c r="F303" s="14"/>
+      <c r="G303" s="15">
         <v>0.50416666666666665</v>
       </c>
-      <c r="H303" s="15"/>
-      <c r="I303" s="16">
+      <c r="H303" s="14"/>
+      <c r="I303" s="15">
         <v>0.52500000000000002</v>
       </c>
-      <c r="J303" s="15">
+      <c r="J303" s="14">
         <v>0.54791666666666672</v>
       </c>
-      <c r="K303" s="6">
+      <c r="K303" s="23">
         <f t="shared" ref="K303" si="619">INT((J303-C303)*1440)</f>
         <v>251</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D304" s="1">
         <f t="shared" ref="D304" si="620">INT((D303-C303)*1440)</f>
         <v>-538</v>
@@ -8310,7 +8421,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D305" s="1">
         <f t="shared" ref="D305:J305" si="627">D304-D$20</f>
         <v>-556</v>
@@ -8340,7 +8451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D306" s="1">
         <f t="shared" ref="D306:J306" si="628">IF(D305&lt;0, D305*-3, D305)</f>
         <v>1668</v>
@@ -8369,42 +8480,42 @@
         <f t="shared" si="628"/>
         <v>3</v>
       </c>
-      <c r="K306" s="6">
+      <c r="K306" s="23">
         <f t="shared" ref="K306" si="629">SUM(D306:J306)</f>
         <v>8093</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>58</v>
       </c>
       <c r="B308" s="1"/>
-      <c r="C308" s="15">
+      <c r="C308" s="14">
         <v>0.3743055555555555</v>
       </c>
-      <c r="D308" s="15"/>
-      <c r="E308" s="15">
+      <c r="D308" s="14"/>
+      <c r="E308" s="14">
         <v>0.45763888888888887</v>
       </c>
-      <c r="F308" s="15">
+      <c r="F308" s="14">
         <v>0.46111111111111108</v>
       </c>
-      <c r="G308" s="16">
+      <c r="G308" s="15">
         <v>0.49444444444444446</v>
       </c>
-      <c r="H308" s="15"/>
-      <c r="I308" s="16">
+      <c r="H308" s="14"/>
+      <c r="I308" s="15">
         <v>0.53194444444444444</v>
       </c>
-      <c r="J308" s="15">
+      <c r="J308" s="14">
         <v>0.55486111111111114</v>
       </c>
-      <c r="K308" s="6">
+      <c r="K308" s="23">
         <f t="shared" ref="K308" si="630">INT((J308-C308)*1440)</f>
         <v>260</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D309" s="1">
         <f t="shared" ref="D309" si="631">INT((D308-C308)*1440)</f>
         <v>-539</v>
@@ -8434,7 +8545,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D310" s="1">
         <f t="shared" ref="D310" si="638">D309-D$20</f>
         <v>-557</v>
@@ -8464,7 +8575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D311" s="1">
         <f t="shared" ref="D311" si="639">IF(D310&lt;0, D310*-3, D310)</f>
         <v>1671</v>
@@ -8493,40 +8604,40 @@
         <f t="shared" si="617"/>
         <v>3</v>
       </c>
-      <c r="K311" s="6">
+      <c r="K311" s="23">
         <f t="shared" ref="K311" si="640">SUM(D311:J311)</f>
         <v>5357</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>59</v>
       </c>
       <c r="B313" s="1"/>
-      <c r="C313" s="15">
-        <v>0</v>
-      </c>
-      <c r="D313" s="15"/>
-      <c r="E313" s="15">
+      <c r="C313" s="14">
+        <v>0</v>
+      </c>
+      <c r="D313" s="14"/>
+      <c r="E313" s="14">
         <v>0.46458333333333335</v>
       </c>
-      <c r="F313" s="15"/>
-      <c r="G313" s="16">
+      <c r="F313" s="14"/>
+      <c r="G313" s="15">
         <v>0.50416666666666665</v>
       </c>
-      <c r="H313" s="15"/>
-      <c r="I313" s="16">
+      <c r="H313" s="14"/>
+      <c r="I313" s="15">
         <v>0.52500000000000002</v>
       </c>
-      <c r="J313" s="15">
+      <c r="J313" s="14">
         <v>0.54791666666666672</v>
       </c>
-      <c r="K313" s="6">
+      <c r="K313" s="23">
         <f t="shared" ref="K313" si="641">INT((J313-C313)*1440)</f>
         <v>789</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D314" s="1">
         <f t="shared" ref="D314" si="642">INT((D313-C313)*1440)</f>
         <v>0</v>
@@ -8556,7 +8667,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D315" s="1">
         <f t="shared" ref="D315" si="649">D314-D$20</f>
         <v>-18</v>
@@ -8586,7 +8697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D316" s="1">
         <f t="shared" ref="D316" si="656">IF(D315&lt;0, D315*-3, D315)</f>
         <v>54</v>
@@ -8615,42 +8726,42 @@
         <f t="shared" ref="J316" si="662">IF(J315&lt;0, J315*-3, J315)</f>
         <v>3</v>
       </c>
-      <c r="K316" s="6">
+      <c r="K316" s="23">
         <f t="shared" ref="K316" si="663">SUM(D316:J316)</f>
         <v>6479</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>60</v>
       </c>
       <c r="B318" s="1"/>
-      <c r="C318" s="15">
+      <c r="C318" s="14">
         <v>0.3756944444444445</v>
       </c>
-      <c r="D318" s="15">
+      <c r="D318" s="14">
         <v>0.42638888888888887</v>
       </c>
-      <c r="E318" s="15">
+      <c r="E318" s="14">
         <v>0.45763888888888887</v>
       </c>
-      <c r="F318" s="15"/>
-      <c r="G318" s="16">
+      <c r="F318" s="14"/>
+      <c r="G318" s="15">
         <v>0.49444444444444446</v>
       </c>
-      <c r="H318" s="15"/>
-      <c r="I318" s="16">
+      <c r="H318" s="14"/>
+      <c r="I318" s="15">
         <v>0.53194444444444444</v>
       </c>
-      <c r="J318" s="15">
+      <c r="J318" s="14">
         <v>0.55486111111111114</v>
       </c>
-      <c r="K318" s="6">
+      <c r="K318" s="23">
         <f t="shared" ref="K318" si="664">INT((J318-C318)*1440)</f>
         <v>258</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D319" s="1">
         <f t="shared" ref="D319" si="665">INT((D318-C318)*1440)</f>
         <v>72</v>
@@ -8680,7 +8791,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D320" s="1">
         <f t="shared" ref="D320" si="672">D319-D$20</f>
         <v>54</v>
@@ -8710,7 +8821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D321" s="1">
         <f t="shared" ref="D321" si="679">IF(D320&lt;0, D320*-3, D320)</f>
         <v>54</v>
@@ -8739,46 +8850,46 @@
         <f t="shared" ref="J321" si="685">IF(J320&lt;0, J320*-3, J320)</f>
         <v>3</v>
       </c>
-      <c r="K321" s="6">
+      <c r="K321" s="23">
         <f t="shared" ref="K321" si="686">SUM(D321:J321)</f>
         <v>5779</v>
       </c>
     </row>
-    <row r="323" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>61</v>
       </c>
       <c r="B323" s="3"/>
-      <c r="C323" s="16">
+      <c r="C323" s="15">
         <v>0.37638888888888888</v>
       </c>
-      <c r="D323" s="16">
+      <c r="D323" s="15">
         <v>0.40902777777777777</v>
       </c>
-      <c r="E323" s="16">
+      <c r="E323" s="15">
         <v>0.43541666666666662</v>
       </c>
-      <c r="F323" s="16">
+      <c r="F323" s="15">
         <v>0.45694444444444443</v>
       </c>
-      <c r="G323" s="16">
+      <c r="G323" s="15">
         <v>0.48888888888888887</v>
       </c>
-      <c r="H323" s="16">
+      <c r="H323" s="15">
         <v>0.51874999999999993</v>
       </c>
-      <c r="I323" s="16">
+      <c r="I323" s="15">
         <v>0.52847222222222223</v>
       </c>
-      <c r="J323" s="16">
+      <c r="J323" s="15">
         <v>0.54791666666666672</v>
       </c>
-      <c r="K323" s="17">
+      <c r="K323" s="25">
         <f t="shared" ref="K323" si="687">INT((J323-C323)*1440)</f>
         <v>247</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D324" s="1">
         <f t="shared" ref="D324" si="688">INT((D323-C323)*1440)</f>
         <v>47</v>
@@ -8808,7 +8919,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D325" s="1">
         <f t="shared" ref="D325" si="695">D324-D$20</f>
         <v>29</v>
@@ -8838,7 +8949,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D326" s="1">
         <f t="shared" ref="D326" si="702">IF(D325&lt;0, D325*-3, D325)</f>
         <v>29</v>
@@ -8867,424 +8978,481 @@
         <f t="shared" ref="J326" si="708">IF(J325&lt;0, J325*-3, J325)</f>
         <v>6</v>
       </c>
-      <c r="K326" s="6">
+      <c r="K326" s="23">
         <f t="shared" ref="K326" si="709">SUM(D326:J326)</f>
         <v>99</v>
       </c>
     </row>
-    <row r="328" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="19">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A328" s="16">
         <v>62</v>
       </c>
-      <c r="B328" s="19"/>
-      <c r="C328" s="20">
-        <v>0</v>
-      </c>
-      <c r="D328" s="20"/>
-      <c r="E328" s="20">
+      <c r="B328" s="16"/>
+      <c r="C328" s="17">
+        <v>0</v>
+      </c>
+      <c r="D328" s="17"/>
+      <c r="E328" s="17">
         <v>0.45763888888888887</v>
       </c>
-      <c r="F328" s="20">
+      <c r="F328" s="17">
         <v>0.47430555555555554</v>
       </c>
-      <c r="G328" s="20">
+      <c r="G328" s="17">
         <v>0.49444444444444446</v>
       </c>
-      <c r="H328" s="20"/>
-      <c r="I328" s="20">
+      <c r="H328" s="17"/>
+      <c r="I328" s="17">
         <v>0.53194444444444444</v>
       </c>
-      <c r="J328" s="20">
+      <c r="J328" s="17">
         <v>0.55486111111111114</v>
       </c>
-      <c r="K328" s="21">
+      <c r="K328" s="24">
         <f t="shared" ref="K328" si="710">INT((J328-C328)*1440)</f>
         <v>799</v>
       </c>
     </row>
-    <row r="329" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D329" s="19">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A329" s="18"/>
+      <c r="B329" s="18"/>
+      <c r="C329" s="18"/>
+      <c r="D329" s="16">
         <f t="shared" ref="D329" si="711">INT((D328-C328)*1440)</f>
         <v>0</v>
       </c>
-      <c r="E329" s="19">
+      <c r="E329" s="16">
         <f t="shared" ref="E329" si="712">INT((E328-D328)*1440)</f>
         <v>659</v>
       </c>
-      <c r="F329" s="19">
+      <c r="F329" s="16">
         <f t="shared" ref="F329" si="713">INT((F328-E328)*1440)</f>
         <v>24</v>
       </c>
-      <c r="G329" s="19">
+      <c r="G329" s="16">
         <f t="shared" ref="G329" si="714">INT((G328-F328)*1440)</f>
         <v>29</v>
       </c>
-      <c r="H329" s="19">
+      <c r="H329" s="16">
         <f t="shared" ref="H329" si="715">INT((H328-G328)*1440)</f>
         <v>-712</v>
       </c>
-      <c r="I329" s="19">
+      <c r="I329" s="16">
         <f t="shared" ref="I329" si="716">INT((I328-H328)*1440)</f>
         <v>766</v>
       </c>
-      <c r="J329" s="19">
+      <c r="J329" s="16">
         <f t="shared" ref="J329" si="717">INT((J328-I328)*1440)</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="330" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D330" s="19">
+      <c r="K329" s="18"/>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A330" s="18"/>
+      <c r="B330" s="18"/>
+      <c r="C330" s="18"/>
+      <c r="D330" s="16">
         <f t="shared" ref="D330" si="718">D329-D$20</f>
         <v>-18</v>
       </c>
-      <c r="E330" s="19">
+      <c r="E330" s="16">
         <f t="shared" ref="E330" si="719">E329-E$20</f>
         <v>640</v>
       </c>
-      <c r="F330" s="19">
+      <c r="F330" s="16">
         <f t="shared" ref="F330" si="720">F329-F$20</f>
         <v>3</v>
       </c>
-      <c r="G330" s="19">
+      <c r="G330" s="16">
         <f t="shared" ref="G330" si="721">G329-G$20</f>
         <v>4</v>
       </c>
-      <c r="H330" s="19">
+      <c r="H330" s="16">
         <f t="shared" ref="H330" si="722">H329-H$20</f>
         <v>-739</v>
       </c>
-      <c r="I330" s="19">
+      <c r="I330" s="16">
         <f t="shared" ref="I330" si="723">I329-I$20</f>
         <v>752</v>
       </c>
-      <c r="J330" s="19">
+      <c r="J330" s="16">
         <f t="shared" ref="J330" si="724">J329-J$20</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="331" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D331" s="19">
+      <c r="K330" s="18"/>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A331" s="18"/>
+      <c r="B331" s="18"/>
+      <c r="C331" s="18"/>
+      <c r="D331" s="16">
         <f t="shared" ref="D331" si="725">IF(D330&lt;0, D330*-3, D330)</f>
         <v>54</v>
       </c>
-      <c r="E331" s="19">
+      <c r="E331" s="16">
         <f t="shared" ref="E331" si="726">IF(E330&lt;0, E330*-3, E330)</f>
         <v>640</v>
       </c>
-      <c r="F331" s="19">
+      <c r="F331" s="16">
         <f t="shared" ref="F331" si="727">IF(F330&lt;0, F330*-3, F330)</f>
         <v>3</v>
       </c>
-      <c r="G331" s="19">
+      <c r="G331" s="16">
         <f t="shared" ref="G331" si="728">IF(G330&lt;0, G330*-3, G330)</f>
         <v>4</v>
       </c>
-      <c r="H331" s="19">
+      <c r="H331" s="16">
         <f t="shared" ref="H331" si="729">IF(H330&lt;0, H330*-3, H330)</f>
         <v>2217</v>
       </c>
-      <c r="I331" s="19">
+      <c r="I331" s="16">
         <f t="shared" ref="I331" si="730">IF(I330&lt;0, I330*-3, I330)</f>
         <v>752</v>
       </c>
-      <c r="J331" s="19">
+      <c r="J331" s="16">
         <f t="shared" ref="J331" si="731">IF(J330&lt;0, J330*-3, J330)</f>
         <v>3</v>
       </c>
-      <c r="K331" s="21">
+      <c r="K331" s="24">
         <f t="shared" ref="K331" si="732">SUM(D331:J331)</f>
         <v>3673</v>
       </c>
     </row>
-    <row r="332" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="333" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="19">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A332" s="18"/>
+      <c r="B332" s="18"/>
+      <c r="C332" s="18"/>
+      <c r="D332" s="18"/>
+      <c r="E332" s="18"/>
+      <c r="F332" s="18"/>
+      <c r="G332" s="18"/>
+      <c r="H332" s="18"/>
+      <c r="I332" s="18"/>
+      <c r="J332" s="18"/>
+      <c r="K332" s="18"/>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A333" s="16">
         <v>63</v>
       </c>
-      <c r="B333" s="19"/>
-      <c r="C333" s="20">
-        <v>0</v>
-      </c>
-      <c r="D333" s="20"/>
-      <c r="E333" s="20">
+      <c r="B333" s="16"/>
+      <c r="C333" s="17">
+        <v>0</v>
+      </c>
+      <c r="D333" s="17"/>
+      <c r="E333" s="17">
         <v>0.46458333333333335</v>
       </c>
-      <c r="F333" s="20">
+      <c r="F333" s="17">
         <v>0.48819444444444443</v>
       </c>
-      <c r="G333" s="20">
+      <c r="G333" s="17">
         <v>0.50416666666666665</v>
       </c>
-      <c r="H333" s="20">
+      <c r="H333" s="17">
         <v>0.51944444444444449</v>
       </c>
-      <c r="I333" s="20">
+      <c r="I333" s="17">
         <v>0.52500000000000002</v>
       </c>
-      <c r="J333" s="20">
+      <c r="J333" s="17">
         <v>0.54791666666666672</v>
       </c>
-      <c r="K333" s="21">
+      <c r="K333" s="24">
         <f t="shared" ref="K333" si="733">INT((J333-C333)*1440)</f>
         <v>789</v>
       </c>
     </row>
-    <row r="334" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D334" s="19">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A334" s="18"/>
+      <c r="B334" s="18"/>
+      <c r="C334" s="18"/>
+      <c r="D334" s="16">
         <f t="shared" ref="D334" si="734">INT((D333-C333)*1440)</f>
         <v>0</v>
       </c>
-      <c r="E334" s="19">
+      <c r="E334" s="16">
         <f t="shared" ref="E334" si="735">INT((E333-D333)*1440)</f>
         <v>669</v>
       </c>
-      <c r="F334" s="19">
+      <c r="F334" s="16">
         <f t="shared" ref="F334" si="736">INT((F333-E333)*1440)</f>
         <v>34</v>
       </c>
-      <c r="G334" s="19">
+      <c r="G334" s="16">
         <f t="shared" ref="G334" si="737">INT((G333-F333)*1440)</f>
         <v>23</v>
       </c>
-      <c r="H334" s="19">
+      <c r="H334" s="16">
         <f t="shared" ref="H334" si="738">INT((H333-G333)*1440)</f>
         <v>22</v>
       </c>
-      <c r="I334" s="19">
+      <c r="I334" s="16">
         <f t="shared" ref="I334" si="739">INT((I333-H333)*1440)</f>
         <v>7</v>
       </c>
-      <c r="J334" s="19">
+      <c r="J334" s="16">
         <f t="shared" ref="J334" si="740">INT((J333-I333)*1440)</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="335" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D335" s="19">
+      <c r="K334" s="18"/>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A335" s="18"/>
+      <c r="B335" s="18"/>
+      <c r="C335" s="18"/>
+      <c r="D335" s="16">
         <f t="shared" ref="D335" si="741">D334-D$20</f>
         <v>-18</v>
       </c>
-      <c r="E335" s="19">
+      <c r="E335" s="16">
         <f t="shared" ref="E335" si="742">E334-E$20</f>
         <v>650</v>
       </c>
-      <c r="F335" s="19">
+      <c r="F335" s="16">
         <f t="shared" ref="F335" si="743">F334-F$20</f>
         <v>13</v>
       </c>
-      <c r="G335" s="19">
+      <c r="G335" s="16">
         <f t="shared" ref="G335" si="744">G334-G$20</f>
         <v>-2</v>
       </c>
-      <c r="H335" s="19">
+      <c r="H335" s="16">
         <f t="shared" ref="H335" si="745">H334-H$20</f>
         <v>-5</v>
       </c>
-      <c r="I335" s="19">
+      <c r="I335" s="16">
         <f t="shared" ref="I335" si="746">I334-I$20</f>
         <v>-7</v>
       </c>
-      <c r="J335" s="19">
+      <c r="J335" s="16">
         <f t="shared" ref="J335" si="747">J334-J$20</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="336" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D336" s="19">
+      <c r="K335" s="18"/>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A336" s="18"/>
+      <c r="B336" s="18"/>
+      <c r="C336" s="18"/>
+      <c r="D336" s="16">
         <f t="shared" ref="D336" si="748">IF(D335&lt;0, D335*-3, D335)</f>
         <v>54</v>
       </c>
-      <c r="E336" s="19">
+      <c r="E336" s="16">
         <f t="shared" ref="E336" si="749">IF(E335&lt;0, E335*-3, E335)</f>
         <v>650</v>
       </c>
-      <c r="F336" s="19">
+      <c r="F336" s="16">
         <f t="shared" ref="F336" si="750">IF(F335&lt;0, F335*-3, F335)</f>
         <v>13</v>
       </c>
-      <c r="G336" s="19">
+      <c r="G336" s="16">
         <f t="shared" ref="G336" si="751">IF(G335&lt;0, G335*-3, G335)</f>
         <v>6</v>
       </c>
-      <c r="H336" s="19">
+      <c r="H336" s="16">
         <f t="shared" ref="H336" si="752">IF(H335&lt;0, H335*-3, H335)</f>
         <v>15</v>
       </c>
-      <c r="I336" s="19">
+      <c r="I336" s="16">
         <f t="shared" ref="I336" si="753">IF(I335&lt;0, I335*-3, I335)</f>
         <v>21</v>
       </c>
-      <c r="J336" s="19">
+      <c r="J336" s="16">
         <f t="shared" ref="J336" si="754">IF(J335&lt;0, J335*-3, J335)</f>
         <v>3</v>
       </c>
-      <c r="K336" s="21">
+      <c r="K336" s="24">
         <f t="shared" ref="K336" si="755">SUM(D336:J336)</f>
         <v>762</v>
       </c>
     </row>
-    <row r="337" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="338" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="19">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A337" s="18"/>
+      <c r="B337" s="18"/>
+      <c r="C337" s="18"/>
+      <c r="D337" s="18"/>
+      <c r="E337" s="18"/>
+      <c r="F337" s="18"/>
+      <c r="G337" s="18"/>
+      <c r="H337" s="18"/>
+      <c r="I337" s="18"/>
+      <c r="J337" s="18"/>
+      <c r="K337" s="18"/>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A338" s="16">
         <v>64</v>
       </c>
-      <c r="B338" s="19"/>
-      <c r="C338" s="20">
-        <v>0</v>
-      </c>
-      <c r="D338" s="20">
-        <v>0</v>
-      </c>
-      <c r="E338" s="20">
+      <c r="B338" s="16"/>
+      <c r="C338" s="17">
+        <v>0</v>
+      </c>
+      <c r="D338" s="17">
+        <v>0</v>
+      </c>
+      <c r="E338" s="17">
         <v>0.45763888888888887</v>
       </c>
-      <c r="F338" s="20">
+      <c r="F338" s="17">
         <v>0.47430555555555554</v>
       </c>
-      <c r="G338" s="20">
+      <c r="G338" s="17">
         <v>0.49444444444444446</v>
       </c>
-      <c r="H338" s="20">
+      <c r="H338" s="17">
         <v>0.51944444444444449</v>
       </c>
-      <c r="I338" s="20">
+      <c r="I338" s="17">
         <v>0.53194444444444444</v>
       </c>
-      <c r="J338" s="20">
+      <c r="J338" s="17">
         <v>0.55486111111111114</v>
       </c>
-      <c r="K338" s="21">
+      <c r="K338" s="24">
         <f t="shared" ref="K338" si="756">INT((J338-C338)*1440)</f>
         <v>799</v>
       </c>
     </row>
-    <row r="339" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D339" s="19">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A339" s="18"/>
+      <c r="B339" s="18"/>
+      <c r="C339" s="18"/>
+      <c r="D339" s="16">
         <f t="shared" ref="D339" si="757">INT((D338-C338)*1440)</f>
         <v>0</v>
       </c>
-      <c r="E339" s="19">
+      <c r="E339" s="16">
         <f t="shared" ref="E339" si="758">INT((E338-D338)*1440)</f>
         <v>659</v>
       </c>
-      <c r="F339" s="19">
+      <c r="F339" s="16">
         <f t="shared" ref="F339" si="759">INT((F338-E338)*1440)</f>
         <v>24</v>
       </c>
-      <c r="G339" s="19">
+      <c r="G339" s="16">
         <f t="shared" ref="G339" si="760">INT((G338-F338)*1440)</f>
         <v>29</v>
       </c>
-      <c r="H339" s="19">
+      <c r="H339" s="16">
         <f t="shared" ref="H339" si="761">INT((H338-G338)*1440)</f>
         <v>36</v>
       </c>
-      <c r="I339" s="19">
+      <c r="I339" s="16">
         <f t="shared" ref="I339" si="762">INT((I338-H338)*1440)</f>
         <v>17</v>
       </c>
-      <c r="J339" s="19">
+      <c r="J339" s="16">
         <f t="shared" ref="J339" si="763">INT((J338-I338)*1440)</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="340" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D340" s="19">
+      <c r="K339" s="18"/>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A340" s="18"/>
+      <c r="B340" s="18"/>
+      <c r="C340" s="18"/>
+      <c r="D340" s="16">
         <f t="shared" ref="D340" si="764">D339-D$20</f>
         <v>-18</v>
       </c>
-      <c r="E340" s="19">
+      <c r="E340" s="16">
         <f t="shared" ref="E340" si="765">E339-E$20</f>
         <v>640</v>
       </c>
-      <c r="F340" s="19">
+      <c r="F340" s="16">
         <f t="shared" ref="F340" si="766">F339-F$20</f>
         <v>3</v>
       </c>
-      <c r="G340" s="19">
+      <c r="G340" s="16">
         <f t="shared" ref="G340" si="767">G339-G$20</f>
         <v>4</v>
       </c>
-      <c r="H340" s="19">
+      <c r="H340" s="16">
         <f t="shared" ref="H340" si="768">H339-H$20</f>
         <v>9</v>
       </c>
-      <c r="I340" s="19">
+      <c r="I340" s="16">
         <f t="shared" ref="I340" si="769">I339-I$20</f>
         <v>3</v>
       </c>
-      <c r="J340" s="19">
+      <c r="J340" s="16">
         <f t="shared" ref="J340" si="770">J339-J$20</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="341" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D341" s="19">
+      <c r="K340" s="18"/>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A341" s="18"/>
+      <c r="B341" s="18"/>
+      <c r="C341" s="18"/>
+      <c r="D341" s="16">
         <f t="shared" ref="D341" si="771">IF(D340&lt;0, D340*-3, D340)</f>
         <v>54</v>
       </c>
-      <c r="E341" s="19">
+      <c r="E341" s="16">
         <f t="shared" ref="E341" si="772">IF(E340&lt;0, E340*-3, E340)</f>
         <v>640</v>
       </c>
-      <c r="F341" s="19">
+      <c r="F341" s="16">
         <f t="shared" ref="F341" si="773">IF(F340&lt;0, F340*-3, F340)</f>
         <v>3</v>
       </c>
-      <c r="G341" s="19">
+      <c r="G341" s="16">
         <f t="shared" ref="G341" si="774">IF(G340&lt;0, G340*-3, G340)</f>
         <v>4</v>
       </c>
-      <c r="H341" s="19">
+      <c r="H341" s="16">
         <f t="shared" ref="H341" si="775">IF(H340&lt;0, H340*-3, H340)</f>
         <v>9</v>
       </c>
-      <c r="I341" s="19">
+      <c r="I341" s="16">
         <f t="shared" ref="I341" si="776">IF(I340&lt;0, I340*-3, I340)</f>
         <v>3</v>
       </c>
-      <c r="J341" s="19">
+      <c r="J341" s="16">
         <f t="shared" ref="J341" si="777">IF(J340&lt;0, J340*-3, J340)</f>
         <v>3</v>
       </c>
-      <c r="K341" s="21">
+      <c r="K341" s="24">
         <f t="shared" ref="K341" si="778">SUM(D341:J341)</f>
         <v>716</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>65</v>
       </c>
       <c r="B343" s="1"/>
-      <c r="C343" s="15">
+      <c r="C343" s="14">
         <v>0.37916666666666665</v>
       </c>
-      <c r="D343" s="15">
+      <c r="D343" s="14">
         <v>0.40902777777777777</v>
       </c>
-      <c r="E343" s="15">
+      <c r="E343" s="14">
         <v>0.45208333333333334</v>
       </c>
-      <c r="F343" s="15">
+      <c r="F343" s="14">
         <v>0.47986111111111113</v>
       </c>
-      <c r="G343" s="15">
+      <c r="G343" s="14">
         <v>0.50694444444444442</v>
       </c>
-      <c r="H343" s="15"/>
-      <c r="I343" s="15">
+      <c r="H343" s="14"/>
+      <c r="I343" s="14">
         <v>0.53055555555555556</v>
       </c>
-      <c r="J343" s="15">
+      <c r="J343" s="14">
         <v>0.54166666666666663</v>
       </c>
-      <c r="K343" s="6">
+      <c r="K343" s="23">
         <f t="shared" ref="K343" si="779">INT((J343-C343)*1440)</f>
         <v>234</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D344" s="1">
         <f t="shared" ref="D344" si="780">INT((D343-C343)*1440)</f>
         <v>43</v>
@@ -9314,7 +9482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D345" s="1">
         <f t="shared" ref="D345" si="787">D344-D$20</f>
         <v>25</v>
@@ -9344,7 +9512,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D346" s="1">
         <f t="shared" ref="D346" si="794">IF(D345&lt;0, D345*-3, D345)</f>
         <v>25</v>
@@ -9373,566 +9541,646 @@
         <f t="shared" ref="J346" si="800">IF(J345&lt;0, J345*-3, J345)</f>
         <v>45</v>
       </c>
-      <c r="K346" s="6">
+      <c r="K346" s="23">
         <f t="shared" ref="K346" si="801">SUM(D346:J346)</f>
         <v>3166</v>
       </c>
     </row>
-    <row r="348" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="19">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A348" s="16">
         <v>66</v>
       </c>
-      <c r="B348" s="19"/>
-      <c r="C348" s="20">
-        <v>0</v>
-      </c>
-      <c r="D348" s="20">
-        <v>0</v>
-      </c>
-      <c r="E348" s="20">
+      <c r="B348" s="16"/>
+      <c r="C348" s="17">
+        <v>0</v>
+      </c>
+      <c r="D348" s="17">
+        <v>0</v>
+      </c>
+      <c r="E348" s="17">
         <v>0.45763888888888887</v>
       </c>
-      <c r="F348" s="20">
+      <c r="F348" s="17">
         <v>0.47430555555555554</v>
       </c>
-      <c r="G348" s="20">
+      <c r="G348" s="17">
         <v>0.49444444444444446</v>
       </c>
-      <c r="H348" s="20">
+      <c r="H348" s="17">
         <v>0.51944444444444449</v>
       </c>
-      <c r="I348" s="20">
+      <c r="I348" s="17">
         <v>0.53194444444444444</v>
       </c>
-      <c r="J348" s="20">
+      <c r="J348" s="17">
         <v>0.55486111111111114</v>
       </c>
-      <c r="K348" s="21">
+      <c r="K348" s="24">
         <f t="shared" ref="K348" si="802">INT((J348-C348)*1440)</f>
         <v>799</v>
       </c>
     </row>
-    <row r="349" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D349" s="19">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A349" s="18"/>
+      <c r="B349" s="18"/>
+      <c r="C349" s="18"/>
+      <c r="D349" s="16">
         <f t="shared" ref="D349" si="803">INT((D348-C348)*1440)</f>
         <v>0</v>
       </c>
-      <c r="E349" s="19">
+      <c r="E349" s="16">
         <f t="shared" ref="E349" si="804">INT((E348-D348)*1440)</f>
         <v>659</v>
       </c>
-      <c r="F349" s="19">
+      <c r="F349" s="16">
         <f t="shared" ref="F349" si="805">INT((F348-E348)*1440)</f>
         <v>24</v>
       </c>
-      <c r="G349" s="19">
+      <c r="G349" s="16">
         <f t="shared" ref="G349" si="806">INT((G348-F348)*1440)</f>
         <v>29</v>
       </c>
-      <c r="H349" s="19">
+      <c r="H349" s="16">
         <f t="shared" ref="H349" si="807">INT((H348-G348)*1440)</f>
         <v>36</v>
       </c>
-      <c r="I349" s="19">
+      <c r="I349" s="16">
         <f t="shared" ref="I349" si="808">INT((I348-H348)*1440)</f>
         <v>17</v>
       </c>
-      <c r="J349" s="19">
+      <c r="J349" s="16">
         <f t="shared" ref="J349" si="809">INT((J348-I348)*1440)</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="350" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D350" s="19">
+      <c r="K349" s="18"/>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A350" s="18"/>
+      <c r="B350" s="18"/>
+      <c r="C350" s="18"/>
+      <c r="D350" s="16">
         <f t="shared" ref="D350" si="810">D349-D$20</f>
         <v>-18</v>
       </c>
-      <c r="E350" s="19">
+      <c r="E350" s="16">
         <f t="shared" ref="E350" si="811">E349-E$20</f>
         <v>640</v>
       </c>
-      <c r="F350" s="19">
+      <c r="F350" s="16">
         <f t="shared" ref="F350" si="812">F349-F$20</f>
         <v>3</v>
       </c>
-      <c r="G350" s="19">
+      <c r="G350" s="16">
         <f t="shared" ref="G350" si="813">G349-G$20</f>
         <v>4</v>
       </c>
-      <c r="H350" s="19">
+      <c r="H350" s="16">
         <f t="shared" ref="H350" si="814">H349-H$20</f>
         <v>9</v>
       </c>
-      <c r="I350" s="19">
+      <c r="I350" s="16">
         <f t="shared" ref="I350" si="815">I349-I$20</f>
         <v>3</v>
       </c>
-      <c r="J350" s="19">
+      <c r="J350" s="16">
         <f t="shared" ref="J350" si="816">J349-J$20</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="351" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D351" s="19">
+      <c r="K350" s="18"/>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A351" s="18"/>
+      <c r="B351" s="18"/>
+      <c r="C351" s="18"/>
+      <c r="D351" s="16">
         <f t="shared" ref="D351" si="817">IF(D350&lt;0, D350*-3, D350)</f>
         <v>54</v>
       </c>
-      <c r="E351" s="19">
+      <c r="E351" s="16">
         <f t="shared" ref="E351" si="818">IF(E350&lt;0, E350*-3, E350)</f>
         <v>640</v>
       </c>
-      <c r="F351" s="19">
+      <c r="F351" s="16">
         <f t="shared" ref="F351" si="819">IF(F350&lt;0, F350*-3, F350)</f>
         <v>3</v>
       </c>
-      <c r="G351" s="19">
+      <c r="G351" s="16">
         <f t="shared" ref="G351" si="820">IF(G350&lt;0, G350*-3, G350)</f>
         <v>4</v>
       </c>
-      <c r="H351" s="19">
+      <c r="H351" s="16">
         <f t="shared" ref="H351" si="821">IF(H350&lt;0, H350*-3, H350)</f>
         <v>9</v>
       </c>
-      <c r="I351" s="19">
+      <c r="I351" s="16">
         <f t="shared" ref="I351" si="822">IF(I350&lt;0, I350*-3, I350)</f>
         <v>3</v>
       </c>
-      <c r="J351" s="19">
+      <c r="J351" s="16">
         <f t="shared" ref="J351" si="823">IF(J350&lt;0, J350*-3, J350)</f>
         <v>3</v>
       </c>
-      <c r="K351" s="21">
+      <c r="K351" s="24">
         <f t="shared" ref="K351" si="824">SUM(D351:J351)</f>
         <v>716</v>
       </c>
     </row>
-    <row r="352" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="353" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="19">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A352" s="18"/>
+      <c r="B352" s="18"/>
+      <c r="C352" s="18"/>
+      <c r="D352" s="18"/>
+      <c r="E352" s="18"/>
+      <c r="F352" s="18"/>
+      <c r="G352" s="18"/>
+      <c r="H352" s="18"/>
+      <c r="I352" s="18"/>
+      <c r="J352" s="18"/>
+      <c r="K352" s="18"/>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A353" s="16">
         <v>67</v>
       </c>
-      <c r="B353" s="19"/>
-      <c r="C353" s="20">
-        <v>0</v>
-      </c>
-      <c r="D353" s="20">
-        <v>0</v>
-      </c>
-      <c r="E353" s="20">
+      <c r="B353" s="16"/>
+      <c r="C353" s="17">
+        <v>0</v>
+      </c>
+      <c r="D353" s="17">
+        <v>0</v>
+      </c>
+      <c r="E353" s="17">
         <v>0.46458333333333335</v>
       </c>
-      <c r="F353" s="20">
+      <c r="F353" s="17">
         <v>0.48819444444444443</v>
       </c>
-      <c r="G353" s="20">
+      <c r="G353" s="17">
         <v>0.50416666666666665</v>
       </c>
-      <c r="H353" s="20">
+      <c r="H353" s="17">
         <v>0.51944444444444449</v>
       </c>
-      <c r="I353" s="20">
+      <c r="I353" s="17">
         <v>0.52500000000000002</v>
       </c>
-      <c r="J353" s="20">
+      <c r="J353" s="17">
         <v>0.54791666666666672</v>
       </c>
-      <c r="K353" s="21">
+      <c r="K353" s="24">
         <f t="shared" ref="K353" si="825">INT((J353-C353)*1440)</f>
         <v>789</v>
       </c>
     </row>
-    <row r="354" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D354" s="19">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A354" s="18"/>
+      <c r="B354" s="18"/>
+      <c r="C354" s="18"/>
+      <c r="D354" s="16">
         <f t="shared" ref="D354" si="826">INT((D353-C353)*1440)</f>
         <v>0</v>
       </c>
-      <c r="E354" s="19">
+      <c r="E354" s="16">
         <f t="shared" ref="E354" si="827">INT((E353-D353)*1440)</f>
         <v>669</v>
       </c>
-      <c r="F354" s="19">
+      <c r="F354" s="16">
         <f t="shared" ref="F354" si="828">INT((F353-E353)*1440)</f>
         <v>34</v>
       </c>
-      <c r="G354" s="19">
+      <c r="G354" s="16">
         <f t="shared" ref="G354" si="829">INT((G353-F353)*1440)</f>
         <v>23</v>
       </c>
-      <c r="H354" s="19">
+      <c r="H354" s="16">
         <f t="shared" ref="H354" si="830">INT((H353-G353)*1440)</f>
         <v>22</v>
       </c>
-      <c r="I354" s="19">
+      <c r="I354" s="16">
         <f t="shared" ref="I354" si="831">INT((I353-H353)*1440)</f>
         <v>7</v>
       </c>
-      <c r="J354" s="19">
+      <c r="J354" s="16">
         <f t="shared" ref="J354" si="832">INT((J353-I353)*1440)</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="355" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D355" s="19">
+      <c r="K354" s="18"/>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A355" s="18"/>
+      <c r="B355" s="18"/>
+      <c r="C355" s="18"/>
+      <c r="D355" s="16">
         <f t="shared" ref="D355" si="833">D354-D$20</f>
         <v>-18</v>
       </c>
-      <c r="E355" s="19">
+      <c r="E355" s="16">
         <f t="shared" ref="E355" si="834">E354-E$20</f>
         <v>650</v>
       </c>
-      <c r="F355" s="19">
+      <c r="F355" s="16">
         <f t="shared" ref="F355" si="835">F354-F$20</f>
         <v>13</v>
       </c>
-      <c r="G355" s="19">
+      <c r="G355" s="16">
         <f t="shared" ref="G355" si="836">G354-G$20</f>
         <v>-2</v>
       </c>
-      <c r="H355" s="19">
+      <c r="H355" s="16">
         <f t="shared" ref="H355" si="837">H354-H$20</f>
         <v>-5</v>
       </c>
-      <c r="I355" s="19">
+      <c r="I355" s="16">
         <f t="shared" ref="I355" si="838">I354-I$20</f>
         <v>-7</v>
       </c>
-      <c r="J355" s="19">
+      <c r="J355" s="16">
         <f t="shared" ref="J355" si="839">J354-J$20</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="356" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D356" s="19">
+      <c r="K355" s="18"/>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A356" s="18"/>
+      <c r="B356" s="18"/>
+      <c r="C356" s="18"/>
+      <c r="D356" s="16">
         <f t="shared" ref="D356" si="840">IF(D355&lt;0, D355*-3, D355)</f>
         <v>54</v>
       </c>
-      <c r="E356" s="19">
+      <c r="E356" s="16">
         <f t="shared" ref="E356" si="841">IF(E355&lt;0, E355*-3, E355)</f>
         <v>650</v>
       </c>
-      <c r="F356" s="19">
+      <c r="F356" s="16">
         <f t="shared" ref="F356" si="842">IF(F355&lt;0, F355*-3, F355)</f>
         <v>13</v>
       </c>
-      <c r="G356" s="19">
+      <c r="G356" s="16">
         <f t="shared" ref="G356" si="843">IF(G355&lt;0, G355*-3, G355)</f>
         <v>6</v>
       </c>
-      <c r="H356" s="19">
+      <c r="H356" s="16">
         <f t="shared" ref="H356" si="844">IF(H355&lt;0, H355*-3, H355)</f>
         <v>15</v>
       </c>
-      <c r="I356" s="19">
+      <c r="I356" s="16">
         <f t="shared" ref="I356" si="845">IF(I355&lt;0, I355*-3, I355)</f>
         <v>21</v>
       </c>
-      <c r="J356" s="19">
+      <c r="J356" s="16">
         <f t="shared" ref="J356" si="846">IF(J355&lt;0, J355*-3, J355)</f>
         <v>3</v>
       </c>
-      <c r="K356" s="21">
+      <c r="K356" s="24">
         <f t="shared" ref="K356" si="847">SUM(D356:J356)</f>
         <v>762</v>
       </c>
     </row>
-    <row r="357" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="358" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="19">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A357" s="18"/>
+      <c r="B357" s="18"/>
+      <c r="C357" s="18"/>
+      <c r="D357" s="18"/>
+      <c r="E357" s="18"/>
+      <c r="F357" s="18"/>
+      <c r="G357" s="18"/>
+      <c r="H357" s="18"/>
+      <c r="I357" s="18"/>
+      <c r="J357" s="18"/>
+      <c r="K357" s="18"/>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358" s="16">
         <v>68</v>
       </c>
-      <c r="B358" s="19"/>
-      <c r="C358" s="20">
-        <v>0</v>
-      </c>
-      <c r="D358" s="20">
-        <v>0</v>
-      </c>
-      <c r="E358" s="20">
+      <c r="B358" s="16"/>
+      <c r="C358" s="17">
+        <v>0</v>
+      </c>
+      <c r="D358" s="17">
+        <v>0</v>
+      </c>
+      <c r="E358" s="17">
         <v>0.45763888888888887</v>
       </c>
-      <c r="F358" s="20">
+      <c r="F358" s="17">
         <v>0.47430555555555554</v>
       </c>
-      <c r="G358" s="20">
+      <c r="G358" s="17">
         <v>0.49444444444444446</v>
       </c>
-      <c r="H358" s="20">
+      <c r="H358" s="17">
         <v>0.51944444444444449</v>
       </c>
-      <c r="I358" s="20">
+      <c r="I358" s="17">
         <v>0.53194444444444444</v>
       </c>
-      <c r="J358" s="20">
+      <c r="J358" s="17">
         <v>0.55486111111111114</v>
       </c>
-      <c r="K358" s="21">
+      <c r="K358" s="24">
         <f t="shared" ref="K358" si="848">INT((J358-C358)*1440)</f>
         <v>799</v>
       </c>
     </row>
-    <row r="359" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D359" s="19">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A359" s="18"/>
+      <c r="B359" s="18"/>
+      <c r="C359" s="18"/>
+      <c r="D359" s="16">
         <f t="shared" ref="D359" si="849">INT((D358-C358)*1440)</f>
         <v>0</v>
       </c>
-      <c r="E359" s="19">
+      <c r="E359" s="16">
         <f t="shared" ref="E359" si="850">INT((E358-D358)*1440)</f>
         <v>659</v>
       </c>
-      <c r="F359" s="19">
+      <c r="F359" s="16">
         <f t="shared" ref="F359" si="851">INT((F358-E358)*1440)</f>
         <v>24</v>
       </c>
-      <c r="G359" s="19">
+      <c r="G359" s="16">
         <f t="shared" ref="G359" si="852">INT((G358-F358)*1440)</f>
         <v>29</v>
       </c>
-      <c r="H359" s="19">
+      <c r="H359" s="16">
         <f t="shared" ref="H359" si="853">INT((H358-G358)*1440)</f>
         <v>36</v>
       </c>
-      <c r="I359" s="19">
+      <c r="I359" s="16">
         <f t="shared" ref="I359" si="854">INT((I358-H358)*1440)</f>
         <v>17</v>
       </c>
-      <c r="J359" s="19">
+      <c r="J359" s="16">
         <f t="shared" ref="J359" si="855">INT((J358-I358)*1440)</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="360" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D360" s="19">
+      <c r="K359" s="18"/>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A360" s="18"/>
+      <c r="B360" s="18"/>
+      <c r="C360" s="18"/>
+      <c r="D360" s="16">
         <f t="shared" ref="D360" si="856">D359-D$20</f>
         <v>-18</v>
       </c>
-      <c r="E360" s="19">
+      <c r="E360" s="16">
         <f t="shared" ref="E360" si="857">E359-E$20</f>
         <v>640</v>
       </c>
-      <c r="F360" s="19">
+      <c r="F360" s="16">
         <f t="shared" ref="F360" si="858">F359-F$20</f>
         <v>3</v>
       </c>
-      <c r="G360" s="19">
+      <c r="G360" s="16">
         <f t="shared" ref="G360" si="859">G359-G$20</f>
         <v>4</v>
       </c>
-      <c r="H360" s="19">
+      <c r="H360" s="16">
         <f t="shared" ref="H360" si="860">H359-H$20</f>
         <v>9</v>
       </c>
-      <c r="I360" s="19">
+      <c r="I360" s="16">
         <f t="shared" ref="I360" si="861">I359-I$20</f>
         <v>3</v>
       </c>
-      <c r="J360" s="19">
+      <c r="J360" s="16">
         <f t="shared" ref="J360" si="862">J359-J$20</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="361" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D361" s="19">
+      <c r="K360" s="18"/>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A361" s="18"/>
+      <c r="B361" s="18"/>
+      <c r="C361" s="18"/>
+      <c r="D361" s="16">
         <f t="shared" ref="D361" si="863">IF(D360&lt;0, D360*-3, D360)</f>
         <v>54</v>
       </c>
-      <c r="E361" s="19">
+      <c r="E361" s="16">
         <f t="shared" ref="E361" si="864">IF(E360&lt;0, E360*-3, E360)</f>
         <v>640</v>
       </c>
-      <c r="F361" s="19">
+      <c r="F361" s="16">
         <f t="shared" ref="F361" si="865">IF(F360&lt;0, F360*-3, F360)</f>
         <v>3</v>
       </c>
-      <c r="G361" s="19">
+      <c r="G361" s="16">
         <f t="shared" ref="G361" si="866">IF(G360&lt;0, G360*-3, G360)</f>
         <v>4</v>
       </c>
-      <c r="H361" s="19">
+      <c r="H361" s="16">
         <f t="shared" ref="H361" si="867">IF(H360&lt;0, H360*-3, H360)</f>
         <v>9</v>
       </c>
-      <c r="I361" s="19">
+      <c r="I361" s="16">
         <f t="shared" ref="I361" si="868">IF(I360&lt;0, I360*-3, I360)</f>
         <v>3</v>
       </c>
-      <c r="J361" s="19">
+      <c r="J361" s="16">
         <f t="shared" ref="J361" si="869">IF(J360&lt;0, J360*-3, J360)</f>
         <v>3</v>
       </c>
-      <c r="K361" s="21">
+      <c r="K361" s="24">
         <f t="shared" ref="K361" si="870">SUM(D361:J361)</f>
         <v>716</v>
       </c>
     </row>
-    <row r="362" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="363" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="19">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A362" s="18"/>
+      <c r="B362" s="18"/>
+      <c r="C362" s="18"/>
+      <c r="D362" s="18"/>
+      <c r="E362" s="18"/>
+      <c r="F362" s="18"/>
+      <c r="G362" s="18"/>
+      <c r="H362" s="18"/>
+      <c r="I362" s="18"/>
+      <c r="J362" s="18"/>
+      <c r="K362" s="18"/>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A363" s="16">
         <v>69</v>
       </c>
-      <c r="B363" s="19"/>
-      <c r="C363" s="20">
-        <v>0</v>
-      </c>
-      <c r="D363" s="20">
-        <v>0</v>
-      </c>
-      <c r="E363" s="20">
+      <c r="B363" s="16"/>
+      <c r="C363" s="17">
+        <v>0</v>
+      </c>
+      <c r="D363" s="17">
+        <v>0</v>
+      </c>
+      <c r="E363" s="17">
         <v>0.46458333333333335</v>
       </c>
-      <c r="F363" s="20">
+      <c r="F363" s="17">
         <v>0.48819444444444443</v>
       </c>
-      <c r="G363" s="20">
+      <c r="G363" s="17">
         <v>0.50416666666666665</v>
       </c>
-      <c r="H363" s="20">
+      <c r="H363" s="17">
         <v>0.51944444444444449</v>
       </c>
-      <c r="I363" s="20">
+      <c r="I363" s="17">
         <v>0.52500000000000002</v>
       </c>
-      <c r="J363" s="20">
+      <c r="J363" s="17">
         <v>0.54791666666666672</v>
       </c>
-      <c r="K363" s="21">
+      <c r="K363" s="24">
         <f t="shared" ref="K363" si="871">INT((J363-C363)*1440)</f>
         <v>789</v>
       </c>
     </row>
-    <row r="364" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D364" s="19">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" s="18"/>
+      <c r="B364" s="18"/>
+      <c r="C364" s="18"/>
+      <c r="D364" s="16">
         <f t="shared" ref="D364" si="872">INT((D363-C363)*1440)</f>
         <v>0</v>
       </c>
-      <c r="E364" s="19">
+      <c r="E364" s="16">
         <f t="shared" ref="E364" si="873">INT((E363-D363)*1440)</f>
         <v>669</v>
       </c>
-      <c r="F364" s="19">
+      <c r="F364" s="16">
         <f t="shared" ref="F364" si="874">INT((F363-E363)*1440)</f>
         <v>34</v>
       </c>
-      <c r="G364" s="19">
+      <c r="G364" s="16">
         <f t="shared" ref="G364" si="875">INT((G363-F363)*1440)</f>
         <v>23</v>
       </c>
-      <c r="H364" s="19">
+      <c r="H364" s="16">
         <f t="shared" ref="H364" si="876">INT((H363-G363)*1440)</f>
         <v>22</v>
       </c>
-      <c r="I364" s="19">
+      <c r="I364" s="16">
         <f t="shared" ref="I364" si="877">INT((I363-H363)*1440)</f>
         <v>7</v>
       </c>
-      <c r="J364" s="19">
+      <c r="J364" s="16">
         <f t="shared" ref="J364" si="878">INT((J363-I363)*1440)</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="365" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D365" s="19">
+      <c r="K364" s="18"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A365" s="18"/>
+      <c r="B365" s="18"/>
+      <c r="C365" s="18"/>
+      <c r="D365" s="16">
         <f t="shared" ref="D365" si="879">D364-D$20</f>
         <v>-18</v>
       </c>
-      <c r="E365" s="19">
+      <c r="E365" s="16">
         <f t="shared" ref="E365" si="880">E364-E$20</f>
         <v>650</v>
       </c>
-      <c r="F365" s="19">
+      <c r="F365" s="16">
         <f t="shared" ref="F365" si="881">F364-F$20</f>
         <v>13</v>
       </c>
-      <c r="G365" s="19">
+      <c r="G365" s="16">
         <f t="shared" ref="G365" si="882">G364-G$20</f>
         <v>-2</v>
       </c>
-      <c r="H365" s="19">
+      <c r="H365" s="16">
         <f t="shared" ref="H365" si="883">H364-H$20</f>
         <v>-5</v>
       </c>
-      <c r="I365" s="19">
+      <c r="I365" s="16">
         <f t="shared" ref="I365" si="884">I364-I$20</f>
         <v>-7</v>
       </c>
-      <c r="J365" s="19">
+      <c r="J365" s="16">
         <f t="shared" ref="J365" si="885">J364-J$20</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="366" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D366" s="19">
+      <c r="K365" s="18"/>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A366" s="18"/>
+      <c r="B366" s="18"/>
+      <c r="C366" s="18"/>
+      <c r="D366" s="16">
         <f t="shared" ref="D366" si="886">IF(D365&lt;0, D365*-3, D365)</f>
         <v>54</v>
       </c>
-      <c r="E366" s="19">
+      <c r="E366" s="16">
         <f t="shared" ref="E366" si="887">IF(E365&lt;0, E365*-3, E365)</f>
         <v>650</v>
       </c>
-      <c r="F366" s="19">
+      <c r="F366" s="16">
         <f t="shared" ref="F366" si="888">IF(F365&lt;0, F365*-3, F365)</f>
         <v>13</v>
       </c>
-      <c r="G366" s="19">
+      <c r="G366" s="16">
         <f t="shared" ref="G366" si="889">IF(G365&lt;0, G365*-3, G365)</f>
         <v>6</v>
       </c>
-      <c r="H366" s="19">
+      <c r="H366" s="16">
         <f t="shared" ref="H366" si="890">IF(H365&lt;0, H365*-3, H365)</f>
         <v>15</v>
       </c>
-      <c r="I366" s="19">
+      <c r="I366" s="16">
         <f t="shared" ref="I366" si="891">IF(I365&lt;0, I365*-3, I365)</f>
         <v>21</v>
       </c>
-      <c r="J366" s="19">
+      <c r="J366" s="16">
         <f t="shared" ref="J366" si="892">IF(J365&lt;0, J365*-3, J365)</f>
         <v>3</v>
       </c>
-      <c r="K366" s="21">
+      <c r="K366" s="24">
         <f t="shared" ref="K366" si="893">SUM(D366:J366)</f>
         <v>762</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G367" s="23" t="s">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G367" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>70</v>
       </c>
       <c r="B368" s="1"/>
-      <c r="C368" s="15">
+      <c r="C368" s="14">
         <v>0.37847222222222227</v>
       </c>
-      <c r="D368" s="15">
+      <c r="D368" s="14">
         <v>0.42569444444444443</v>
       </c>
-      <c r="E368" s="15">
+      <c r="E368" s="14">
         <v>0.45069444444444445</v>
       </c>
-      <c r="F368" s="15">
+      <c r="F368" s="14">
         <v>0.47847222222222219</v>
       </c>
-      <c r="G368" s="16">
+      <c r="G368" s="15">
         <v>0.5083333333333333</v>
       </c>
-      <c r="H368" s="15">
+      <c r="H368" s="14">
         <v>0.52361111111111114</v>
       </c>
-      <c r="I368" s="15">
+      <c r="I368" s="14">
         <v>0.52986111111111112</v>
       </c>
-      <c r="J368" s="15">
+      <c r="J368" s="14">
         <v>0.54166666666666663</v>
       </c>
-      <c r="K368" s="6">
+      <c r="K368" s="23">
         <f t="shared" ref="K368" si="894">INT((J368-C368)*1440)</f>
         <v>235</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D369" s="1">
         <f t="shared" ref="D369" si="895">INT((D368-C368)*1440)</f>
         <v>67</v>
@@ -9962,7 +10210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D370" s="1">
         <f t="shared" ref="D370" si="902">D369-D$20</f>
         <v>49</v>
@@ -9992,7 +10240,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D371" s="1">
         <f t="shared" ref="D371" si="909">IF(D370&lt;0, D370*-3, D370)</f>
         <v>49</v>
@@ -10021,46 +10269,46 @@
         <f t="shared" ref="J371" si="915">IF(J370&lt;0, J370*-3, J370)</f>
         <v>42</v>
       </c>
-      <c r="K371" s="6">
+      <c r="K371" s="23">
         <f t="shared" ref="K371" si="916">SUM(D371:J371)</f>
         <v>177</v>
       </c>
     </row>
-    <row r="373" spans="1:11" s="18" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
         <v>71</v>
       </c>
       <c r="B373" s="3"/>
-      <c r="C373" s="16">
+      <c r="C373" s="15">
         <v>0.37708333333333338</v>
       </c>
-      <c r="D373" s="16">
+      <c r="D373" s="15">
         <v>0.41736111111111113</v>
       </c>
-      <c r="E373" s="16">
+      <c r="E373" s="15">
         <v>0.44097222222222227</v>
       </c>
-      <c r="F373" s="16">
+      <c r="F373" s="15">
         <v>0.4604166666666667</v>
       </c>
-      <c r="G373" s="16">
+      <c r="G373" s="15">
         <v>0.48055555555555557</v>
       </c>
-      <c r="H373" s="16">
+      <c r="H373" s="15">
         <v>0.49513888888888885</v>
       </c>
-      <c r="I373" s="16">
+      <c r="I373" s="15">
         <v>0.50694444444444442</v>
       </c>
-      <c r="J373" s="16">
+      <c r="J373" s="15">
         <v>0.52361111111111114</v>
       </c>
-      <c r="K373" s="17">
+      <c r="K373" s="25">
         <f t="shared" ref="K373" si="917">INT((J373-C373)*1440)</f>
         <v>211</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D374" s="1">
         <f t="shared" ref="D374" si="918">INT((D373-C373)*1440)</f>
         <v>58</v>
@@ -10090,7 +10338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D375" s="1">
         <f t="shared" ref="D375" si="925">D374-D$20</f>
         <v>40</v>
@@ -10120,7 +10368,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D376" s="1">
         <f t="shared" ref="D376" si="932">IF(D375&lt;0, D375*-3, D375)</f>
         <v>40</v>
@@ -10149,46 +10397,46 @@
         <f t="shared" ref="J376" si="938">IF(J375&lt;0, J375*-3, J375)</f>
         <v>18</v>
       </c>
-      <c r="K376" s="6">
+      <c r="K376" s="23">
         <f t="shared" ref="K376" si="939">SUM(D376:J376)</f>
         <v>108</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>72</v>
       </c>
       <c r="B378" s="1"/>
-      <c r="C378" s="15">
+      <c r="C378" s="14">
         <v>0.37777777777777777</v>
       </c>
-      <c r="D378" s="15">
+      <c r="D378" s="14">
         <v>0.41805555555555557</v>
       </c>
-      <c r="E378" s="15">
+      <c r="E378" s="14">
         <v>0.45763888888888887</v>
       </c>
-      <c r="F378" s="15">
+      <c r="F378" s="14">
         <v>0.47916666666666669</v>
       </c>
-      <c r="G378" s="15">
+      <c r="G378" s="14">
         <v>0.49583333333333335</v>
       </c>
-      <c r="H378" s="15">
+      <c r="H378" s="14">
         <v>0.50555555555555554</v>
       </c>
-      <c r="I378" s="15">
+      <c r="I378" s="14">
         <v>0.51180555555555551</v>
       </c>
-      <c r="J378" s="15">
+      <c r="J378" s="14">
         <v>0.55486111111111114</v>
       </c>
-      <c r="K378" s="6">
+      <c r="K378" s="23">
         <f t="shared" ref="K378" si="940">INT((J378-C378)*1440)</f>
         <v>255</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D379" s="1">
         <f t="shared" ref="D379" si="941">INT((D378-C378)*1440)</f>
         <v>58</v>
@@ -10218,7 +10466,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D380" s="1">
         <f t="shared" ref="D380" si="948">D379-D$20</f>
         <v>40</v>
@@ -10248,7 +10496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D381" s="1">
         <f t="shared" ref="D381" si="955">IF(D380&lt;0, D380*-3, D380)</f>
         <v>40</v>
@@ -10277,16 +10525,1932 @@
         <f t="shared" ref="J381" si="961">IF(J380&lt;0, J380*-3, J380)</f>
         <v>32</v>
       </c>
-      <c r="K381" s="6">
+      <c r="K381" s="23">
         <f t="shared" ref="K381" si="962">SUM(D381:J381)</f>
         <v>180</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A20:K382" xr:uid="{F5A2BD83-87CC-4D86-B37D-1F1B84049F58}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEBFBA6-03F8-4558-9AFD-35C4CA5D21E7}">
+  <dimension ref="A1:I73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27">
+        <v>0.33402777777777781</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="27">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="E2" s="27">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="F2" s="27">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="G2" s="27">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="H2" s="27">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="I2" s="27">
+        <v>0.47638888888888892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27">
+        <v>0.3347222222222222</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="27">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="E3" s="27">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="G3" s="27">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="H3" s="27">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="I3" s="27">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27">
+        <v>0.36319444444444443</v>
+      </c>
+      <c r="C4" s="27">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="D4" s="27">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="F4" s="27">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27">
+        <v>0</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="D6" s="27">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0.50277777777777777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0</v>
+      </c>
+      <c r="D7" s="27">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="H7" s="27">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27">
+        <v>0</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>8</v>
+      </c>
+      <c r="B9" s="29">
+        <v>0.33888888888888885</v>
+      </c>
+      <c r="C9" s="29">
+        <v>0</v>
+      </c>
+      <c r="D9" s="29">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29">
+        <v>0.4909722222222222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
+        <v>9</v>
+      </c>
+      <c r="B10" s="29">
+        <v>0.33958333333333335</v>
+      </c>
+      <c r="C10" s="29">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="D10" s="29">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29">
+        <v>0.49027777777777781</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>10</v>
+      </c>
+      <c r="B11" s="29">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="C11" s="29">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="D11" s="29">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F11" s="29">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>11</v>
+      </c>
+      <c r="B12" s="29">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.37291666666666662</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="F12" s="29">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="G12" s="29">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="H12" s="29">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="I12" s="29">
+        <v>0.4777777777777778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="28">
+        <v>12</v>
+      </c>
+      <c r="B13" s="29">
+        <v>0.34166666666666662</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29">
+        <v>0.50416666666666665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
+        <v>13</v>
+      </c>
+      <c r="B14" s="29">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="D14" s="29">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="F14" s="29">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="G14" s="29">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="H14" s="29">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="I14" s="29">
+        <v>0.50486111111111109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <v>14</v>
+      </c>
+      <c r="B15" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="C15" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D15" s="29">
+        <v>0.40625</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="G15" s="29">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="H15" s="29">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="I15" s="29">
+        <v>0.48888888888888887</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29">
+        <v>0.34375</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="I16" s="29">
+        <v>0.52361111111111114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
+        <v>16</v>
+      </c>
+      <c r="B17" s="29">
+        <v>0.3444444444444445</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="E17" s="29">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="F17" s="29">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="G17" s="29">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="H17" s="29">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="I17" s="29">
+        <v>0.51111111111111118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
+        <v>17</v>
+      </c>
+      <c r="B18" s="29">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C18" s="29">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D18" s="29">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="E18" s="29">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="F18" s="29">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="G18" s="29">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="H18" s="29">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="I18" s="29">
+        <v>0.52777777777777779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
+        <v>18</v>
+      </c>
+      <c r="B19" s="29">
+        <v>0.34583333333333338</v>
+      </c>
+      <c r="C19" s="29">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="D19" s="29">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E19" s="29">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="F19" s="29">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="G19" s="29">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="H19" s="29">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="I19" s="29">
+        <v>0.5131944444444444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="28">
+        <v>19</v>
+      </c>
+      <c r="B20" s="29">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="E20" s="29">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="F20" s="29">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29">
+        <v>0.4909722222222222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="28">
+        <v>20</v>
+      </c>
+      <c r="B21" s="29">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="E21" s="29">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="F21" s="29">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="I21" s="29">
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="28">
+        <v>21</v>
+      </c>
+      <c r="B22" s="29">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="E22" s="29">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="F22" s="29">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="G22" s="29">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H22" s="29">
+        <v>0.53541666666666665</v>
+      </c>
+      <c r="I22" s="29">
+        <v>0.55694444444444446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="28">
+        <v>22</v>
+      </c>
+      <c r="B23" s="29">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="C23" s="29">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="D23" s="29">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="G23" s="29">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="H23" s="29">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="28">
+        <v>23</v>
+      </c>
+      <c r="B24" s="29">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="C24" s="29">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D24" s="29">
+        <v>0.45</v>
+      </c>
+      <c r="E24" s="29">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="I24" s="29">
+        <v>0.48333333333333334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="28">
+        <v>24</v>
+      </c>
+      <c r="B25" s="29">
+        <v>0</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="28">
+        <v>25</v>
+      </c>
+      <c r="B26" s="29">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="E26" s="29">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="F26" s="29">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="G26" s="29">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="H26" s="29">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="I26" s="29">
+        <v>0.50416666666666665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="28">
+        <v>26</v>
+      </c>
+      <c r="B27" s="29">
+        <v>0.35138888888888892</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="E27" s="29">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="F27" s="29">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="I27" s="29">
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="29">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="C28" s="29">
+        <v>0.37291666666666662</v>
+      </c>
+      <c r="D28" s="29">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="E28" s="29">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="F28" s="29">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="G28" s="29">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="H28" s="29">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="I28" s="29">
+        <v>0.47986111111111113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="28">
+        <v>28</v>
+      </c>
+      <c r="B29" s="29">
+        <v>0.3527777777777778</v>
+      </c>
+      <c r="C29" s="29">
+        <v>0.36736111111111108</v>
+      </c>
+      <c r="D29" s="29">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="E29" s="29">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F29" s="29">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="G29" s="29">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="H29" s="29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="29">
+        <v>0.49583333333333335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="28">
+        <v>29</v>
+      </c>
+      <c r="B30" s="29">
+        <v>0</v>
+      </c>
+      <c r="C30" s="29">
+        <v>0</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="28">
+        <v>30</v>
+      </c>
+      <c r="B31" s="29">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C31" s="29">
+        <v>0.36736111111111108</v>
+      </c>
+      <c r="D31" s="29">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="E31" s="29">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="F31" s="29">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="G31" s="29">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="H31" s="29">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="I31" s="29">
+        <v>0.47013888888888888</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="28">
+        <v>31</v>
+      </c>
+      <c r="B32" s="29">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="C32" s="29">
+        <v>0.37291666666666662</v>
+      </c>
+      <c r="D32" s="29">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="E32" s="29">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="F32" s="29">
+        <v>0.45</v>
+      </c>
+      <c r="G32" s="29">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="H32" s="29">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="I32" s="29">
+        <v>0.50486111111111109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="28">
+        <v>32</v>
+      </c>
+      <c r="B33" s="29">
+        <v>0</v>
+      </c>
+      <c r="C33" s="29">
+        <v>0</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="G33" s="29">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="H33" s="29">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="I33" s="29">
+        <v>0.55486111111111114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="28">
+        <v>33</v>
+      </c>
+      <c r="B34" s="29">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29">
+        <v>0.40625</v>
+      </c>
+      <c r="E34" s="29">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="F34" s="29">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="28">
+        <v>34</v>
+      </c>
+      <c r="B35" s="29">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="C35" s="29">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="D35" s="29">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="E35" s="29">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="F35" s="29">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="I35" s="29">
+        <v>0.48680555555555555</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="28">
+        <v>35</v>
+      </c>
+      <c r="B36" s="29">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C36" s="29">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="D36" s="29">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="E36" s="29">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="F36" s="29">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="28">
+        <v>36</v>
+      </c>
+      <c r="B37" s="29">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="C37" s="29">
+        <v>0.37291666666666662</v>
+      </c>
+      <c r="D37" s="29">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="E37" s="29">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="F37" s="29">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="G37" s="29">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="H37" s="29">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="I37" s="29">
+        <v>0.51250000000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="28">
+        <v>37</v>
+      </c>
+      <c r="B38" s="29">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="C38" s="29">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="D38" s="29">
+        <v>0.39027777777777778</v>
+      </c>
+      <c r="E38" s="29">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="F38" s="29">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="G38" s="29">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="H38" s="29">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="I38" s="29">
+        <v>0.49513888888888885</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="28">
+        <v>38</v>
+      </c>
+      <c r="B39" s="29">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="E39" s="29">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="F39" s="29">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="I39" s="29">
+        <v>0.49513888888888885</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="28">
+        <v>39</v>
+      </c>
+      <c r="B40" s="29">
+        <v>0</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="G40" s="29">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="H40" s="29">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I40" s="29">
+        <v>0.54791666666666672</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="28">
+        <v>40</v>
+      </c>
+      <c r="B41" s="29">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C41" s="29">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="D41" s="29">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="E41" s="29">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="F41" s="29">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="I41" s="29">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="28">
+        <v>41</v>
+      </c>
+      <c r="B42" s="29">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="C42" s="29">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="D42" s="29">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="E42" s="29">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="F42" s="29">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="G42" s="29">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="H42" s="29">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="I42" s="29">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="28">
+        <v>42</v>
+      </c>
+      <c r="B43" s="29">
+        <v>0</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="G43" s="29">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="H43" s="29">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="I43" s="29">
+        <v>0.55486111111111114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="28">
+        <v>43</v>
+      </c>
+      <c r="B44" s="29">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="C44" s="29">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="D44" s="29">
+        <v>0.41111111111111115</v>
+      </c>
+      <c r="E44" s="29">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="F44" s="29">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="I44" s="29">
+        <v>0.50902777777777775</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="28">
+        <v>44</v>
+      </c>
+      <c r="B45" s="29">
+        <v>0</v>
+      </c>
+      <c r="C45" s="29">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="G45" s="29">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="H45" s="29">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="I45" s="29">
+        <v>0.55486111111111114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="28">
+        <v>45</v>
+      </c>
+      <c r="B46" s="29">
+        <v>0.36527777777777781</v>
+      </c>
+      <c r="C46" s="29">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="D46" s="29">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="E46" s="29">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="F46" s="29">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="G46" s="29">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="H46" s="29">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="I46" s="29">
+        <v>0.47986111111111113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="28">
+        <v>46</v>
+      </c>
+      <c r="B47" s="29">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="C47" s="29">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D47" s="29">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="E47" s="29">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="F47" s="29">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="G47" s="29">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="H47" s="29">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="I47" s="29">
+        <v>0.4826388888888889</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="28">
+        <v>47</v>
+      </c>
+      <c r="B48" s="29">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="C48" s="29">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="D48" s="29">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="E48" s="29">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F48" s="29">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="G48" s="29">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="H48" s="29">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="I48" s="29">
+        <v>0.52361111111111114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="28">
+        <v>48</v>
+      </c>
+      <c r="B49" s="29">
+        <v>0.36736111111111108</v>
+      </c>
+      <c r="C49" s="29">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="D49" s="29">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="E49" s="29">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="F49" s="29">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="G49" s="29">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="H49" s="29">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="I49" s="29">
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>49</v>
+      </c>
+      <c r="B50" s="29">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="E50" s="29">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="F50" s="29">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="G50" s="29">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="H50" s="29">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="I50" s="29"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="28">
+        <v>50</v>
+      </c>
+      <c r="B51" s="29">
+        <v>0.36874999999999997</v>
+      </c>
+      <c r="C51" s="29">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="D51" s="29">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="E51" s="29">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="F51" s="29">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="28">
+        <v>51</v>
+      </c>
+      <c r="B52" s="29">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="C52" s="29">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="D52" s="29">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="E52" s="29">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="F52" s="29">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="I52" s="29">
+        <v>0.49374999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="28">
+        <v>52</v>
+      </c>
+      <c r="B53" s="29">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="C53" s="29">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="D53" s="29">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="E53" s="29">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F53" s="29">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="G53" s="29">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="H53" s="29">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="I53" s="29">
+        <v>0.49236111111111108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="28">
+        <v>53</v>
+      </c>
+      <c r="B54" s="29">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="E54" s="29">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="F54" s="29">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="28">
+        <v>54</v>
+      </c>
+      <c r="B55" s="29">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="C55" s="29">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="D55" s="29">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="E55" s="29">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="F55" s="29">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="G55" s="29">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="H55" s="29">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="I55" s="29">
+        <v>0.5083333333333333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="28">
+        <v>55</v>
+      </c>
+      <c r="B56" s="29">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="C56" s="29">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="D56" s="29">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="E56" s="29">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="F56" s="29">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="G56" s="29">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="H56" s="29">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="I56" s="29">
+        <v>0.51527777777777783</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="28">
+        <v>56</v>
+      </c>
+      <c r="B57" s="29">
+        <v>0.37291666666666662</v>
+      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="I57" s="29">
+        <v>0.55486111111111114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="28">
+        <v>57</v>
+      </c>
+      <c r="B58" s="29">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I58" s="29">
+        <v>0.54791666666666672</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="28">
+        <v>58</v>
+      </c>
+      <c r="B59" s="29">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="E59" s="29">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="F59" s="29">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="I59" s="29">
+        <v>0.55486111111111114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="28">
+        <v>59</v>
+      </c>
+      <c r="B60" s="29">
+        <v>0</v>
+      </c>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I60" s="29">
+        <v>0.54791666666666672</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="28">
+        <v>60</v>
+      </c>
+      <c r="B61" s="29">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="C61" s="29">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="D61" s="29">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="I61" s="29">
+        <v>0.55486111111111114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="28">
+        <v>61</v>
+      </c>
+      <c r="B62" s="29">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="C62" s="29">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="D62" s="29">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="E62" s="29">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="F62" s="29">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="G62" s="29">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="H62" s="29">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="I62" s="29">
+        <v>0.54791666666666672</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="28">
+        <v>62</v>
+      </c>
+      <c r="B63" s="29">
+        <v>0</v>
+      </c>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="E63" s="29">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="F63" s="29">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="I63" s="29">
+        <v>0.55486111111111114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="28">
+        <v>63</v>
+      </c>
+      <c r="B64" s="29">
+        <v>0</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="E64" s="29">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="F64" s="29">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="G64" s="29">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="H64" s="29">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I64" s="29">
+        <v>0.54791666666666672</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="28">
+        <v>64</v>
+      </c>
+      <c r="B65" s="29">
+        <v>0</v>
+      </c>
+      <c r="C65" s="29">
+        <v>0</v>
+      </c>
+      <c r="D65" s="29">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="E65" s="29">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="F65" s="29">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="G65" s="29">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="H65" s="29">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="I65" s="29">
+        <v>0.55486111111111114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="28">
+        <v>65</v>
+      </c>
+      <c r="B66" s="29">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="C66" s="29">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="D66" s="29">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="E66" s="29">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="F66" s="29">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="I66" s="29">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="28">
+        <v>66</v>
+      </c>
+      <c r="B67" s="29">
+        <v>0</v>
+      </c>
+      <c r="C67" s="29">
+        <v>0</v>
+      </c>
+      <c r="D67" s="29">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="E67" s="29">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="F67" s="29">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="G67" s="29">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="H67" s="29">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="I67" s="29">
+        <v>0.55486111111111114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="28">
+        <v>67</v>
+      </c>
+      <c r="B68" s="29">
+        <v>0</v>
+      </c>
+      <c r="C68" s="29">
+        <v>0</v>
+      </c>
+      <c r="D68" s="29">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="E68" s="29">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="F68" s="29">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="G68" s="29">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="H68" s="29">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I68" s="29">
+        <v>0.54791666666666672</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="28">
+        <v>68</v>
+      </c>
+      <c r="B69" s="29">
+        <v>0</v>
+      </c>
+      <c r="C69" s="29">
+        <v>0</v>
+      </c>
+      <c r="D69" s="29">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="E69" s="29">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="F69" s="29">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="G69" s="29">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="H69" s="29">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="I69" s="29">
+        <v>0.55486111111111114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="28">
+        <v>69</v>
+      </c>
+      <c r="B70" s="29">
+        <v>0</v>
+      </c>
+      <c r="C70" s="29">
+        <v>0</v>
+      </c>
+      <c r="D70" s="29">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="E70" s="29">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="F70" s="29">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="G70" s="29">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="H70" s="29">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I70" s="29">
+        <v>0.54791666666666672</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="28">
+        <v>70</v>
+      </c>
+      <c r="B71" s="29">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="C71" s="29">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="D71" s="29">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="E71" s="29">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="F71" s="29">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="G71" s="29">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="H71" s="29">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="I71" s="29">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="28">
+        <v>71</v>
+      </c>
+      <c r="B72" s="29">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="C72" s="29">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="D72" s="29">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E72" s="29">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="F72" s="29">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="G72" s="29">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="H72" s="29">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="I72" s="29">
+        <v>0.52361111111111114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="28">
+        <v>72</v>
+      </c>
+      <c r="B73" s="29">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="C73" s="29">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="D73" s="29">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="E73" s="29">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F73" s="29">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="G73" s="29">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="H73" s="29">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="I73" s="29">
+        <v>0.55486111111111114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Sample Rally.xlsx
+++ b/data/Sample Rally.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\round-table-car-rally\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB94DA3E-BCC2-4209-8E29-2F11E84CB4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC375DB-4084-4051-8275-8BFDAF0BDEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{83D86452-F20F-44D9-8BE9-A750E33F13C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{83D86452-F20F-44D9-8BE9-A750E33F13C5}"/>
   </bookViews>
   <sheets>
     <sheet name="CarRally23" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -308,6 +308,12 @@
     <xf numFmtId="21" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -317,13 +323,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,24 +639,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A2BD83-87CC-4D86-B37D-1F1B84049F58}">
   <dimension ref="A1:O381"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="94" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="16384" width="9.140625" style="26"/>
+    <col min="12" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6" t="s">
         <v>5</v>
@@ -1324,7 +1323,7 @@
       <c r="J23" s="14">
         <v>0.47638888888888892</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="20">
         <f>INT((J23-C23)*1440)</f>
         <v>205</v>
       </c>
@@ -1418,7 +1417,7 @@
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="20">
         <f>SUM(D26:J26)</f>
         <v>2058</v>
       </c>
@@ -1450,7 +1449,7 @@
       <c r="J28" s="14">
         <v>0.51666666666666672</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="20">
         <f>INT((J28-C28)*1440)</f>
         <v>262</v>
       </c>
@@ -1544,7 +1543,7 @@
         <f t="shared" ref="J31" si="25">IF(J30&lt;0, J30*-3, J30)</f>
         <v>5</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="20">
         <f>SUM(D31:J31)</f>
         <v>2110</v>
       </c>
@@ -1572,7 +1571,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
-      <c r="K33" s="23">
+      <c r="K33" s="20">
         <f t="shared" ref="K33" si="26">INT((J33-C33)*1440)</f>
         <v>-523</v>
       </c>
@@ -1666,7 +1665,7 @@
         <f t="shared" si="35"/>
         <v>90</v>
       </c>
-      <c r="K36" s="23">
+      <c r="K36" s="20">
         <f t="shared" ref="K36" si="36">SUM(D36:J36)</f>
         <v>2602</v>
       </c>
@@ -1686,7 +1685,7 @@
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
-      <c r="K38" s="24">
+      <c r="K38" s="21">
         <f t="shared" ref="K38" si="37">INT((J38-C38)*1440)</f>
         <v>0</v>
       </c>
@@ -1791,7 +1790,7 @@
         <f t="shared" si="46"/>
         <v>90</v>
       </c>
-      <c r="K41" s="24">
+      <c r="K41" s="21">
         <f t="shared" ref="K41" si="47">SUM(D41:J41)</f>
         <v>462</v>
       </c>
@@ -1821,7 +1820,7 @@
       <c r="J43" s="14">
         <v>0.50277777777777777</v>
       </c>
-      <c r="K43" s="23">
+      <c r="K43" s="20">
         <f t="shared" ref="K43" si="48">INT((J43-C43)*1440)</f>
         <v>238</v>
       </c>
@@ -1915,7 +1914,7 @@
         <f t="shared" si="57"/>
         <v>11</v>
       </c>
-      <c r="K46" s="23">
+      <c r="K46" s="20">
         <f t="shared" ref="K46" si="58">SUM(D46:J46)</f>
         <v>5059</v>
       </c>
@@ -1949,7 +1948,7 @@
       <c r="J48" s="14">
         <v>0.51041666666666663</v>
       </c>
-      <c r="K48" s="23">
+      <c r="K48" s="20">
         <f t="shared" ref="K48" si="59">INT((J48-C48)*1440)</f>
         <v>248</v>
       </c>
@@ -2043,7 +2042,7 @@
         <f t="shared" si="46"/>
         <v>30</v>
       </c>
-      <c r="K51" s="23">
+      <c r="K51" s="20">
         <f t="shared" ref="K51" si="69">SUM(D51:J51)</f>
         <v>2153</v>
       </c>
@@ -2065,7 +2064,7 @@
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
-      <c r="K53" s="24">
+      <c r="K53" s="21">
         <f t="shared" ref="K53" si="70">INT((J53-C53)*1440)</f>
         <v>0</v>
       </c>
@@ -2170,7 +2169,7 @@
         <f t="shared" si="79"/>
         <v>90</v>
       </c>
-      <c r="K56" s="24">
+      <c r="K56" s="21">
         <f t="shared" ref="K56" si="80">SUM(D56:J56)</f>
         <v>462</v>
       </c>
@@ -2200,7 +2199,7 @@
       <c r="J58" s="14">
         <v>0.4909722222222222</v>
       </c>
-      <c r="K58" s="23">
+      <c r="K58" s="20">
         <f t="shared" ref="K58" si="81">INT((J58-C58)*1440)</f>
         <v>219</v>
       </c>
@@ -2294,7 +2293,7 @@
         <f t="shared" si="46"/>
         <v>677</v>
       </c>
-      <c r="K61" s="23">
+      <c r="K61" s="20">
         <f t="shared" ref="K61" si="91">SUM(D61:J61)</f>
         <v>4889</v>
       </c>
@@ -2324,7 +2323,7 @@
       <c r="J63" s="14">
         <v>0.49027777777777781</v>
       </c>
-      <c r="K63" s="23">
+      <c r="K63" s="20">
         <f t="shared" ref="K63" si="92">INT((J63-C63)*1440)</f>
         <v>217</v>
       </c>
@@ -2418,7 +2417,7 @@
         <f t="shared" si="101"/>
         <v>676</v>
       </c>
-      <c r="K66" s="23">
+      <c r="K66" s="20">
         <f t="shared" ref="K66" si="102">SUM(D66:J66)</f>
         <v>2778</v>
       </c>
@@ -2448,7 +2447,7 @@
       </c>
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
-      <c r="K68" s="23">
+      <c r="K68" s="20">
         <f t="shared" ref="K68" si="103">INT((J68-C68)*1440)</f>
         <v>-490</v>
       </c>
@@ -2542,7 +2541,7 @@
         <f t="shared" si="46"/>
         <v>90</v>
       </c>
-      <c r="K71" s="23">
+      <c r="K71" s="20">
         <f t="shared" ref="K71" si="113">SUM(D71:J71)</f>
         <v>2111</v>
       </c>
@@ -2576,7 +2575,7 @@
       <c r="J73" s="14">
         <v>0.4777777777777778</v>
       </c>
-      <c r="K73" s="23">
+      <c r="K73" s="20">
         <f t="shared" ref="K73" si="114">INT((J73-C73)*1440)</f>
         <v>176</v>
       </c>
@@ -2670,7 +2669,7 @@
         <f t="shared" si="123"/>
         <v>1</v>
       </c>
-      <c r="K76" s="23">
+      <c r="K76" s="20">
         <f t="shared" ref="K76" si="124">SUM(D76:J76)</f>
         <v>36</v>
       </c>
@@ -2694,7 +2693,7 @@
       <c r="J78" s="14">
         <v>0.50416666666666665</v>
       </c>
-      <c r="K78" s="23">
+      <c r="K78" s="20">
         <f t="shared" ref="K78" si="125">INT((J78-C78)*1440)</f>
         <v>234</v>
       </c>
@@ -2788,7 +2787,7 @@
         <f t="shared" si="46"/>
         <v>696</v>
       </c>
-      <c r="K81" s="23">
+      <c r="K81" s="20">
         <f t="shared" ref="K81" si="135">SUM(D81:J81)</f>
         <v>4952</v>
       </c>
@@ -2822,7 +2821,7 @@
       <c r="J83" s="14">
         <v>0.50486111111111109</v>
       </c>
-      <c r="K83" s="23">
+      <c r="K83" s="20">
         <f t="shared" ref="K83" si="136">INT((J83-C83)*1440)</f>
         <v>234</v>
       </c>
@@ -2916,7 +2915,7 @@
         <f t="shared" si="145"/>
         <v>6</v>
       </c>
-      <c r="K86" s="23">
+      <c r="K86" s="20">
         <f t="shared" ref="K86" si="146">SUM(D86:J86)</f>
         <v>87</v>
       </c>
@@ -2950,7 +2949,7 @@
       <c r="J88" s="14">
         <v>0.48888888888888887</v>
       </c>
-      <c r="K88" s="23">
+      <c r="K88" s="20">
         <f t="shared" ref="K88" si="147">INT((J88-C88)*1440)</f>
         <v>164</v>
       </c>
@@ -3044,7 +3043,7 @@
         <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="K91" s="23">
+      <c r="K91" s="20">
         <f t="shared" ref="K91" si="157">SUM(D91:J91)</f>
         <v>34</v>
       </c>
@@ -3074,7 +3073,7 @@
       <c r="J93" s="14">
         <v>0.52361111111111114</v>
       </c>
-      <c r="K93" s="23">
+      <c r="K93" s="20">
         <f t="shared" ref="K93" si="158">INT((J93-C93)*1440)</f>
         <v>259</v>
       </c>
@@ -3168,7 +3167,7 @@
         <f t="shared" si="167"/>
         <v>9</v>
       </c>
-      <c r="K96" s="23">
+      <c r="K96" s="20">
         <f t="shared" ref="K96" si="168">SUM(D96:J96)</f>
         <v>4885</v>
       </c>
@@ -3200,7 +3199,7 @@
       <c r="J98" s="14">
         <v>0.51111111111111118</v>
       </c>
-      <c r="K98" s="23">
+      <c r="K98" s="20">
         <f t="shared" ref="K98" si="169">INT((J98-C98)*1440)</f>
         <v>240</v>
       </c>
@@ -3294,7 +3293,7 @@
         <f t="shared" si="46"/>
         <v>9</v>
       </c>
-      <c r="K101" s="23">
+      <c r="K101" s="20">
         <f t="shared" ref="K101" si="179">SUM(D101:J101)</f>
         <v>2173</v>
       </c>
@@ -3328,7 +3327,7 @@
       <c r="J103" s="14">
         <v>0.52777777777777779</v>
       </c>
-      <c r="K103" s="23">
+      <c r="K103" s="20">
         <f t="shared" ref="K103" si="180">INT((J103-C103)*1440)</f>
         <v>235</v>
       </c>
@@ -3422,7 +3421,7 @@
         <f t="shared" si="189"/>
         <v>6</v>
       </c>
-      <c r="K106" s="23">
+      <c r="K106" s="20">
         <f t="shared" ref="K106" si="190">SUM(D106:J106)</f>
         <v>240</v>
       </c>
@@ -3456,7 +3455,7 @@
       <c r="J108" s="14">
         <v>0.5131944444444444</v>
       </c>
-      <c r="K108" s="23">
+      <c r="K108" s="20">
         <f t="shared" ref="K108" si="191">INT((J108-C108)*1440)</f>
         <v>241</v>
       </c>
@@ -3550,7 +3549,7 @@
         <f t="shared" si="200"/>
         <v>24</v>
       </c>
-      <c r="K111" s="23">
+      <c r="K111" s="20">
         <f t="shared" ref="K111" si="201">SUM(D111:J111)</f>
         <v>85</v>
       </c>
@@ -3578,7 +3577,7 @@
       <c r="J113" s="14">
         <v>0.4909722222222222</v>
       </c>
-      <c r="K113" s="23">
+      <c r="K113" s="20">
         <f t="shared" ref="K113" si="202">INT((J113-C113)*1440)</f>
         <v>207</v>
       </c>
@@ -3672,7 +3671,7 @@
         <f t="shared" si="211"/>
         <v>677</v>
       </c>
-      <c r="K116" s="23">
+      <c r="K116" s="20">
         <f t="shared" ref="K116" si="212">SUM(D116:J116)</f>
         <v>4764</v>
       </c>
@@ -3702,7 +3701,7 @@
       <c r="J118" s="14">
         <v>0.51041666666666663</v>
       </c>
-      <c r="K118" s="23">
+      <c r="K118" s="20">
         <f t="shared" ref="K118" si="213">INT((J118-C118)*1440)</f>
         <v>234</v>
       </c>
@@ -3796,7 +3795,7 @@
         <f t="shared" si="200"/>
         <v>30</v>
       </c>
-      <c r="K121" s="23">
+      <c r="K121" s="20">
         <f t="shared" ref="K121" si="223">SUM(D121:J121)</f>
         <v>4843</v>
       </c>
@@ -3828,7 +3827,7 @@
       <c r="J123" s="14">
         <v>0.55694444444444446</v>
       </c>
-      <c r="K123" s="23">
+      <c r="K123" s="20">
         <f t="shared" ref="K123" si="224">INT((J123-C123)*1440)</f>
         <v>269</v>
       </c>
@@ -3922,7 +3921,7 @@
         <f t="shared" si="233"/>
         <v>1</v>
       </c>
-      <c r="K126" s="23">
+      <c r="K126" s="20">
         <f t="shared" ref="K126" si="234">SUM(D126:J126)</f>
         <v>2318</v>
       </c>
@@ -3952,7 +3951,7 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="J128" s="14"/>
-      <c r="K128" s="23">
+      <c r="K128" s="20">
         <f t="shared" ref="K128" si="235">INT((J128-C128)*1440)</f>
         <v>-502</v>
       </c>
@@ -4046,7 +4045,7 @@
         <f t="shared" si="200"/>
         <v>2130</v>
       </c>
-      <c r="K131" s="23">
+      <c r="K131" s="20">
         <f t="shared" ref="K131" si="245">SUM(D131:J131)</f>
         <v>4454</v>
       </c>
@@ -4076,7 +4075,7 @@
       <c r="J133" s="15">
         <v>0.48333333333333334</v>
       </c>
-      <c r="K133" s="25">
+      <c r="K133" s="22">
         <f t="shared" ref="K133" si="246">INT((J133-C133)*1440)</f>
         <v>193</v>
       </c>
@@ -4170,7 +4169,7 @@
         <f t="shared" si="255"/>
         <v>9</v>
       </c>
-      <c r="K136" s="23">
+      <c r="K136" s="20">
         <f t="shared" ref="K136" si="256">SUM(D136:J136)</f>
         <v>2935</v>
       </c>
@@ -4190,7 +4189,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
       <c r="J138" s="17"/>
-      <c r="K138" s="24">
+      <c r="K138" s="21">
         <f t="shared" ref="K138" si="257">INT((J138-C138)*1440)</f>
         <v>0</v>
       </c>
@@ -4295,7 +4294,7 @@
         <f t="shared" si="200"/>
         <v>90</v>
       </c>
-      <c r="K141" s="24">
+      <c r="K141" s="21">
         <f t="shared" ref="K141" si="267">SUM(D141:J141)</f>
         <v>462</v>
       </c>
@@ -4327,7 +4326,7 @@
       <c r="J143" s="14">
         <v>0.50416666666666665</v>
       </c>
-      <c r="K143" s="23">
+      <c r="K143" s="20">
         <f t="shared" ref="K143" si="268">INT((J143-C143)*1440)</f>
         <v>206</v>
       </c>
@@ -4421,7 +4420,7 @@
         <f t="shared" si="277"/>
         <v>3</v>
       </c>
-      <c r="K146" s="23">
+      <c r="K146" s="20">
         <f t="shared" ref="K146" si="278">SUM(D146:J146)</f>
         <v>2223</v>
       </c>
@@ -4451,7 +4450,7 @@
       <c r="J148" s="14">
         <v>0.51041666666666663</v>
       </c>
-      <c r="K148" s="23">
+      <c r="K148" s="20">
         <f t="shared" ref="K148" si="279">INT((J148-C148)*1440)</f>
         <v>229</v>
       </c>
@@ -4545,7 +4544,7 @@
         <f t="shared" si="200"/>
         <v>3</v>
       </c>
-      <c r="K151" s="23">
+      <c r="K151" s="20">
         <f t="shared" ref="K151" si="289">SUM(D151:J151)</f>
         <v>4891</v>
       </c>
@@ -4579,7 +4578,7 @@
       <c r="J153" s="15">
         <v>0.47986111111111113</v>
       </c>
-      <c r="K153" s="25">
+      <c r="K153" s="22">
         <f t="shared" ref="K153" si="290">INT((J153-C153)*1440)</f>
         <v>184</v>
       </c>
@@ -4673,7 +4672,7 @@
         <f t="shared" si="299"/>
         <v>9</v>
       </c>
-      <c r="K156" s="23">
+      <c r="K156" s="20">
         <f t="shared" ref="K156" si="300">SUM(D156:J156)</f>
         <v>53</v>
       </c>
@@ -4707,7 +4706,7 @@
       <c r="J158" s="14">
         <v>0.49583333333333335</v>
       </c>
-      <c r="K158" s="23">
+      <c r="K158" s="20">
         <f t="shared" ref="K158" si="301">INT((J158-C158)*1440)</f>
         <v>206</v>
       </c>
@@ -4801,7 +4800,7 @@
         <f t="shared" si="200"/>
         <v>684</v>
       </c>
-      <c r="K161" s="23">
+      <c r="K161" s="20">
         <f t="shared" ref="K161" si="310">SUM(D161:J161)</f>
         <v>2831</v>
       </c>
@@ -4823,7 +4822,7 @@
       <c r="H163" s="17"/>
       <c r="I163" s="17"/>
       <c r="J163" s="17"/>
-      <c r="K163" s="24">
+      <c r="K163" s="21">
         <f t="shared" ref="K163" si="311">INT((J163-C163)*1440)</f>
         <v>0</v>
       </c>
@@ -4928,7 +4927,7 @@
         <f t="shared" si="320"/>
         <v>90</v>
       </c>
-      <c r="K166" s="24">
+      <c r="K166" s="21">
         <f t="shared" ref="K166" si="321">SUM(D166:J166)</f>
         <v>462</v>
       </c>
@@ -4962,7 +4961,7 @@
       <c r="J168" s="14">
         <v>0.47013888888888888</v>
       </c>
-      <c r="K168" s="23">
+      <c r="K168" s="20">
         <f t="shared" ref="K168" si="322">INT((J168-C168)*1440)</f>
         <v>167</v>
       </c>
@@ -5056,7 +5055,7 @@
         <f t="shared" si="200"/>
         <v>0</v>
       </c>
-      <c r="K171" s="23">
+      <c r="K171" s="20">
         <f t="shared" ref="K171" si="332">SUM(D171:J171)</f>
         <v>27</v>
       </c>
@@ -5090,7 +5089,7 @@
       <c r="J173" s="14">
         <v>0.50486111111111109</v>
       </c>
-      <c r="K173" s="23">
+      <c r="K173" s="20">
         <f t="shared" ref="K173" si="333">INT((J173-C173)*1440)</f>
         <v>216</v>
       </c>
@@ -5184,7 +5183,7 @@
         <f t="shared" si="342"/>
         <v>2</v>
       </c>
-      <c r="K176" s="23">
+      <c r="K176" s="20">
         <f t="shared" ref="K176" si="343">SUM(D176:J176)</f>
         <v>61</v>
       </c>
@@ -5214,7 +5213,7 @@
       <c r="J178" s="17">
         <v>0.55486111111111114</v>
       </c>
-      <c r="K178" s="24">
+      <c r="K178" s="21">
         <f t="shared" ref="K178" si="344">INT((J178-C178)*1440)</f>
         <v>799</v>
       </c>
@@ -5319,7 +5318,7 @@
         <f t="shared" si="353"/>
         <v>3</v>
       </c>
-      <c r="K181" s="24">
+      <c r="K181" s="21">
         <f t="shared" ref="K181" si="354">SUM(D181:J181)</f>
         <v>876</v>
       </c>
@@ -5345,7 +5344,7 @@
       <c r="H183" s="14"/>
       <c r="I183" s="14"/>
       <c r="J183" s="14"/>
-      <c r="K183" s="23">
+      <c r="K183" s="20">
         <f t="shared" ref="K183" si="355">INT((J183-C183)*1440)</f>
         <v>-513</v>
       </c>
@@ -5439,7 +5438,7 @@
         <f t="shared" si="364"/>
         <v>90</v>
       </c>
-      <c r="K186" s="23">
+      <c r="K186" s="20">
         <f t="shared" ref="K186" si="365">SUM(D186:J186)</f>
         <v>4656</v>
       </c>
@@ -5471,7 +5470,7 @@
       <c r="J188" s="14">
         <v>0.48680555555555555</v>
       </c>
-      <c r="K188" s="23">
+      <c r="K188" s="20">
         <f t="shared" ref="K188" si="366">INT((J188-C188)*1440)</f>
         <v>187</v>
       </c>
@@ -5565,7 +5564,7 @@
         <f t="shared" si="353"/>
         <v>7</v>
       </c>
-      <c r="K191" s="23">
+      <c r="K191" s="20">
         <f t="shared" ref="K191" si="376">SUM(D191:J191)</f>
         <v>2640</v>
       </c>
@@ -5593,7 +5592,7 @@
       <c r="H193" s="15"/>
       <c r="I193" s="15"/>
       <c r="J193" s="15"/>
-      <c r="K193" s="25">
+      <c r="K193" s="22">
         <f t="shared" ref="K193" si="377">INT((J193-C193)*1440)</f>
         <v>-515</v>
       </c>
@@ -5687,7 +5686,7 @@
         <f t="shared" si="386"/>
         <v>90</v>
       </c>
-      <c r="K196" s="23">
+      <c r="K196" s="20">
         <f t="shared" ref="K196" si="387">SUM(D196:J196)</f>
         <v>2913</v>
       </c>
@@ -5721,7 +5720,7 @@
       <c r="J198" s="14">
         <v>0.51250000000000007</v>
       </c>
-      <c r="K198" s="23">
+      <c r="K198" s="20">
         <f t="shared" ref="K198" si="388">INT((J198-C198)*1440)</f>
         <v>222</v>
       </c>
@@ -5815,7 +5814,7 @@
         <f t="shared" si="353"/>
         <v>18</v>
       </c>
-      <c r="K201" s="23">
+      <c r="K201" s="20">
         <f t="shared" ref="K201" si="398">SUM(D201:J201)</f>
         <v>90</v>
       </c>
@@ -5849,7 +5848,7 @@
       <c r="J203" s="14">
         <v>0.49513888888888885</v>
       </c>
-      <c r="K203" s="23">
+      <c r="K203" s="20">
         <f t="shared" ref="K203" si="399">INT((J203-C203)*1440)</f>
         <v>196</v>
       </c>
@@ -5943,7 +5942,7 @@
         <f t="shared" si="408"/>
         <v>4</v>
       </c>
-      <c r="K206" s="23">
+      <c r="K206" s="20">
         <f t="shared" ref="K206" si="409">SUM(D206:J206)</f>
         <v>45</v>
       </c>
@@ -5973,7 +5972,7 @@
       <c r="J208" s="14">
         <v>0.49513888888888885</v>
       </c>
-      <c r="K208" s="23">
+      <c r="K208" s="20">
         <f t="shared" ref="K208" si="410">INT((J208-C208)*1440)</f>
         <v>195</v>
       </c>
@@ -6067,7 +6066,7 @@
         <f t="shared" si="353"/>
         <v>4</v>
       </c>
-      <c r="K211" s="23">
+      <c r="K211" s="20">
         <f t="shared" ref="K211" si="420">SUM(D211:J211)</f>
         <v>4865</v>
       </c>
@@ -6095,7 +6094,7 @@
       <c r="J213" s="17">
         <v>0.54791666666666672</v>
       </c>
-      <c r="K213" s="24">
+      <c r="K213" s="21">
         <f t="shared" ref="K213" si="421">INT((J213-C213)*1440)</f>
         <v>789</v>
       </c>
@@ -6200,7 +6199,7 @@
         <f t="shared" si="430"/>
         <v>3</v>
       </c>
-      <c r="K216" s="24">
+      <c r="K216" s="21">
         <f t="shared" ref="K216" si="431">SUM(D216:J216)</f>
         <v>914</v>
       </c>
@@ -6232,7 +6231,7 @@
       <c r="J218" s="14">
         <v>0.51736111111111105</v>
       </c>
-      <c r="K218" s="23">
+      <c r="K218" s="20">
         <f t="shared" ref="K218" si="432">INT((J218-C218)*1440)</f>
         <v>225</v>
       </c>
@@ -6326,7 +6325,7 @@
         <f t="shared" si="441"/>
         <v>21</v>
       </c>
-      <c r="K221" s="23">
+      <c r="K221" s="20">
         <f t="shared" ref="K221" si="442">SUM(D221:J221)</f>
         <v>2841</v>
       </c>
@@ -6360,7 +6359,7 @@
       <c r="J223" s="14">
         <v>0.51736111111111105</v>
       </c>
-      <c r="K223" s="23">
+      <c r="K223" s="20">
         <f t="shared" ref="K223" si="443">INT((J223-C223)*1440)</f>
         <v>224</v>
       </c>
@@ -6454,7 +6453,7 @@
         <f t="shared" si="452"/>
         <v>24</v>
       </c>
-      <c r="K226" s="23">
+      <c r="K226" s="20">
         <f t="shared" ref="K226" si="453">SUM(D226:J226)</f>
         <v>101</v>
       </c>
@@ -6482,7 +6481,7 @@
       <c r="J228" s="17">
         <v>0.55486111111111114</v>
       </c>
-      <c r="K228" s="24">
+      <c r="K228" s="21">
         <f t="shared" ref="K228" si="454">INT((J228-C228)*1440)</f>
         <v>799</v>
       </c>
@@ -6587,7 +6586,7 @@
         <f t="shared" si="441"/>
         <v>3</v>
       </c>
-      <c r="K231" s="24">
+      <c r="K231" s="21">
         <f t="shared" ref="K231" si="464">SUM(D231:J231)</f>
         <v>876</v>
       </c>
@@ -6619,7 +6618,7 @@
       <c r="J233" s="14">
         <v>0.50902777777777775</v>
       </c>
-      <c r="K233" s="23">
+      <c r="K233" s="20">
         <f t="shared" ref="K233" si="465">INT((J233-C233)*1440)</f>
         <v>209</v>
       </c>
@@ -6713,7 +6712,7 @@
         <f t="shared" si="474"/>
         <v>1</v>
       </c>
-      <c r="K236" s="23">
+      <c r="K236" s="20">
         <f t="shared" ref="K236" si="475">SUM(D236:J236)</f>
         <v>2735</v>
       </c>
@@ -6743,7 +6742,7 @@
       <c r="J238" s="17">
         <v>0.55486111111111114</v>
       </c>
-      <c r="K238" s="24">
+      <c r="K238" s="21">
         <f t="shared" ref="K238" si="476">INT((J238-C238)*1440)</f>
         <v>799</v>
       </c>
@@ -6848,7 +6847,7 @@
         <f t="shared" si="441"/>
         <v>3</v>
       </c>
-      <c r="K241" s="24">
+      <c r="K241" s="21">
         <f t="shared" ref="K241" si="486">SUM(D241:J241)</f>
         <v>2988</v>
       </c>
@@ -6882,7 +6881,7 @@
       <c r="J243" s="14">
         <v>0.47986111111111113</v>
       </c>
-      <c r="K243" s="23">
+      <c r="K243" s="20">
         <f t="shared" ref="K243" si="487">INT((J243-C243)*1440)</f>
         <v>165</v>
       </c>
@@ -6976,7 +6975,7 @@
         <f t="shared" si="496"/>
         <v>48</v>
       </c>
-      <c r="K246" s="23">
+      <c r="K246" s="20">
         <f t="shared" ref="K246" si="497">SUM(D246:J246)</f>
         <v>88</v>
       </c>
@@ -7010,7 +7009,7 @@
       <c r="J248" s="14">
         <v>0.4826388888888889</v>
       </c>
-      <c r="K248" s="23">
+      <c r="K248" s="20">
         <f t="shared" ref="K248" si="498">INT((J248-C248)*1440)</f>
         <v>168</v>
       </c>
@@ -7104,7 +7103,7 @@
         <f t="shared" si="441"/>
         <v>2</v>
       </c>
-      <c r="K251" s="23">
+      <c r="K251" s="20">
         <f t="shared" ref="K251" si="508">SUM(D251:J251)</f>
         <v>33</v>
       </c>
@@ -7138,7 +7137,7 @@
       <c r="J253" s="14">
         <v>0.52361111111111114</v>
       </c>
-      <c r="K253" s="23">
+      <c r="K253" s="20">
         <f t="shared" ref="K253" si="509">INT((J253-C253)*1440)</f>
         <v>226</v>
       </c>
@@ -7232,7 +7231,7 @@
         <f t="shared" si="518"/>
         <v>18</v>
       </c>
-      <c r="K256" s="23">
+      <c r="K256" s="20">
         <f t="shared" ref="K256" si="519">SUM(D256:J256)</f>
         <v>98</v>
       </c>
@@ -7266,7 +7265,7 @@
       <c r="J258" s="14">
         <v>0.51041666666666663</v>
       </c>
-      <c r="K258" s="23">
+      <c r="K258" s="20">
         <f t="shared" ref="K258" si="520">INT((J258-C258)*1440)</f>
         <v>206</v>
       </c>
@@ -7360,7 +7359,7 @@
         <f t="shared" si="529"/>
         <v>8</v>
       </c>
-      <c r="K261" s="23">
+      <c r="K261" s="20">
         <f t="shared" ref="K261" si="530">SUM(D261:J261)</f>
         <v>59</v>
       </c>
@@ -7390,7 +7389,7 @@
         <v>0.53472222222222221</v>
       </c>
       <c r="J263" s="14"/>
-      <c r="K263" s="23">
+      <c r="K263" s="20">
         <f t="shared" ref="K263" si="531">INT((J263-C263)*1440)</f>
         <v>-530</v>
       </c>
@@ -7484,7 +7483,7 @@
         <f t="shared" si="540"/>
         <v>2400</v>
       </c>
-      <c r="K266" s="23">
+      <c r="K266" s="20">
         <f t="shared" ref="K266" si="541">SUM(D266:J266)</f>
         <v>4719</v>
       </c>
@@ -7512,7 +7511,7 @@
       <c r="H268" s="14"/>
       <c r="I268" s="14"/>
       <c r="J268" s="14"/>
-      <c r="K268" s="23">
+      <c r="K268" s="20">
         <f t="shared" ref="K268" si="542">INT((J268-C268)*1440)</f>
         <v>-531</v>
       </c>
@@ -7606,7 +7605,7 @@
         <f t="shared" si="529"/>
         <v>90</v>
       </c>
-      <c r="K271" s="23">
+      <c r="K271" s="20">
         <f t="shared" ref="K271" si="552">SUM(D271:J271)</f>
         <v>2547</v>
       </c>
@@ -7638,7 +7637,7 @@
       <c r="J273" s="14">
         <v>0.49374999999999997</v>
       </c>
-      <c r="K273" s="23">
+      <c r="K273" s="20">
         <f t="shared" ref="K273" si="553">INT((J273-C273)*1440)</f>
         <v>179</v>
       </c>
@@ -7732,7 +7731,7 @@
         <f t="shared" si="562"/>
         <v>0</v>
       </c>
-      <c r="K276" s="23">
+      <c r="K276" s="20">
         <f t="shared" ref="K276" si="563">SUM(D276:J276)</f>
         <v>2704</v>
       </c>
@@ -7766,7 +7765,7 @@
       <c r="J278" s="14">
         <v>0.49236111111111108</v>
       </c>
-      <c r="K278" s="23">
+      <c r="K278" s="20">
         <f t="shared" ref="K278" si="564">INT((J278-C278)*1440)</f>
         <v>162</v>
       </c>
@@ -7860,7 +7859,7 @@
         <f t="shared" si="529"/>
         <v>0</v>
       </c>
-      <c r="K281" s="23">
+      <c r="K281" s="20">
         <f t="shared" ref="K281" si="574">SUM(D281:J281)</f>
         <v>6</v>
       </c>
@@ -7886,7 +7885,7 @@
       <c r="H283" s="14"/>
       <c r="I283" s="14"/>
       <c r="J283" s="14"/>
-      <c r="K283" s="23">
+      <c r="K283" s="20">
         <f t="shared" ref="K283" si="575">INT((J283-C283)*1440)</f>
         <v>-534</v>
       </c>
@@ -7980,7 +7979,7 @@
         <f t="shared" si="584"/>
         <v>90</v>
       </c>
-      <c r="K286" s="23">
+      <c r="K286" s="20">
         <f t="shared" ref="K286" si="585">SUM(D286:J286)</f>
         <v>4720</v>
       </c>
@@ -8014,7 +8013,7 @@
       <c r="J288" s="14">
         <v>0.5083333333333333</v>
       </c>
-      <c r="K288" s="23">
+      <c r="K288" s="20">
         <f t="shared" ref="K288" si="586">INT((J288-C288)*1440)</f>
         <v>197</v>
       </c>
@@ -8108,7 +8107,7 @@
         <f t="shared" si="529"/>
         <v>7</v>
       </c>
-      <c r="K291" s="23">
+      <c r="K291" s="20">
         <f t="shared" ref="K291" si="596">SUM(D291:J291)</f>
         <v>42</v>
       </c>
@@ -8142,7 +8141,7 @@
       <c r="J293" s="14">
         <v>0.51527777777777783</v>
       </c>
-      <c r="K293" s="23">
+      <c r="K293" s="20">
         <f t="shared" ref="K293" si="597">INT((J293-C293)*1440)</f>
         <v>206</v>
       </c>
@@ -8236,7 +8235,7 @@
         <f t="shared" si="606"/>
         <v>2</v>
       </c>
-      <c r="K296" s="23">
+      <c r="K296" s="20">
         <f t="shared" ref="K296" si="607">SUM(D296:J296)</f>
         <v>64</v>
       </c>
@@ -8264,7 +8263,7 @@
       <c r="J298" s="14">
         <v>0.55486111111111114</v>
       </c>
-      <c r="K298" s="23">
+      <c r="K298" s="20">
         <f t="shared" ref="K298" si="608">INT((J298-C298)*1440)</f>
         <v>262</v>
       </c>
@@ -8358,7 +8357,7 @@
         <f t="shared" si="617"/>
         <v>3</v>
       </c>
-      <c r="K301" s="23">
+      <c r="K301" s="20">
         <f t="shared" ref="K301" si="618">SUM(D301:J301)</f>
         <v>7724</v>
       </c>
@@ -8386,7 +8385,7 @@
       <c r="J303" s="14">
         <v>0.54791666666666672</v>
       </c>
-      <c r="K303" s="23">
+      <c r="K303" s="20">
         <f t="shared" ref="K303" si="619">INT((J303-C303)*1440)</f>
         <v>251</v>
       </c>
@@ -8480,7 +8479,7 @@
         <f t="shared" si="628"/>
         <v>3</v>
       </c>
-      <c r="K306" s="23">
+      <c r="K306" s="20">
         <f t="shared" ref="K306" si="629">SUM(D306:J306)</f>
         <v>8093</v>
       </c>
@@ -8510,7 +8509,7 @@
       <c r="J308" s="14">
         <v>0.55486111111111114</v>
       </c>
-      <c r="K308" s="23">
+      <c r="K308" s="20">
         <f t="shared" ref="K308" si="630">INT((J308-C308)*1440)</f>
         <v>260</v>
       </c>
@@ -8604,7 +8603,7 @@
         <f t="shared" si="617"/>
         <v>3</v>
       </c>
-      <c r="K311" s="23">
+      <c r="K311" s="20">
         <f t="shared" ref="K311" si="640">SUM(D311:J311)</f>
         <v>5357</v>
       </c>
@@ -8632,7 +8631,7 @@
       <c r="J313" s="14">
         <v>0.54791666666666672</v>
       </c>
-      <c r="K313" s="23">
+      <c r="K313" s="20">
         <f t="shared" ref="K313" si="641">INT((J313-C313)*1440)</f>
         <v>789</v>
       </c>
@@ -8726,7 +8725,7 @@
         <f t="shared" ref="J316" si="662">IF(J315&lt;0, J315*-3, J315)</f>
         <v>3</v>
       </c>
-      <c r="K316" s="23">
+      <c r="K316" s="20">
         <f t="shared" ref="K316" si="663">SUM(D316:J316)</f>
         <v>6479</v>
       </c>
@@ -8756,7 +8755,7 @@
       <c r="J318" s="14">
         <v>0.55486111111111114</v>
       </c>
-      <c r="K318" s="23">
+      <c r="K318" s="20">
         <f t="shared" ref="K318" si="664">INT((J318-C318)*1440)</f>
         <v>258</v>
       </c>
@@ -8850,7 +8849,7 @@
         <f t="shared" ref="J321" si="685">IF(J320&lt;0, J320*-3, J320)</f>
         <v>3</v>
       </c>
-      <c r="K321" s="23">
+      <c r="K321" s="20">
         <f t="shared" ref="K321" si="686">SUM(D321:J321)</f>
         <v>5779</v>
       </c>
@@ -8884,7 +8883,7 @@
       <c r="J323" s="15">
         <v>0.54791666666666672</v>
       </c>
-      <c r="K323" s="25">
+      <c r="K323" s="22">
         <f t="shared" ref="K323" si="687">INT((J323-C323)*1440)</f>
         <v>247</v>
       </c>
@@ -8978,7 +8977,7 @@
         <f t="shared" ref="J326" si="708">IF(J325&lt;0, J325*-3, J325)</f>
         <v>6</v>
       </c>
-      <c r="K326" s="23">
+      <c r="K326" s="20">
         <f t="shared" ref="K326" si="709">SUM(D326:J326)</f>
         <v>99</v>
       </c>
@@ -9008,7 +9007,7 @@
       <c r="J328" s="17">
         <v>0.55486111111111114</v>
       </c>
-      <c r="K328" s="24">
+      <c r="K328" s="21">
         <f t="shared" ref="K328" si="710">INT((J328-C328)*1440)</f>
         <v>799</v>
       </c>
@@ -9113,7 +9112,7 @@
         <f t="shared" ref="J331" si="731">IF(J330&lt;0, J330*-3, J330)</f>
         <v>3</v>
       </c>
-      <c r="K331" s="24">
+      <c r="K331" s="21">
         <f t="shared" ref="K331" si="732">SUM(D331:J331)</f>
         <v>3673</v>
       </c>
@@ -9158,7 +9157,7 @@
       <c r="J333" s="17">
         <v>0.54791666666666672</v>
       </c>
-      <c r="K333" s="24">
+      <c r="K333" s="21">
         <f t="shared" ref="K333" si="733">INT((J333-C333)*1440)</f>
         <v>789</v>
       </c>
@@ -9263,7 +9262,7 @@
         <f t="shared" ref="J336" si="754">IF(J335&lt;0, J335*-3, J335)</f>
         <v>3</v>
       </c>
-      <c r="K336" s="24">
+      <c r="K336" s="21">
         <f t="shared" ref="K336" si="755">SUM(D336:J336)</f>
         <v>762</v>
       </c>
@@ -9310,7 +9309,7 @@
       <c r="J338" s="17">
         <v>0.55486111111111114</v>
       </c>
-      <c r="K338" s="24">
+      <c r="K338" s="21">
         <f t="shared" ref="K338" si="756">INT((J338-C338)*1440)</f>
         <v>799</v>
       </c>
@@ -9415,7 +9414,7 @@
         <f t="shared" ref="J341" si="777">IF(J340&lt;0, J340*-3, J340)</f>
         <v>3</v>
       </c>
-      <c r="K341" s="24">
+      <c r="K341" s="21">
         <f t="shared" ref="K341" si="778">SUM(D341:J341)</f>
         <v>716</v>
       </c>
@@ -9447,7 +9446,7 @@
       <c r="J343" s="14">
         <v>0.54166666666666663</v>
       </c>
-      <c r="K343" s="23">
+      <c r="K343" s="20">
         <f t="shared" ref="K343" si="779">INT((J343-C343)*1440)</f>
         <v>234</v>
       </c>
@@ -9541,7 +9540,7 @@
         <f t="shared" ref="J346" si="800">IF(J345&lt;0, J345*-3, J345)</f>
         <v>45</v>
       </c>
-      <c r="K346" s="23">
+      <c r="K346" s="20">
         <f t="shared" ref="K346" si="801">SUM(D346:J346)</f>
         <v>3166</v>
       </c>
@@ -9575,7 +9574,7 @@
       <c r="J348" s="17">
         <v>0.55486111111111114</v>
       </c>
-      <c r="K348" s="24">
+      <c r="K348" s="21">
         <f t="shared" ref="K348" si="802">INT((J348-C348)*1440)</f>
         <v>799</v>
       </c>
@@ -9680,7 +9679,7 @@
         <f t="shared" ref="J351" si="823">IF(J350&lt;0, J350*-3, J350)</f>
         <v>3</v>
       </c>
-      <c r="K351" s="24">
+      <c r="K351" s="21">
         <f t="shared" ref="K351" si="824">SUM(D351:J351)</f>
         <v>716</v>
       </c>
@@ -9727,7 +9726,7 @@
       <c r="J353" s="17">
         <v>0.54791666666666672</v>
       </c>
-      <c r="K353" s="24">
+      <c r="K353" s="21">
         <f t="shared" ref="K353" si="825">INT((J353-C353)*1440)</f>
         <v>789</v>
       </c>
@@ -9832,7 +9831,7 @@
         <f t="shared" ref="J356" si="846">IF(J355&lt;0, J355*-3, J355)</f>
         <v>3</v>
       </c>
-      <c r="K356" s="24">
+      <c r="K356" s="21">
         <f t="shared" ref="K356" si="847">SUM(D356:J356)</f>
         <v>762</v>
       </c>
@@ -9879,7 +9878,7 @@
       <c r="J358" s="17">
         <v>0.55486111111111114</v>
       </c>
-      <c r="K358" s="24">
+      <c r="K358" s="21">
         <f t="shared" ref="K358" si="848">INT((J358-C358)*1440)</f>
         <v>799</v>
       </c>
@@ -9984,7 +9983,7 @@
         <f t="shared" ref="J361" si="869">IF(J360&lt;0, J360*-3, J360)</f>
         <v>3</v>
       </c>
-      <c r="K361" s="24">
+      <c r="K361" s="21">
         <f t="shared" ref="K361" si="870">SUM(D361:J361)</f>
         <v>716</v>
       </c>
@@ -10031,7 +10030,7 @@
       <c r="J363" s="17">
         <v>0.54791666666666672</v>
       </c>
-      <c r="K363" s="24">
+      <c r="K363" s="21">
         <f t="shared" ref="K363" si="871">INT((J363-C363)*1440)</f>
         <v>789</v>
       </c>
@@ -10136,7 +10135,7 @@
         <f t="shared" ref="J366" si="892">IF(J365&lt;0, J365*-3, J365)</f>
         <v>3</v>
       </c>
-      <c r="K366" s="24">
+      <c r="K366" s="21">
         <f t="shared" ref="K366" si="893">SUM(D366:J366)</f>
         <v>762</v>
       </c>
@@ -10175,7 +10174,7 @@
       <c r="J368" s="14">
         <v>0.54166666666666663</v>
       </c>
-      <c r="K368" s="23">
+      <c r="K368" s="20">
         <f t="shared" ref="K368" si="894">INT((J368-C368)*1440)</f>
         <v>235</v>
       </c>
@@ -10269,7 +10268,7 @@
         <f t="shared" ref="J371" si="915">IF(J370&lt;0, J370*-3, J370)</f>
         <v>42</v>
       </c>
-      <c r="K371" s="23">
+      <c r="K371" s="20">
         <f t="shared" ref="K371" si="916">SUM(D371:J371)</f>
         <v>177</v>
       </c>
@@ -10303,7 +10302,7 @@
       <c r="J373" s="15">
         <v>0.52361111111111114</v>
       </c>
-      <c r="K373" s="25">
+      <c r="K373" s="22">
         <f t="shared" ref="K373" si="917">INT((J373-C373)*1440)</f>
         <v>211</v>
       </c>
@@ -10397,7 +10396,7 @@
         <f t="shared" ref="J376" si="938">IF(J375&lt;0, J375*-3, J375)</f>
         <v>18</v>
       </c>
-      <c r="K376" s="23">
+      <c r="K376" s="20">
         <f t="shared" ref="K376" si="939">SUM(D376:J376)</f>
         <v>108</v>
       </c>
@@ -10431,7 +10430,7 @@
       <c r="J378" s="14">
         <v>0.55486111111111114</v>
       </c>
-      <c r="K378" s="23">
+      <c r="K378" s="20">
         <f t="shared" ref="K378" si="940">INT((J378-C378)*1440)</f>
         <v>255</v>
       </c>
@@ -10525,13 +10524,12 @@
         <f t="shared" ref="J381" si="961">IF(J380&lt;0, J380*-3, J380)</f>
         <v>32</v>
       </c>
-      <c r="K381" s="23">
+      <c r="K381" s="20">
         <f t="shared" ref="K381" si="962">SUM(D381:J381)</f>
         <v>180</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A20:K382" xr:uid="{F5A2BD83-87CC-4D86-B37D-1F1B84049F58}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
@@ -10545,7 +10543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEBFBA6-03F8-4558-9AFD-35C4CA5D21E7}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -10581,1872 +10579,1872 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="24">
         <v>0.33402777777777781</v>
       </c>
       <c r="C2" s="14"/>
-      <c r="D2" s="27">
+      <c r="D2" s="24">
         <v>0.36388888888888887</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="24">
         <v>0.38055555555555554</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="24">
         <v>0.41388888888888892</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="24">
         <v>0.4368055555555555</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="24">
         <v>0.45763888888888887</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="24">
         <v>0.47638888888888892</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="24">
         <v>0.3347222222222222</v>
       </c>
       <c r="C3" s="14"/>
-      <c r="D3" s="27">
+      <c r="D3" s="24">
         <v>0.38055555555555554</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="24">
         <v>0.43611111111111112</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="24">
         <v>0.46249999999999997</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="24">
         <v>0.48055555555555557</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="24">
         <v>0.49236111111111108</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="24">
         <v>0.51666666666666672</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="24">
         <v>0.36319444444444443</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="24">
         <v>0.43124999999999997</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="24">
         <v>0.45763888888888887</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="24">
         <v>0.48749999999999999</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="24">
         <v>0.52013888888888882</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="23">
         <v>4</v>
       </c>
-      <c r="B5" s="27">
-        <v>0</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="B5" s="24">
+        <v>0</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="A6" s="23">
         <v>5</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="24">
         <v>0.33749999999999997</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="24">
         <v>0.37083333333333335</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="24">
         <v>0.38819444444444445</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27">
+      <c r="E6" s="24"/>
+      <c r="F6" s="24">
         <v>0.44236111111111115</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27">
+      <c r="G6" s="24"/>
+      <c r="H6" s="24">
         <v>0.47361111111111115</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="24">
         <v>0.50277777777777777</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A7" s="23">
         <v>6</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="24">
         <v>0.33819444444444446</v>
       </c>
-      <c r="C7" s="27">
-        <v>0</v>
-      </c>
-      <c r="D7" s="27">
+      <c r="C7" s="24">
+        <v>0</v>
+      </c>
+      <c r="D7" s="24">
         <v>0.3833333333333333</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="24">
         <v>0.41875000000000001</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="24">
         <v>0.44791666666666669</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="24">
         <v>0.48055555555555557</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="24">
         <v>0.49583333333333335</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="24">
         <v>0.51041666666666663</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="23">
         <v>7</v>
       </c>
-      <c r="B8" s="27">
-        <v>0</v>
-      </c>
-      <c r="C8" s="27">
-        <v>0</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="B8" s="24">
+        <v>0</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="25">
         <v>0.33888888888888885</v>
       </c>
-      <c r="C9" s="29">
-        <v>0</v>
-      </c>
-      <c r="D9" s="29">
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
+      <c r="D9" s="25">
         <v>0.3923611111111111</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="25">
         <v>0.42499999999999999</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="25">
         <v>0.45763888888888887</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25">
         <v>0.4909722222222222</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="25">
         <v>0.33958333333333335</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="25">
         <v>0.36944444444444446</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="25">
         <v>0.38472222222222219</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="25">
         <v>0.41875000000000001</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="25">
         <v>0.44305555555555554</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29">
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25">
         <v>0.49027777777777781</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="25">
         <v>0.34027777777777773</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="25">
         <v>0.36944444444444446</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="25">
         <v>0.3833333333333333</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="25">
         <v>0.39583333333333331</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="25">
         <v>0.42708333333333331</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="25">
         <v>0.44375000000000003</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="25">
         <v>0.35555555555555557</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="25">
         <v>0.37291666666666662</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="25">
         <v>0.38680555555555557</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="25">
         <v>0.40277777777777773</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="25">
         <v>0.42291666666666666</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="25">
         <v>0.43888888888888888</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="25">
         <v>0.45624999999999999</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="25">
         <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="25">
         <v>0.34166666666666662</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29">
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25">
         <v>0.43263888888888885</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29">
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25">
         <v>0.50416666666666665</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="25">
         <v>0.34236111111111112</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="25">
         <v>0.36944444444444446</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="25">
         <v>0.38472222222222219</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="25">
         <v>0.41805555555555557</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="25">
         <v>0.44166666666666665</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="25">
         <v>0.46597222222222223</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="25">
         <v>0.48541666666666666</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="25">
         <v>0.50486111111111109</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="25">
         <v>0.375</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="25">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="25">
         <v>0.40625</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="25">
         <v>0.42083333333333334</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="25">
         <v>0.44027777777777777</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="25">
         <v>0.45763888888888887</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="25">
         <v>0.46736111111111112</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="25">
         <v>0.48888888888888887</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="25">
         <v>0.34375</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29">
+      <c r="C16" s="25"/>
+      <c r="D16" s="25">
         <v>0.38680555555555557</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="25">
         <v>0.4201388888888889</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="25">
         <v>0.4548611111111111</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29">
+      <c r="G16" s="25"/>
+      <c r="H16" s="25">
         <v>0.49652777777777773</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="25">
         <v>0.52361111111111114</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="25">
         <v>0.3444444444444445</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29">
+      <c r="C17" s="25"/>
+      <c r="D17" s="25">
         <v>0.40763888888888888</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="25">
         <v>0.42638888888888887</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="25">
         <v>0.46249999999999997</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="25">
         <v>0.48541666666666666</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="25">
         <v>0.49236111111111108</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="25">
         <v>0.51111111111111118</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="25">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="25">
         <v>0.38194444444444442</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="25">
         <v>0.4145833333333333</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="25">
         <v>0.45069444444444445</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="25">
         <v>0.48402777777777778</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="25">
         <v>0.47638888888888892</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="25">
         <v>0.5083333333333333</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="25">
         <v>0.52777777777777779</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="25">
         <v>0.34583333333333338</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="25">
         <v>0.37013888888888885</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="25">
         <v>0.3888888888888889</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="25">
         <v>0.41041666666666665</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="25">
         <v>0.44236111111111115</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="25">
         <v>0.46458333333333335</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="25">
         <v>0.47569444444444442</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="25">
         <v>0.5131944444444444</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="25">
         <v>0.34722222222222227</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29">
+      <c r="C20" s="25"/>
+      <c r="D20" s="25">
         <v>0.38194444444444442</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="25">
         <v>0.39652777777777781</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="25">
         <v>0.42986111111111108</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29">
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25">
         <v>0.4909722222222222</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="25">
         <v>0.34791666666666665</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29">
+      <c r="C21" s="25"/>
+      <c r="D21" s="25">
         <v>0.39097222222222222</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="25">
         <v>0.41041666666666665</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="25">
         <v>0.44097222222222227</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29">
+      <c r="G21" s="25"/>
+      <c r="H21" s="25">
         <v>0.49583333333333335</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="25">
         <v>0.51041666666666663</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="25">
         <v>0.37013888888888885</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29">
+      <c r="C22" s="25"/>
+      <c r="D22" s="25">
         <v>0.43333333333333335</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="25">
         <v>0.46319444444444446</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="25">
         <v>0.50277777777777777</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="25">
         <v>0.52500000000000002</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="25">
         <v>0.53541666666666665</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="25">
         <v>0.55694444444444446</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="25">
         <v>0.34861111111111115</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="25">
         <v>0.36388888888888887</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="25">
         <v>0.37777777777777777</v>
       </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29">
+      <c r="E23" s="25"/>
+      <c r="F23" s="25">
         <v>0.41944444444444445</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="25">
         <v>0.4368055555555555</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="25">
         <v>0.47222222222222227</v>
       </c>
-      <c r="I23" s="29"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="25">
         <v>0.34930555555555554</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="25">
         <v>0.36805555555555558</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="25">
         <v>0.45</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="25">
         <v>0.41388888888888892</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29">
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25">
         <v>0.46458333333333335</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="25">
         <v>0.48333333333333334</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="29">
-        <v>0</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
+      <c r="B25" s="25">
+        <v>0</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="25">
         <v>0.3611111111111111</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29">
+      <c r="C26" s="25"/>
+      <c r="D26" s="25">
         <v>0.40486111111111112</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="25">
         <v>0.42152777777777778</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="25">
         <v>0.44861111111111113</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="25">
         <v>0.4770833333333333</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" s="25">
         <v>0.48402777777777778</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="25">
         <v>0.50416666666666665</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="28">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="25">
         <v>0.35138888888888892</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29">
+      <c r="C27" s="25"/>
+      <c r="D27" s="25">
         <v>0.39097222222222222</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="25">
         <v>0.42569444444444443</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="25">
         <v>0.45347222222222222</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29">
+      <c r="G27" s="25"/>
+      <c r="H27" s="25">
         <v>0.48749999999999999</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="25">
         <v>0.51041666666666663</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="28">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="25">
         <v>0.3520833333333333</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="25">
         <v>0.37291666666666662</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="25">
         <v>0.38750000000000001</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="25">
         <v>0.4069444444444445</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="25">
         <v>0.43333333333333335</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="25">
         <v>0.45347222222222222</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="25">
         <v>0.46111111111111108</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="25">
         <v>0.47986111111111113</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="28">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="25">
         <v>0.3527777777777778</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="25">
         <v>0.36736111111111108</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="25">
         <v>0.3840277777777778</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="25">
         <v>0.42499999999999999</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="25">
         <v>0.45208333333333334</v>
       </c>
-      <c r="G29" s="29">
+      <c r="G29" s="25">
         <v>0.47291666666666665</v>
       </c>
-      <c r="H29" s="29">
-        <v>0</v>
-      </c>
-      <c r="I29" s="29">
+      <c r="H29" s="25">
+        <v>0</v>
+      </c>
+      <c r="I29" s="25">
         <v>0.49583333333333335</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="28">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="29">
-        <v>0</v>
-      </c>
-      <c r="C30" s="29">
-        <v>0</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
+      <c r="B30" s="25">
+        <v>0</v>
+      </c>
+      <c r="C30" s="25">
+        <v>0</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="25">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="25">
         <v>0.36736111111111108</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="25">
         <v>0.38055555555555554</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="25">
         <v>0.3979166666666667</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="25">
         <v>0.4201388888888889</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="25">
         <v>0.4368055555555555</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="25">
         <v>0.44930555555555557</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="25">
         <v>0.47013888888888888</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="28">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="25">
         <v>0.35486111111111113</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="25">
         <v>0.37291666666666662</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="25">
         <v>0.3972222222222222</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="25">
         <v>0.41944444444444445</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="25">
         <v>0.45</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="25">
         <v>0.47291666666666665</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H32" s="25">
         <v>0.4826388888888889</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="25">
         <v>0.50486111111111109</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="28">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="29">
-        <v>0</v>
-      </c>
-      <c r="C33" s="29">
-        <v>0</v>
-      </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29">
+      <c r="B33" s="25">
+        <v>0</v>
+      </c>
+      <c r="C33" s="25">
+        <v>0</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25">
         <v>0.49444444444444446</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="25">
         <v>0.51944444444444449</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="25">
         <v>0.53194444444444444</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="25">
         <v>0.55486111111111114</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="28">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="25">
         <v>0.35625000000000001</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29">
+      <c r="C34" s="25"/>
+      <c r="D34" s="25">
         <v>0.40625</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="25">
         <v>0.45902777777777781</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="25">
         <v>0.50624999999999998</v>
       </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="28">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="29">
+      <c r="B35" s="25">
         <v>0.35694444444444445</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="25">
         <v>0.37083333333333335</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="25">
         <v>0.38750000000000001</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="25">
         <v>0.40416666666666662</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="25">
         <v>0.43402777777777773</v>
       </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29">
+      <c r="G35" s="25"/>
+      <c r="H35" s="25">
         <v>0.46111111111111108</v>
       </c>
-      <c r="I35" s="29">
+      <c r="I35" s="25">
         <v>0.48680555555555555</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="28">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="29">
+      <c r="B36" s="25">
         <v>0.3576388888888889</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="25">
         <v>0.40416666666666662</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="25">
         <v>0.44236111111111115</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="25">
         <v>0.4055555555555555</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="25">
         <v>0.52083333333333337</v>
       </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="28">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="29">
+      <c r="B37" s="25">
         <v>0.35833333333333334</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="25">
         <v>0.37291666666666662</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="25">
         <v>0.38819444444444445</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="25">
         <v>0.4055555555555555</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="25">
         <v>0.43541666666666662</v>
       </c>
-      <c r="G37" s="29">
+      <c r="G37" s="25">
         <v>0.48125000000000001</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H37" s="25">
         <v>0.49583333333333335</v>
       </c>
-      <c r="I37" s="29">
+      <c r="I37" s="25">
         <v>0.51250000000000007</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="28">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="29">
+      <c r="B38" s="25">
         <v>0.35902777777777778</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="25">
         <v>0.37361111111111112</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="25">
         <v>0.39027777777777778</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="25">
         <v>0.40902777777777777</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="25">
         <v>0.44166666666666665</v>
       </c>
-      <c r="G38" s="29">
+      <c r="G38" s="25">
         <v>0.46180555555555558</v>
       </c>
-      <c r="H38" s="29">
+      <c r="H38" s="25">
         <v>0.47083333333333338</v>
       </c>
-      <c r="I38" s="29">
+      <c r="I38" s="25">
         <v>0.49513888888888885</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="28">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="29">
+      <c r="B39" s="25">
         <v>0.35972222222222222</v>
       </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29">
+      <c r="C39" s="25"/>
+      <c r="D39" s="25">
         <v>0.39097222222222222</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="25">
         <v>0.40972222222222227</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="25">
         <v>0.4465277777777778</v>
       </c>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29">
+      <c r="G39" s="25"/>
+      <c r="H39" s="25">
         <v>0.47152777777777777</v>
       </c>
-      <c r="I39" s="29">
+      <c r="I39" s="25">
         <v>0.49513888888888885</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="28">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="29">
-        <v>0</v>
-      </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29">
+      <c r="B40" s="25">
+        <v>0</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25">
         <v>0.50416666666666665</v>
       </c>
-      <c r="G40" s="29">
+      <c r="G40" s="25">
         <v>0.51944444444444449</v>
       </c>
-      <c r="H40" s="29">
+      <c r="H40" s="25">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I40" s="29">
+      <c r="I40" s="25">
         <v>0.54791666666666672</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="28">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="29">
+      <c r="B41" s="25">
         <v>0.3611111111111111</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="25">
         <v>0.38750000000000001</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="25">
         <v>0.4152777777777778</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="25">
         <v>0.43541666666666662</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F41" s="25">
         <v>0.45763888888888887</v>
       </c>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29">
+      <c r="G41" s="25"/>
+      <c r="H41" s="25">
         <v>0.50069444444444444</v>
       </c>
-      <c r="I41" s="29">
+      <c r="I41" s="25">
         <v>0.51736111111111105</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="28">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="29">
+      <c r="B42" s="25">
         <v>0.36180555555555555</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="25">
         <v>0.3833333333333333</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="25">
         <v>0.40763888888888888</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="25">
         <v>0.42708333333333331</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F42" s="25">
         <v>0.46249999999999997</v>
       </c>
-      <c r="G42" s="29">
+      <c r="G42" s="25">
         <v>0.48333333333333334</v>
       </c>
-      <c r="H42" s="29">
+      <c r="H42" s="25">
         <v>0.50138888888888888</v>
       </c>
-      <c r="I42" s="29">
+      <c r="I42" s="25">
         <v>0.51736111111111105</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="28">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="29">
-        <v>0</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29">
+      <c r="B43" s="25">
+        <v>0</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25">
         <v>0.49444444444444446</v>
       </c>
-      <c r="G43" s="29">
+      <c r="G43" s="25">
         <v>0.51944444444444449</v>
       </c>
-      <c r="H43" s="29">
+      <c r="H43" s="25">
         <v>0.53194444444444444</v>
       </c>
-      <c r="I43" s="29">
+      <c r="I43" s="25">
         <v>0.55486111111111114</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="28">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="29">
+      <c r="B44" s="25">
         <v>0.36388888888888887</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="25">
         <v>0.39513888888888887</v>
       </c>
-      <c r="D44" s="29">
+      <c r="D44" s="25">
         <v>0.41111111111111115</v>
       </c>
-      <c r="E44" s="29">
+      <c r="E44" s="25">
         <v>0.42777777777777781</v>
       </c>
-      <c r="F44" s="29">
+      <c r="F44" s="25">
         <v>0.4465277777777778</v>
       </c>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29">
+      <c r="G44" s="25"/>
+      <c r="H44" s="25">
         <v>0.48749999999999999</v>
       </c>
-      <c r="I44" s="29">
+      <c r="I44" s="25">
         <v>0.50902777777777775</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="28">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="29">
-        <v>0</v>
-      </c>
-      <c r="C45" s="29">
+      <c r="B45" s="25">
+        <v>0</v>
+      </c>
+      <c r="C45" s="25">
         <v>0.37916666666666665</v>
       </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29">
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25">
         <v>0.49444444444444446</v>
       </c>
-      <c r="G45" s="29">
+      <c r="G45" s="25">
         <v>0.51944444444444449</v>
       </c>
-      <c r="H45" s="29">
+      <c r="H45" s="25">
         <v>0.53194444444444444</v>
       </c>
-      <c r="I45" s="29">
+      <c r="I45" s="25">
         <v>0.55486111111111114</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="28">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="29">
+      <c r="B46" s="25">
         <v>0.36527777777777781</v>
       </c>
-      <c r="C46" s="29">
+      <c r="C46" s="25">
         <v>0.37916666666666665</v>
       </c>
-      <c r="D46" s="29">
+      <c r="D46" s="25">
         <v>0.3972222222222222</v>
       </c>
-      <c r="E46" s="29">
+      <c r="E46" s="25">
         <v>0.4152777777777778</v>
       </c>
-      <c r="F46" s="29">
+      <c r="F46" s="25">
         <v>0.43958333333333338</v>
       </c>
-      <c r="G46" s="29">
+      <c r="G46" s="25">
         <v>0.46249999999999997</v>
       </c>
-      <c r="H46" s="29">
+      <c r="H46" s="25">
         <v>0.4694444444444445</v>
       </c>
-      <c r="I46" s="29">
+      <c r="I46" s="25">
         <v>0.47986111111111113</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="28">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="29">
+      <c r="B47" s="25">
         <v>0.3659722222222222</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C47" s="25">
         <v>0.38194444444444442</v>
       </c>
-      <c r="D47" s="29">
+      <c r="D47" s="25">
         <v>0.39652777777777781</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E47" s="25">
         <v>0.4152777777777778</v>
       </c>
-      <c r="F47" s="29">
+      <c r="F47" s="25">
         <v>0.43541666666666662</v>
       </c>
-      <c r="G47" s="29">
+      <c r="G47" s="25">
         <v>0.45277777777777778</v>
       </c>
-      <c r="H47" s="29">
+      <c r="H47" s="25">
         <v>0.4604166666666667</v>
       </c>
-      <c r="I47" s="29">
+      <c r="I47" s="25">
         <v>0.4826388888888889</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="28">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="29">
+      <c r="B48" s="25">
         <v>0.3666666666666667</v>
       </c>
-      <c r="C48" s="29">
+      <c r="C48" s="25">
         <v>0.37916666666666665</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="25">
         <v>0.4069444444444445</v>
       </c>
-      <c r="E48" s="29">
+      <c r="E48" s="25">
         <v>0.44097222222222227</v>
       </c>
-      <c r="F48" s="29">
+      <c r="F48" s="25">
         <v>0.4680555555555555</v>
       </c>
-      <c r="G48" s="29">
+      <c r="G48" s="25">
         <v>0.4909722222222222</v>
       </c>
-      <c r="H48" s="29">
+      <c r="H48" s="25">
         <v>0.50694444444444442</v>
       </c>
-      <c r="I48" s="29">
+      <c r="I48" s="25">
         <v>0.52361111111111114</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="28">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="29">
+      <c r="B49" s="25">
         <v>0.36736111111111108</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="25">
         <v>0.38472222222222219</v>
       </c>
-      <c r="D49" s="29">
+      <c r="D49" s="25">
         <v>0.4055555555555555</v>
       </c>
-      <c r="E49" s="29">
+      <c r="E49" s="25">
         <v>0.42222222222222222</v>
       </c>
-      <c r="F49" s="29">
+      <c r="F49" s="25">
         <v>0.45416666666666666</v>
       </c>
-      <c r="G49" s="29">
+      <c r="G49" s="25">
         <v>0.47152777777777777</v>
       </c>
-      <c r="H49" s="29">
+      <c r="H49" s="25">
         <v>0.48333333333333334</v>
       </c>
-      <c r="I49" s="29">
+      <c r="I49" s="25">
         <v>0.51041666666666663</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="28">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="29">
+      <c r="B50" s="25">
         <v>0.36805555555555558</v>
       </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29">
+      <c r="C50" s="25"/>
+      <c r="D50" s="25">
         <v>0.42083333333333334</v>
       </c>
-      <c r="E50" s="29">
+      <c r="E50" s="25">
         <v>0.4777777777777778</v>
       </c>
-      <c r="F50" s="29">
+      <c r="F50" s="25">
         <v>0.50416666666666665</v>
       </c>
-      <c r="G50" s="29">
+      <c r="G50" s="25">
         <v>0.52708333333333335</v>
       </c>
-      <c r="H50" s="29">
+      <c r="H50" s="25">
         <v>0.53472222222222221</v>
       </c>
-      <c r="I50" s="29"/>
+      <c r="I50" s="25"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="28">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="29">
+      <c r="B51" s="25">
         <v>0.36874999999999997</v>
       </c>
-      <c r="C51" s="29">
+      <c r="C51" s="25">
         <v>0.3972222222222222</v>
       </c>
-      <c r="D51" s="29">
+      <c r="D51" s="25">
         <v>0.42291666666666666</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E51" s="25">
         <v>0.46388888888888885</v>
       </c>
-      <c r="F51" s="29">
+      <c r="F51" s="25">
         <v>0.51180555555555551</v>
       </c>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="28">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="29">
+      <c r="B52" s="25">
         <v>0.36944444444444446</v>
       </c>
-      <c r="C52" s="29">
+      <c r="C52" s="25">
         <v>0.38750000000000001</v>
       </c>
-      <c r="D52" s="29">
+      <c r="D52" s="25">
         <v>0.40486111111111112</v>
       </c>
-      <c r="E52" s="29">
+      <c r="E52" s="25">
         <v>0.42291666666666666</v>
       </c>
-      <c r="F52" s="29">
+      <c r="F52" s="25">
         <v>0.4465277777777778</v>
       </c>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29">
+      <c r="G52" s="25"/>
+      <c r="H52" s="25">
         <v>0.47222222222222227</v>
       </c>
-      <c r="I52" s="29">
+      <c r="I52" s="25">
         <v>0.49374999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="28">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="29">
+      <c r="B53" s="25">
         <v>0.37986111111111115</v>
       </c>
-      <c r="C53" s="29">
+      <c r="C53" s="25">
         <v>0.39374999999999999</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="25">
         <v>0.4069444444444445</v>
       </c>
-      <c r="E53" s="29">
+      <c r="E53" s="25">
         <v>0.4236111111111111</v>
       </c>
-      <c r="F53" s="29">
+      <c r="F53" s="25">
         <v>0.44305555555555554</v>
       </c>
-      <c r="G53" s="29">
+      <c r="G53" s="25">
         <v>0.46180555555555558</v>
       </c>
-      <c r="H53" s="29">
+      <c r="H53" s="25">
         <v>0.47152777777777777</v>
       </c>
-      <c r="I53" s="29">
+      <c r="I53" s="25">
         <v>0.49236111111111108</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="28">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="29">
+      <c r="B54" s="25">
         <v>0.37083333333333335</v>
       </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29">
+      <c r="C54" s="25"/>
+      <c r="D54" s="25">
         <v>0.42083333333333334</v>
       </c>
-      <c r="E54" s="29">
+      <c r="E54" s="25">
         <v>0.4597222222222222</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F54" s="25">
         <v>0.50624999999999998</v>
       </c>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="28">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="29">
+      <c r="B55" s="25">
         <v>0.37152777777777773</v>
       </c>
-      <c r="C55" s="29">
+      <c r="C55" s="25">
         <v>0.3923611111111111</v>
       </c>
-      <c r="D55" s="29">
+      <c r="D55" s="25">
         <v>0.40763888888888888</v>
       </c>
-      <c r="E55" s="29">
+      <c r="E55" s="25">
         <v>0.42569444444444443</v>
       </c>
-      <c r="F55" s="29">
+      <c r="F55" s="25">
         <v>0.45347222222222222</v>
       </c>
-      <c r="G55" s="29">
+      <c r="G55" s="25">
         <v>0.47222222222222227</v>
       </c>
-      <c r="H55" s="29">
+      <c r="H55" s="25">
         <v>0.4826388888888889</v>
       </c>
-      <c r="I55" s="29">
+      <c r="I55" s="25">
         <v>0.5083333333333333</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="28">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="29">
+      <c r="B56" s="25">
         <v>0.37222222222222223</v>
       </c>
-      <c r="C56" s="29">
+      <c r="C56" s="25">
         <v>0.39374999999999999</v>
       </c>
-      <c r="D56" s="29">
+      <c r="D56" s="25">
         <v>0.40902777777777777</v>
       </c>
-      <c r="E56" s="29">
+      <c r="E56" s="25">
         <v>0.42777777777777781</v>
       </c>
-      <c r="F56" s="29">
+      <c r="F56" s="25">
         <v>0.44930555555555557</v>
       </c>
-      <c r="G56" s="29">
+      <c r="G56" s="25">
         <v>0.48541666666666666</v>
       </c>
-      <c r="H56" s="29">
+      <c r="H56" s="25">
         <v>0.49305555555555558</v>
       </c>
-      <c r="I56" s="29">
+      <c r="I56" s="25">
         <v>0.51527777777777783</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="28">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="29">
+      <c r="B57" s="25">
         <v>0.37291666666666662</v>
       </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29">
+      <c r="C57" s="25"/>
+      <c r="D57" s="25">
         <v>0.40902777777777777</v>
       </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29">
+      <c r="E57" s="25"/>
+      <c r="F57" s="25">
         <v>0.49444444444444446</v>
       </c>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29">
+      <c r="G57" s="25"/>
+      <c r="H57" s="25">
         <v>0.53194444444444444</v>
       </c>
-      <c r="I57" s="29">
+      <c r="I57" s="25">
         <v>0.55486111111111114</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="28">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="29">
+      <c r="B58" s="25">
         <v>0.37361111111111112</v>
       </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29">
+      <c r="C58" s="25"/>
+      <c r="D58" s="25">
         <v>0.46458333333333335</v>
       </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29">
+      <c r="E58" s="25"/>
+      <c r="F58" s="25">
         <v>0.50416666666666665</v>
       </c>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29">
+      <c r="G58" s="25"/>
+      <c r="H58" s="25">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I58" s="29">
+      <c r="I58" s="25">
         <v>0.54791666666666672</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="28">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="29">
+      <c r="B59" s="25">
         <v>0.3743055555555555</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29">
+      <c r="C59" s="25"/>
+      <c r="D59" s="25">
         <v>0.45763888888888887</v>
       </c>
-      <c r="E59" s="29">
+      <c r="E59" s="25">
         <v>0.46111111111111108</v>
       </c>
-      <c r="F59" s="29">
+      <c r="F59" s="25">
         <v>0.49444444444444446</v>
       </c>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29">
+      <c r="G59" s="25"/>
+      <c r="H59" s="25">
         <v>0.53194444444444444</v>
       </c>
-      <c r="I59" s="29">
+      <c r="I59" s="25">
         <v>0.55486111111111114</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="28">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="29">
-        <v>0</v>
-      </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29">
+      <c r="B60" s="25">
+        <v>0</v>
+      </c>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25">
         <v>0.46458333333333335</v>
       </c>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29">
+      <c r="E60" s="25"/>
+      <c r="F60" s="25">
         <v>0.50416666666666665</v>
       </c>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29">
+      <c r="G60" s="25"/>
+      <c r="H60" s="25">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I60" s="29">
+      <c r="I60" s="25">
         <v>0.54791666666666672</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="28">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="29">
+      <c r="B61" s="25">
         <v>0.3756944444444445</v>
       </c>
-      <c r="C61" s="29">
+      <c r="C61" s="25">
         <v>0.42638888888888887</v>
       </c>
-      <c r="D61" s="29">
+      <c r="D61" s="25">
         <v>0.45763888888888887</v>
       </c>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29">
+      <c r="E61" s="25"/>
+      <c r="F61" s="25">
         <v>0.49444444444444446</v>
       </c>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29">
+      <c r="G61" s="25"/>
+      <c r="H61" s="25">
         <v>0.53194444444444444</v>
       </c>
-      <c r="I61" s="29">
+      <c r="I61" s="25">
         <v>0.55486111111111114</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="28">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="29">
+      <c r="B62" s="25">
         <v>0.37638888888888888</v>
       </c>
-      <c r="C62" s="29">
+      <c r="C62" s="25">
         <v>0.40902777777777777</v>
       </c>
-      <c r="D62" s="29">
+      <c r="D62" s="25">
         <v>0.43541666666666662</v>
       </c>
-      <c r="E62" s="29">
+      <c r="E62" s="25">
         <v>0.45694444444444443</v>
       </c>
-      <c r="F62" s="29">
+      <c r="F62" s="25">
         <v>0.48888888888888887</v>
       </c>
-      <c r="G62" s="29">
+      <c r="G62" s="25">
         <v>0.51874999999999993</v>
       </c>
-      <c r="H62" s="29">
+      <c r="H62" s="25">
         <v>0.52847222222222223</v>
       </c>
-      <c r="I62" s="29">
+      <c r="I62" s="25">
         <v>0.54791666666666672</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="28">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="29">
-        <v>0</v>
-      </c>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29">
+      <c r="B63" s="25">
+        <v>0</v>
+      </c>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25">
         <v>0.45763888888888887</v>
       </c>
-      <c r="E63" s="29">
+      <c r="E63" s="25">
         <v>0.47430555555555554</v>
       </c>
-      <c r="F63" s="29">
+      <c r="F63" s="25">
         <v>0.49444444444444446</v>
       </c>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29">
+      <c r="G63" s="25"/>
+      <c r="H63" s="25">
         <v>0.53194444444444444</v>
       </c>
-      <c r="I63" s="29">
+      <c r="I63" s="25">
         <v>0.55486111111111114</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="28">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="29">
-        <v>0</v>
-      </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29">
+      <c r="B64" s="25">
+        <v>0</v>
+      </c>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25">
         <v>0.46458333333333335</v>
       </c>
-      <c r="E64" s="29">
+      <c r="E64" s="25">
         <v>0.48819444444444443</v>
       </c>
-      <c r="F64" s="29">
+      <c r="F64" s="25">
         <v>0.50416666666666665</v>
       </c>
-      <c r="G64" s="29">
+      <c r="G64" s="25">
         <v>0.51944444444444449</v>
       </c>
-      <c r="H64" s="29">
+      <c r="H64" s="25">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I64" s="29">
+      <c r="I64" s="25">
         <v>0.54791666666666672</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="28">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="29">
-        <v>0</v>
-      </c>
-      <c r="C65" s="29">
-        <v>0</v>
-      </c>
-      <c r="D65" s="29">
+      <c r="B65" s="25">
+        <v>0</v>
+      </c>
+      <c r="C65" s="25">
+        <v>0</v>
+      </c>
+      <c r="D65" s="25">
         <v>0.45763888888888887</v>
       </c>
-      <c r="E65" s="29">
+      <c r="E65" s="25">
         <v>0.47430555555555554</v>
       </c>
-      <c r="F65" s="29">
+      <c r="F65" s="25">
         <v>0.49444444444444446</v>
       </c>
-      <c r="G65" s="29">
+      <c r="G65" s="25">
         <v>0.51944444444444449</v>
       </c>
-      <c r="H65" s="29">
+      <c r="H65" s="25">
         <v>0.53194444444444444</v>
       </c>
-      <c r="I65" s="29">
+      <c r="I65" s="25">
         <v>0.55486111111111114</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="28">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="29">
+      <c r="B66" s="25">
         <v>0.37916666666666665</v>
       </c>
-      <c r="C66" s="29">
+      <c r="C66" s="25">
         <v>0.40902777777777777</v>
       </c>
-      <c r="D66" s="29">
+      <c r="D66" s="25">
         <v>0.45208333333333334</v>
       </c>
-      <c r="E66" s="29">
+      <c r="E66" s="25">
         <v>0.47986111111111113</v>
       </c>
-      <c r="F66" s="29">
+      <c r="F66" s="25">
         <v>0.50694444444444442</v>
       </c>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29">
+      <c r="G66" s="25"/>
+      <c r="H66" s="25">
         <v>0.53055555555555556</v>
       </c>
-      <c r="I66" s="29">
+      <c r="I66" s="25">
         <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="28">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="29">
-        <v>0</v>
-      </c>
-      <c r="C67" s="29">
-        <v>0</v>
-      </c>
-      <c r="D67" s="29">
+      <c r="B67" s="25">
+        <v>0</v>
+      </c>
+      <c r="C67" s="25">
+        <v>0</v>
+      </c>
+      <c r="D67" s="25">
         <v>0.45763888888888887</v>
       </c>
-      <c r="E67" s="29">
+      <c r="E67" s="25">
         <v>0.47430555555555554</v>
       </c>
-      <c r="F67" s="29">
+      <c r="F67" s="25">
         <v>0.49444444444444446</v>
       </c>
-      <c r="G67" s="29">
+      <c r="G67" s="25">
         <v>0.51944444444444449</v>
       </c>
-      <c r="H67" s="29">
+      <c r="H67" s="25">
         <v>0.53194444444444444</v>
       </c>
-      <c r="I67" s="29">
+      <c r="I67" s="25">
         <v>0.55486111111111114</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="28">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="29">
-        <v>0</v>
-      </c>
-      <c r="C68" s="29">
-        <v>0</v>
-      </c>
-      <c r="D68" s="29">
+      <c r="B68" s="25">
+        <v>0</v>
+      </c>
+      <c r="C68" s="25">
+        <v>0</v>
+      </c>
+      <c r="D68" s="25">
         <v>0.46458333333333335</v>
       </c>
-      <c r="E68" s="29">
+      <c r="E68" s="25">
         <v>0.48819444444444443</v>
       </c>
-      <c r="F68" s="29">
+      <c r="F68" s="25">
         <v>0.50416666666666665</v>
       </c>
-      <c r="G68" s="29">
+      <c r="G68" s="25">
         <v>0.51944444444444449</v>
       </c>
-      <c r="H68" s="29">
+      <c r="H68" s="25">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I68" s="29">
+      <c r="I68" s="25">
         <v>0.54791666666666672</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="28">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="29">
-        <v>0</v>
-      </c>
-      <c r="C69" s="29">
-        <v>0</v>
-      </c>
-      <c r="D69" s="29">
+      <c r="B69" s="25">
+        <v>0</v>
+      </c>
+      <c r="C69" s="25">
+        <v>0</v>
+      </c>
+      <c r="D69" s="25">
         <v>0.45763888888888887</v>
       </c>
-      <c r="E69" s="29">
+      <c r="E69" s="25">
         <v>0.47430555555555554</v>
       </c>
-      <c r="F69" s="29">
+      <c r="F69" s="25">
         <v>0.49444444444444446</v>
       </c>
-      <c r="G69" s="29">
+      <c r="G69" s="25">
         <v>0.51944444444444449</v>
       </c>
-      <c r="H69" s="29">
+      <c r="H69" s="25">
         <v>0.53194444444444444</v>
       </c>
-      <c r="I69" s="29">
+      <c r="I69" s="25">
         <v>0.55486111111111114</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="28">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="29">
-        <v>0</v>
-      </c>
-      <c r="C70" s="29">
-        <v>0</v>
-      </c>
-      <c r="D70" s="29">
+      <c r="B70" s="25">
+        <v>0</v>
+      </c>
+      <c r="C70" s="25">
+        <v>0</v>
+      </c>
+      <c r="D70" s="25">
         <v>0.46458333333333335</v>
       </c>
-      <c r="E70" s="29">
+      <c r="E70" s="25">
         <v>0.48819444444444443</v>
       </c>
-      <c r="F70" s="29">
+      <c r="F70" s="25">
         <v>0.50416666666666665</v>
       </c>
-      <c r="G70" s="29">
+      <c r="G70" s="25">
         <v>0.51944444444444449</v>
       </c>
-      <c r="H70" s="29">
+      <c r="H70" s="25">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I70" s="29">
+      <c r="I70" s="25">
         <v>0.54791666666666672</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="28">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="29">
+      <c r="B71" s="25">
         <v>0.37847222222222227</v>
       </c>
-      <c r="C71" s="29">
+      <c r="C71" s="25">
         <v>0.42569444444444443</v>
       </c>
-      <c r="D71" s="29">
+      <c r="D71" s="25">
         <v>0.45069444444444445</v>
       </c>
-      <c r="E71" s="29">
+      <c r="E71" s="25">
         <v>0.47847222222222219</v>
       </c>
-      <c r="F71" s="29">
+      <c r="F71" s="25">
         <v>0.5083333333333333</v>
       </c>
-      <c r="G71" s="29">
+      <c r="G71" s="25">
         <v>0.52361111111111114</v>
       </c>
-      <c r="H71" s="29">
+      <c r="H71" s="25">
         <v>0.52986111111111112</v>
       </c>
-      <c r="I71" s="29">
+      <c r="I71" s="25">
         <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="28">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="29">
+      <c r="B72" s="25">
         <v>0.37708333333333338</v>
       </c>
-      <c r="C72" s="29">
+      <c r="C72" s="25">
         <v>0.41736111111111113</v>
       </c>
-      <c r="D72" s="29">
+      <c r="D72" s="25">
         <v>0.44097222222222227</v>
       </c>
-      <c r="E72" s="29">
+      <c r="E72" s="25">
         <v>0.4604166666666667</v>
       </c>
-      <c r="F72" s="29">
+      <c r="F72" s="25">
         <v>0.48055555555555557</v>
       </c>
-      <c r="G72" s="29">
+      <c r="G72" s="25">
         <v>0.49513888888888885</v>
       </c>
-      <c r="H72" s="29">
+      <c r="H72" s="25">
         <v>0.50694444444444442</v>
       </c>
-      <c r="I72" s="29">
+      <c r="I72" s="25">
         <v>0.52361111111111114</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="28">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="29">
+      <c r="B73" s="25">
         <v>0.37777777777777777</v>
       </c>
-      <c r="C73" s="29">
+      <c r="C73" s="25">
         <v>0.41805555555555557</v>
       </c>
-      <c r="D73" s="29">
+      <c r="D73" s="25">
         <v>0.45763888888888887</v>
       </c>
-      <c r="E73" s="29">
+      <c r="E73" s="25">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F73" s="29">
+      <c r="F73" s="25">
         <v>0.49583333333333335</v>
       </c>
-      <c r="G73" s="29">
+      <c r="G73" s="25">
         <v>0.50555555555555554</v>
       </c>
-      <c r="H73" s="29">
+      <c r="H73" s="25">
         <v>0.51180555555555551</v>
       </c>
-      <c r="I73" s="29">
+      <c r="I73" s="25">
         <v>0.55486111111111114</v>
       </c>
     </row>
